--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="17655" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -130,6 +130,12 @@
     <t>collisionEffectList</t>
   </si>
   <si>
+    <t>collisionDamageChange</t>
+  </si>
+  <si>
+    <t>collisionDamageChangeLimit</t>
+  </si>
+  <si>
     <t>endEffectList</t>
   </si>
   <si>
@@ -202,6 +208,12 @@
     <t>碰到物体时触发的效果列表</t>
   </si>
   <si>
+    <t>碰到物体后的伤害改变值（千分比，加法）</t>
+  </si>
+  <si>
+    <t>碰到物体后的伤害改变值限制（千分比，加法）</t>
+  </si>
+  <si>
     <t>结束的时候触发的效果列表</t>
   </si>
   <si>
@@ -223,13 +235,28 @@
     <t>效果资源id</t>
   </si>
   <si>
+    <t>唐依 普通攻击投掷物</t>
+  </si>
+  <si>
+    <t>回旋镖 投掷物 lv1</t>
+  </si>
+  <si>
+    <t>回旋镖 投掷物 lv2</t>
+  </si>
+  <si>
+    <t>回旋镖 投掷物 lv3</t>
+  </si>
+  <si>
+    <t>回旋镖 投掷物 lv4</t>
+  </si>
+  <si>
+    <t>回旋镖 投掷物 lv5</t>
+  </si>
+  <si>
     <t>上官翎普通攻击投掷物</t>
   </si>
   <si>
     <t>上官翎技能1投掷物</t>
-  </si>
-  <si>
-    <t>唐依 普通攻击投掷物</t>
   </si>
   <si>
     <t>唐依 Q 投掷物</t>
@@ -431,12 +458,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1293,12 +1320,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O2" sqref="O2"/>
+      <selection pane="topRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1316,13 +1343,14 @@
     <col min="12" max="12" width="21.875" customWidth="1"/>
     <col min="13" max="13" width="24.75" customWidth="1"/>
     <col min="14" max="14" width="25.75" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="28.375" customWidth="1"/>
-    <col min="17" max="20" width="19.125" customWidth="1"/>
-    <col min="21" max="21" width="12.25" customWidth="1"/>
+    <col min="15" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="18" max="18" width="28.375" customWidth="1"/>
+    <col min="19" max="22" width="19.125" customWidth="1"/>
+    <col min="23" max="23" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" ht="27" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1396,7 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -1386,254 +1414,238 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:21">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:23">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3001001</v>
-      </c>
-      <c r="C4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="U3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:23">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3000101</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
         <v>99999999</v>
       </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>15000</v>
+      </c>
+      <c r="J6" s="8">
         <v>1500</v>
       </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>4001001</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3001002</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>500</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>7000</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1500</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>4001002</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>15008016</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="7" spans="3:12">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1642,45 +1654,92 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:21">
+    <row r="8" customFormat="1" spans="1:23">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3100101</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>4100101</v>
+      </c>
+      <c r="O8">
+        <v>-200</v>
+      </c>
+      <c r="P8">
+        <v>-600</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:23">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>3001011</v>
+        <v>3100102</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>99999999</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="J9" s="8">
         <v>1500</v>
@@ -1689,36 +1748,42 @@
         <v>1</v>
       </c>
       <c r="L9" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>4100102</v>
       </c>
       <c r="O9">
-        <v>4001001</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
+        <v>-200</v>
+      </c>
+      <c r="P9">
+        <v>-600</v>
+      </c>
+      <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:23">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>3001012</v>
+        <v>3100103</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
@@ -1727,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="J10" s="8">
         <v>1500</v>
@@ -1745,48 +1810,54 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>4001006</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
+        <v>4100103</v>
+      </c>
+      <c r="O10">
+        <v>-200</v>
+      </c>
+      <c r="P10">
+        <v>-600</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>9999999</v>
+      </c>
+      <c r="W10">
         <v>15008003</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" customFormat="1" spans="1:23">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2">
-        <v>3001013</v>
+        <v>3100104</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>99999999</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="J11" s="8">
         <v>1500</v>
@@ -1795,51 +1866,57 @@
         <v>1</v>
       </c>
       <c r="L11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>4001007</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
+        <v>4100104</v>
+      </c>
+      <c r="O11">
+        <v>-200</v>
+      </c>
+      <c r="P11">
+        <v>-600</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>9999999</v>
+      </c>
+      <c r="W11">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:23">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2">
-        <v>3001014</v>
+        <v>3100105</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>99999999</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J12" s="8">
         <v>1500</v>
@@ -1848,22 +1925,28 @@
         <v>1</v>
       </c>
       <c r="L12" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>4100105</v>
       </c>
       <c r="O12">
-        <v>13001012</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>15008007</v>
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>9999999</v>
+      </c>
+      <c r="W12">
+        <v>15008003</v>
       </c>
     </row>
     <row r="13" spans="3:12">
@@ -1890,19 +1973,17 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:12">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+    <row r="15" spans="3:12">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="3:12">
       <c r="C16" s="8"/>
@@ -1916,108 +1997,29 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3002001</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1500</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>4002001</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3002002</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>500</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>7000</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1500</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>4002002</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>15008003</v>
-      </c>
+    <row r="17" spans="3:12">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="3:12">
       <c r="C19" s="8"/>
@@ -2031,111 +2033,29 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" customFormat="1" spans="1:21">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3002011</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>8000</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1500</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>4002006</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3002012</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>12000</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K21" s="8">
-        <v>1</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>4002007</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>15008003</v>
-      </c>
+    <row r="20" spans="3:12">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="8"/>
@@ -2149,83 +2069,42 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3003001</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
+    <row r="23" spans="3:12">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="2">
+        <v>3001001</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
         <v>99999999</v>
       </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
         <v>99999999</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1500</v>
-      </c>
-      <c r="K23" s="8">
-        <v>1</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>4002001</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3003002</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>500</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>17000</v>
       </c>
       <c r="J24" s="8">
         <v>1500</v>
@@ -2234,36 +2113,30 @@
         <v>1</v>
       </c>
       <c r="L24" s="8">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>4002011</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
+        <v>4001001</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>9999999</v>
-      </c>
-      <c r="U24">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
       <c r="B25" s="2">
-        <v>3003003</v>
+        <v>3001002</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="9">
         <v>0</v>
@@ -2275,10 +2148,10 @@
         <v>500</v>
       </c>
       <c r="H25" s="8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="J25" s="8">
         <v>1500</v>
@@ -2290,71 +2163,744 @@
         <v>1</v>
       </c>
       <c r="N25">
+        <v>4001002</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>15008016</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29" s="2">
+        <v>3001011</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <v>15000</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>4001001</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30" s="2">
+        <v>3001012</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>18000</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>4001006</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31" s="2">
+        <v>3001013</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <v>15000</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>4001007</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="B32" s="2">
+        <v>3001014</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>13001012</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:12">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3002001</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="J37" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>4002001</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3002002</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>500</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>7000</v>
+      </c>
+      <c r="J38" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>4002002</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" customFormat="1" spans="1:23">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3002011</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <v>8000</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>4002006</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3002012</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>12000</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>4002007</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3003001</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="J43" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K43" s="8">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>4002001</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3003002</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>500</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
+        <v>17000</v>
+      </c>
+      <c r="J44" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>4002011</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="T25">
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="V44">
         <v>9999999</v>
       </c>
-      <c r="U25">
+      <c r="W44">
         <v>15008008</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="45" spans="1:23">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3003003</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>500</v>
+      </c>
+      <c r="H45" s="8">
+        <v>30</v>
+      </c>
+      <c r="I45" s="8">
+        <v>17000</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1</v>
+      </c>
+      <c r="L45" s="8">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>4002011</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>9999999</v>
+      </c>
+      <c r="W45">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
         <v>3003004</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="C46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="8">
         <v>500</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H46" s="8">
         <v>-30</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I46" s="8">
         <v>17000</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J46" s="8">
         <v>1500</v>
       </c>
-      <c r="K26" s="8">
-        <v>1</v>
-      </c>
-      <c r="L26" s="8">
-        <v>1</v>
-      </c>
-      <c r="N26">
+      <c r="K46" s="8">
+        <v>1</v>
+      </c>
+      <c r="L46" s="8">
+        <v>1</v>
+      </c>
+      <c r="N46">
         <v>4002011</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="T26">
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="V46">
         <v>9999999</v>
       </c>
-      <c r="U26">
+      <c r="W46">
         <v>15008008</v>
       </c>
     </row>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17655" windowHeight="12015"/>
+    <workbookView windowWidth="19485" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,12 +458,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1322,10 +1322,10 @@
   <sheetPr/>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P13" sqref="P13"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="11445"/>
+    <workbookView windowWidth="14970" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Zxy</author>
+    <author>94067</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0">
@@ -57,7 +58,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0">
+    <comment ref="G3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 实体投掷
+1 隐形投掷（还是投掷物的属性，但是不算投掷物一般来说近战的普通攻击都是该类型）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -106,6 +130,9 @@
     <t>isFollow</t>
   </si>
   <si>
+    <t>projectileType</t>
+  </si>
+  <si>
     <t>lastTime</t>
   </si>
   <si>
@@ -182,6 +209,9 @@
   </si>
   <si>
     <t>是否跟随</t>
+  </si>
+  <si>
+    <t>投掷物类型</t>
   </si>
   <si>
     <t>持续时间(ms)</t>
@@ -1320,12 +1350,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1335,22 +1365,22 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="21.875" customWidth="1"/>
-    <col min="13" max="13" width="24.75" customWidth="1"/>
-    <col min="14" max="14" width="25.75" customWidth="1"/>
-    <col min="15" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="28.375" customWidth="1"/>
-    <col min="19" max="22" width="19.125" customWidth="1"/>
-    <col min="23" max="23" width="12.25" customWidth="1"/>
+    <col min="6" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="21.875" customWidth="1"/>
+    <col min="14" max="14" width="24.75" customWidth="1"/>
+    <col min="15" max="15" width="25.75" customWidth="1"/>
+    <col min="16" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="25" customWidth="1"/>
+    <col min="19" max="19" width="28.375" customWidth="1"/>
+    <col min="20" max="23" width="19.125" customWidth="1"/>
+    <col min="24" max="24" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:23">
+    <row r="1" ht="27" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1396,10 +1426,10 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
@@ -1420,150 +1450,159 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
         <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="W2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:23">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:24">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:12">
+      <c r="W3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:13">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
@@ -1576,8 +1615,9 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="3:12">
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="3:13">
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1588,8 +1628,9 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:23">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:24">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1597,10 +1638,10 @@
         <v>3000101</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
@@ -1608,41 +1649,42 @@
       <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <v>99999999</v>
       </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
       <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <v>15000</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>1500</v>
       </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
       <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>4001001</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="V6">
+      <c r="U6">
         <v>0</v>
       </c>
       <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>15008007</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:13">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
@@ -1653,8 +1695,9 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:23">
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:24">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1662,10 +1705,10 @@
         <v>3100101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
@@ -1673,47 +1716,48 @@
       <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
         <v>1000</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
       <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
         <v>10000</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>1500</v>
       </c>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
       <c r="L8" s="8">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>4100101</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-200</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-600</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="V8">
+      <c r="U8">
         <v>0</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>15008003</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:23">
+    <row r="9" customFormat="1" spans="1:24">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1721,10 +1765,10 @@
         <v>3100102</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
@@ -1732,47 +1776,48 @@
       <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
         <v>1000</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
       <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
         <v>10000</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>1500</v>
       </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
       <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>4100102</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-200</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-600</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="U9">
         <v>0</v>
       </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>15008003</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:23">
+    <row r="10" customFormat="1" spans="1:24">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1780,10 +1825,10 @@
         <v>3100103</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
@@ -1791,47 +1836,48 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
         <v>1000</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
       <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <v>10000</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>1500</v>
       </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
       <c r="L10" s="8">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>4100103</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-200</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-600</v>
       </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
       <c r="T10">
         <v>1</v>
       </c>
-      <c r="V10">
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="W10">
         <v>9999999</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>15008003</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:23">
+    <row r="11" customFormat="1" spans="1:24">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1839,10 +1885,10 @@
         <v>3100104</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
@@ -1850,47 +1896,48 @@
       <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <v>1000</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
       <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
         <v>10000</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>1500</v>
       </c>
-      <c r="K11" s="8">
-        <v>1</v>
-      </c>
       <c r="L11" s="8">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>4100104</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-200</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-600</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
       <c r="T11">
         <v>1</v>
       </c>
-      <c r="V11">
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>9999999</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>15008003</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:23">
+    <row r="12" customFormat="1" spans="1:24">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1898,10 +1945,10 @@
         <v>3100105</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -1909,47 +1956,48 @@
       <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <v>1000</v>
       </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
       <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
         <v>10000</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>1500</v>
       </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
       <c r="L12" s="8">
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>4100105</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
-      <c r="S12">
-        <v>1</v>
+      <c r="Q12">
+        <v>0</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
-      <c r="V12">
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>9999999</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>15008003</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:13">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
@@ -1960,8 +2008,9 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="3:12">
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="3:13">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
@@ -1972,8 +2021,9 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="3:12">
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="3:13">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
@@ -1984,8 +2034,9 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="3:12">
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="3:13">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -1996,8 +2047,9 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="3:12">
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="3:13">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -2008,8 +2060,9 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="3:12">
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="3:13">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
@@ -2020,8 +2073,9 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="3:12">
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="3:13">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
@@ -2032,8 +2086,9 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="3:12">
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="3:13">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
@@ -2044,8 +2099,9 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="3:12">
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="3:13">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
@@ -2056,8 +2112,9 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="3:12">
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="3:13">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
@@ -2068,8 +2125,9 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="3:12">
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="3:13">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
@@ -2080,16 +2138,17 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="2:22">
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="2:23">
       <c r="B24" s="2">
         <v>3001001</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
@@ -2098,45 +2157,48 @@
         <v>1</v>
       </c>
       <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
         <v>99999999</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
       <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
         <v>99999999</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>1500</v>
       </c>
-      <c r="K24" s="8">
-        <v>1</v>
-      </c>
       <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>4001001</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24">
       <c r="B25" s="2">
         <v>3001002</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="9">
         <v>0</v>
@@ -2144,41 +2206,42 @@
       <c r="F25" s="8">
         <v>0</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8">
         <v>500</v>
       </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
       <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
         <v>7000</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <v>1500</v>
       </c>
-      <c r="K25" s="8">
-        <v>1</v>
-      </c>
       <c r="L25" s="8">
         <v>1</v>
       </c>
-      <c r="N25">
+      <c r="M25" s="8">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>4001002</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="V25">
+      <c r="U25">
         <v>0</v>
       </c>
       <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>15008016</v>
       </c>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:13">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="F26" s="8"/>
@@ -2188,8 +2251,9 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="3:12">
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="3:13">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="F27" s="8"/>
@@ -2199,8 +2263,9 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="3:12">
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="3:13">
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
@@ -2211,16 +2276,17 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="2:23">
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="2:24">
       <c r="B29" s="2">
         <v>3001011</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="9">
         <v>0</v>
@@ -2228,49 +2294,50 @@
       <c r="F29" s="8">
         <v>1</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8">
         <v>99999999</v>
       </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
       <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
         <v>15000</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <v>1500</v>
       </c>
-      <c r="K29" s="8">
-        <v>1</v>
-      </c>
       <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>4001001</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="V29">
+      <c r="U29">
         <v>0</v>
       </c>
       <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
         <v>15008007</v>
       </c>
     </row>
-    <row r="30" spans="2:23">
+    <row r="30" spans="2:24">
       <c r="B30" s="2">
         <v>3001012</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
@@ -2278,49 +2345,50 @@
       <c r="F30" s="8">
         <v>0</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8">
         <v>2000</v>
       </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
       <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
         <v>18000</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <v>1500</v>
       </c>
-      <c r="K30" s="8">
-        <v>1</v>
-      </c>
       <c r="L30" s="8">
         <v>1</v>
       </c>
-      <c r="N30">
+      <c r="M30" s="8">
+        <v>1</v>
+      </c>
+      <c r="O30">
         <v>4001006</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="V30">
+      <c r="U30">
         <v>0</v>
       </c>
       <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
         <v>15008003</v>
       </c>
     </row>
-    <row r="31" spans="2:23">
+    <row r="31" spans="2:24">
       <c r="B31" s="2">
         <v>3001013</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="9">
         <v>0</v>
@@ -2328,49 +2396,50 @@
       <c r="F31" s="8">
         <v>1</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
         <v>99999999</v>
       </c>
-      <c r="H31" s="8">
-        <v>0</v>
-      </c>
       <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
         <v>15000</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <v>1500</v>
       </c>
-      <c r="K31" s="8">
-        <v>1</v>
-      </c>
       <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>4001007</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
       <c r="T31">
         <v>0</v>
       </c>
-      <c r="V31">
+      <c r="U31">
         <v>0</v>
       </c>
       <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <v>15008007</v>
       </c>
     </row>
-    <row r="32" spans="2:23">
+    <row r="32" spans="2:24">
       <c r="B32" s="2">
         <v>3001014</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
@@ -2378,41 +2447,42 @@
       <c r="F32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8">
         <v>99999999</v>
       </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
       <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
         <v>5000</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <v>1500</v>
       </c>
-      <c r="K32" s="8">
-        <v>1</v>
-      </c>
       <c r="L32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32">
         <v>13001012</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
       <c r="T32">
         <v>0</v>
       </c>
-      <c r="V32">
+      <c r="U32">
         <v>0</v>
       </c>
       <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
         <v>15008007</v>
       </c>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:13">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
@@ -2423,8 +2493,9 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="3:12">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="3:13">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
@@ -2435,8 +2506,9 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:12">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:13">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -2449,8 +2521,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="3:12">
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="3:13">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
@@ -2461,8 +2534,9 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -2470,10 +2544,10 @@
         <v>3002001</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E37" s="9">
         <v>0</v>
@@ -2482,37 +2556,40 @@
         <v>1</v>
       </c>
       <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
         <v>99999999</v>
       </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
       <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
         <v>99999999</v>
       </c>
-      <c r="J37" s="8">
+      <c r="K37" s="8">
         <v>1500</v>
       </c>
-      <c r="K37" s="8">
-        <v>1</v>
-      </c>
       <c r="L37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>4002001</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -2520,10 +2597,10 @@
         <v>3002002</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
@@ -2531,41 +2608,42 @@
       <c r="F38" s="8">
         <v>0</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
         <v>500</v>
       </c>
-      <c r="H38" s="8">
-        <v>0</v>
-      </c>
       <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
         <v>7000</v>
       </c>
-      <c r="J38" s="8">
+      <c r="K38" s="8">
         <v>1500</v>
       </c>
-      <c r="K38" s="8">
-        <v>0</v>
-      </c>
       <c r="L38" s="8">
         <v>0</v>
       </c>
-      <c r="N38">
+      <c r="M38" s="8">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>4002002</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="V38">
+      <c r="U38">
         <v>0</v>
       </c>
       <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
         <v>15008003</v>
       </c>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:13">
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
@@ -2576,8 +2654,9 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-    </row>
-    <row r="40" customFormat="1" spans="1:23">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" customFormat="1" spans="1:24">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -2585,10 +2664,10 @@
         <v>3002011</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
@@ -2596,41 +2675,42 @@
       <c r="F40" s="8">
         <v>1</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="8"/>
+      <c r="H40" s="8">
         <v>99999999</v>
       </c>
-      <c r="H40" s="8">
-        <v>0</v>
-      </c>
       <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
         <v>8000</v>
       </c>
-      <c r="J40" s="8">
+      <c r="K40" s="8">
         <v>1500</v>
       </c>
-      <c r="K40" s="8">
-        <v>1</v>
-      </c>
       <c r="L40" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40">
         <v>4002006</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="V40">
+      <c r="U40">
         <v>0</v>
       </c>
       <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
         <v>15008007</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -2638,10 +2718,10 @@
         <v>3002012</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E41" s="9">
         <v>0</v>
@@ -2649,41 +2729,42 @@
       <c r="F41" s="8">
         <v>0</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="8"/>
+      <c r="H41" s="8">
         <v>1000</v>
       </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
       <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
         <v>12000</v>
       </c>
-      <c r="J41" s="8">
+      <c r="K41" s="8">
         <v>1000</v>
       </c>
-      <c r="K41" s="8">
-        <v>1</v>
-      </c>
       <c r="L41" s="8">
         <v>1</v>
       </c>
-      <c r="N41">
+      <c r="M41" s="8">
+        <v>1</v>
+      </c>
+      <c r="O41">
         <v>4002007</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="V41">
+      <c r="U41">
         <v>0</v>
       </c>
       <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
         <v>15008003</v>
       </c>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:13">
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="9"/>
@@ -2694,8 +2775,9 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -2703,10 +2785,10 @@
         <v>3003001</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E43" s="9">
         <v>0</v>
@@ -2715,37 +2797,40 @@
         <v>1</v>
       </c>
       <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" s="8">
         <v>99999999</v>
       </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
       <c r="I43" s="8">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8">
         <v>99999999</v>
       </c>
-      <c r="J43" s="8">
+      <c r="K43" s="8">
         <v>1500</v>
       </c>
-      <c r="K43" s="8">
-        <v>1</v>
-      </c>
       <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0</v>
+      </c>
+      <c r="R43">
         <v>4002001</v>
       </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
       <c r="T43">
         <v>0</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -2753,10 +2838,10 @@
         <v>3003002</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
@@ -2764,41 +2849,42 @@
       <c r="F44" s="8">
         <v>0</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="8"/>
+      <c r="H44" s="8">
         <v>500</v>
       </c>
-      <c r="H44" s="8">
-        <v>0</v>
-      </c>
       <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
         <v>17000</v>
       </c>
-      <c r="J44" s="8">
+      <c r="K44" s="8">
         <v>1500</v>
       </c>
-      <c r="K44" s="8">
-        <v>1</v>
-      </c>
       <c r="L44" s="8">
         <v>1</v>
       </c>
-      <c r="N44">
+      <c r="M44" s="8">
+        <v>1</v>
+      </c>
+      <c r="O44">
         <v>4002011</v>
       </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
       <c r="T44">
         <v>1</v>
       </c>
-      <c r="V44">
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="W44">
         <v>9999999</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>15008008</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -2806,10 +2892,10 @@
         <v>3003003</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
@@ -2817,41 +2903,42 @@
       <c r="F45" s="8">
         <v>0</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="8"/>
+      <c r="H45" s="8">
         <v>500</v>
       </c>
-      <c r="H45" s="8">
+      <c r="I45" s="8">
         <v>30</v>
       </c>
-      <c r="I45" s="8">
+      <c r="J45" s="8">
         <v>17000</v>
       </c>
-      <c r="J45" s="8">
+      <c r="K45" s="8">
         <v>1500</v>
       </c>
-      <c r="K45" s="8">
-        <v>1</v>
-      </c>
       <c r="L45" s="8">
         <v>1</v>
       </c>
-      <c r="N45">
+      <c r="M45" s="8">
+        <v>1</v>
+      </c>
+      <c r="O45">
         <v>4002011</v>
       </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
       <c r="T45">
         <v>1</v>
       </c>
-      <c r="V45">
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="W45">
         <v>9999999</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>15008008</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
@@ -2859,10 +2946,10 @@
         <v>3003004</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
@@ -2870,37 +2957,38 @@
       <c r="F46" s="8">
         <v>0</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="8"/>
+      <c r="H46" s="8">
         <v>500</v>
       </c>
-      <c r="H46" s="8">
+      <c r="I46" s="8">
         <v>-30</v>
       </c>
-      <c r="I46" s="8">
+      <c r="J46" s="8">
         <v>17000</v>
       </c>
-      <c r="J46" s="8">
+      <c r="K46" s="8">
         <v>1500</v>
       </c>
-      <c r="K46" s="8">
-        <v>1</v>
-      </c>
       <c r="L46" s="8">
         <v>1</v>
       </c>
-      <c r="N46">
+      <c r="M46" s="8">
+        <v>1</v>
+      </c>
+      <c r="O46">
         <v>4002011</v>
       </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
       <c r="T46">
         <v>1</v>
       </c>
-      <c r="V46">
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="W46">
         <v>9999999</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>15008008</v>
       </c>
     </row>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14970" windowHeight="9420"/>
+    <workbookView windowWidth="15900" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,10 +1352,10 @@
   <sheetPr/>
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G40" sqref="G40"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I8" s="8">
         <v>0</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15900" windowHeight="12000"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,10 +1352,10 @@
   <sheetPr/>
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22035" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>刀疤技能1投掷物 -30 度</t>
+  </si>
+  <si>
+    <t>ai 近战兵 普通攻击</t>
+  </si>
+  <si>
+    <t>ai 远程兵 普通攻击</t>
   </si>
 </sst>
 </file>
@@ -488,12 +494,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1350,12 +1356,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6270" ySplit="2985" topLeftCell="B36" activePane="bottomLeft"/>
       <selection/>
-      <selection pane="topRight" activeCell="G40" sqref="G40"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2990,6 +2998,113 @@
       </c>
       <c r="X46">
         <v>15008008</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:23">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3061101</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K51" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L51" s="8">
+        <v>1</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>4002001</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:24">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3062101</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>8000</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="8">
+        <v>1</v>
+      </c>
+      <c r="M54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>4002006</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>15008007</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22035" windowHeight="12255"/>
+    <workbookView windowWidth="17220" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -268,6 +268,9 @@
     <t>唐依 普通攻击投掷物</t>
   </si>
   <si>
+    <t>怪物1普通攻击</t>
+  </si>
+  <si>
     <t>回旋镖 投掷物 lv1</t>
   </si>
   <si>
@@ -299,9 +302,6 @@
   </si>
   <si>
     <t>唐依 R 投掷物</t>
-  </si>
-  <si>
-    <t>怪物1普通攻击</t>
   </si>
   <si>
     <t>怪物1 技能1投掷物</t>
@@ -494,12 +494,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1356,13 +1356,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="B36" activePane="bottomLeft"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="A1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1625,74 +1625,78 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="3:13">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
+    <row r="5" customFormat="1" spans="1:24">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3003101</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:24">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3000101</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
+      <c r="H5" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>4003101</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>4001001</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:13">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
@@ -1705,94 +1709,51 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" customFormat="1" spans="1:24">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3100101</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    <row r="8" customFormat="1" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:23">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3101101</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>500</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>4100101</v>
-      </c>
-      <c r="P8">
-        <v>-200</v>
-      </c>
-      <c r="Q8">
-        <v>-600</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:24">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3100102</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
       <c r="H9" s="8">
-        <v>800</v>
+        <v>99999999</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>10000</v>
+        <v>99999999</v>
       </c>
       <c r="K9" s="8">
         <v>1500</v>
@@ -1801,16 +1762,10 @@
         <v>1</v>
       </c>
       <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>4100102</v>
-      </c>
-      <c r="P9">
-        <v>-200</v>
-      </c>
-      <c r="Q9">
-        <v>-600</v>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>4101101</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1821,191 +1776,55 @@
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:24">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3100103</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <v>1100</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>4100103</v>
-      </c>
-      <c r="P10">
-        <v>-200</v>
-      </c>
-      <c r="Q10">
-        <v>-600</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>9999999</v>
-      </c>
-      <c r="X10">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:24">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3100104</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>1400</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>4100104</v>
-      </c>
-      <c r="P11">
-        <v>-200</v>
-      </c>
-      <c r="Q11">
-        <v>-600</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>9999999</v>
-      </c>
-      <c r="X11">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:24">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3100105</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8">
-        <v>1700</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>4100105</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>9999999</v>
-      </c>
-      <c r="X12">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
@@ -2018,7 +1837,9 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="3:13">
+    <row r="14" customFormat="1" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
@@ -2044,18 +1865,57 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="3:13">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
+    <row r="16" customFormat="1" spans="1:24">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>3000101</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="H16" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>4001001</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="17" spans="3:13">
       <c r="C17" s="8"/>
@@ -2070,70 +1930,295 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
+    <row r="18" customFormat="1" spans="1:24">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>3100101</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
+      <c r="H18" s="8">
+        <v>500</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>4100101</v>
+      </c>
+      <c r="P18">
+        <v>-200</v>
+      </c>
+      <c r="Q18">
+        <v>-600</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:24">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
+        <v>3100102</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
+      <c r="H19" s="8">
+        <v>800</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="8">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>4100102</v>
+      </c>
+      <c r="P19">
+        <v>-200</v>
+      </c>
+      <c r="Q19">
+        <v>-600</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:24">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2">
+        <v>3100103</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
+      <c r="H20" s="8">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>4100103</v>
+      </c>
+      <c r="P20">
+        <v>-200</v>
+      </c>
+      <c r="Q20">
+        <v>-600</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>9999999</v>
+      </c>
+      <c r="X20">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:24">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2">
+        <v>3100104</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
+      <c r="H21" s="8">
+        <v>1400</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>4100104</v>
+      </c>
+      <c r="P21">
+        <v>-200</v>
+      </c>
+      <c r="Q21">
+        <v>-600</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>9999999</v>
+      </c>
+      <c r="X21">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:24">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2">
+        <v>3100105</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="H22" s="8">
+        <v>1700</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>4100105</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>9999999</v>
+      </c>
+      <c r="X22">
+        <v>15008003</v>
+      </c>
     </row>
     <row r="23" spans="3:13">
       <c r="C23" s="8"/>
@@ -2148,110 +2233,36 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:23">
-      <c r="B24" s="2">
-        <v>3001001</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="K24" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L24" s="8">
-        <v>1</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>4001001</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24">
-      <c r="B25" s="2">
-        <v>3001002</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
+    <row r="24" spans="3:13">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="8">
-        <v>500</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>7000</v>
-      </c>
-      <c r="K25" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L25" s="8">
-        <v>1</v>
-      </c>
-      <c r="M25" s="8">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>4001002</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>15008016</v>
-      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="3:13">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -2264,6 +2275,7 @@
     <row r="27" spans="3:13">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2286,209 +2298,57 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="2:24">
-      <c r="B29" s="2">
-        <v>3001011</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
+    <row r="29" spans="3:13">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K29" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L29" s="8">
-        <v>1</v>
-      </c>
-      <c r="M29" s="8">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>4001001</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24">
-      <c r="B30" s="2">
-        <v>3001012</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8">
-        <v>2000</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
-        <v>18000</v>
-      </c>
-      <c r="K30" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L30" s="8">
-        <v>1</v>
-      </c>
-      <c r="M30" s="8">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>4001006</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24">
-      <c r="B31" s="2">
-        <v>3001013</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K31" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L31" s="8">
-        <v>1</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>4001007</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24">
-      <c r="B32" s="2">
-        <v>3001014</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
-        <v>5000</v>
-      </c>
-      <c r="K32" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L32" s="8">
-        <v>1</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>13001012</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>15008007</v>
-      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="8"/>
@@ -2503,38 +2363,110 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="3:13">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:13">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
+    <row r="34" spans="2:23">
+      <c r="B34" s="2">
+        <v>3001001</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>4001001</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24">
+      <c r="B35" s="2">
+        <v>3001002</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8">
+        <v>500</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>7000</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>4001002</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>15008016</v>
+      </c>
     </row>
     <row r="36" spans="3:13">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2544,154 +2476,107 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:23">
-      <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2">
-        <v>3002001</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8">
-        <v>1</v>
-      </c>
-      <c r="H37" s="8">
+    <row r="37" spans="3:13">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="2:24">
+      <c r="B39" s="2">
+        <v>3001011</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
         <v>99999999</v>
       </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="K37" s="8">
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K39" s="8">
         <v>1500</v>
       </c>
-      <c r="L37" s="8">
-        <v>1</v>
-      </c>
-      <c r="M37" s="8">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>4002001</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
-      <c r="A38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2">
-        <v>3002002</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8">
-        <v>500</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8">
-        <v>7000</v>
-      </c>
-      <c r="K38" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0</v>
-      </c>
-      <c r="M38" s="8">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>4002002</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" customFormat="1" spans="1:24">
-      <c r="A40" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>4001001</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24">
       <c r="B40" s="2">
-        <v>3002011</v>
+        <v>3001012</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8">
-        <v>99999999</v>
+        <v>2000</v>
       </c>
       <c r="I40" s="8">
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="K40" s="8">
         <v>1500</v>
@@ -2700,10 +2585,10 @@
         <v>1</v>
       </c>
       <c r="M40" s="8">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>4002006</v>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>4001006</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -2715,372 +2600,470 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24">
       <c r="B41" s="2">
-        <v>3002012</v>
+        <v>3001013</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E41" s="9">
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>4001007</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24">
+      <c r="B42" s="2">
+        <v>3001014</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L42" s="8">
+        <v>1</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>13001012</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:13">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="B47" s="2">
+        <v>3002001</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K47" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>4002001</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24">
+      <c r="B48" s="2">
+        <v>3002002</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8">
+        <v>500</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>7000</v>
+      </c>
+      <c r="K48" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>4002002</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" customFormat="1" spans="1:24">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2">
+        <v>3002011</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>8000</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L50" s="8">
+        <v>1</v>
+      </c>
+      <c r="M50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>4002006</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24">
+      <c r="B51" s="2">
+        <v>3002012</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8">
         <v>1000</v>
       </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
         <v>12000</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K51" s="8">
         <v>1000</v>
       </c>
-      <c r="L41" s="8">
-        <v>1</v>
-      </c>
-      <c r="M41" s="8">
-        <v>1</v>
-      </c>
-      <c r="O41">
+      <c r="L51" s="8">
+        <v>1</v>
+      </c>
+      <c r="M51" s="8">
+        <v>1</v>
+      </c>
+      <c r="O51">
         <v>4002007</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
         <v>15008003</v>
       </c>
     </row>
-    <row r="42" spans="3:13">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="52" spans="3:13">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="2:23">
+      <c r="B53" s="2">
         <v>3003001</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>1</v>
-      </c>
-      <c r="G43" s="8">
-        <v>1</v>
-      </c>
-      <c r="H43" s="8">
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="8">
         <v>99999999</v>
       </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
         <v>99999999</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K53" s="8">
         <v>1500</v>
       </c>
-      <c r="L43" s="8">
-        <v>1</v>
-      </c>
-      <c r="M43" s="8">
-        <v>0</v>
-      </c>
-      <c r="R43">
+      <c r="L53" s="8">
+        <v>1</v>
+      </c>
+      <c r="M53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>4002001</v>
       </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24">
+      <c r="B54" s="2">
         <v>3003002</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8">
-        <v>500</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>17000</v>
-      </c>
-      <c r="K44" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L44" s="8">
-        <v>1</v>
-      </c>
-      <c r="M44" s="8">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>4002011</v>
-      </c>
-      <c r="T44">
-        <v>1</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>9999999</v>
-      </c>
-      <c r="X44">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2">
-        <v>3003003</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8">
-        <v>500</v>
-      </c>
-      <c r="I45" s="8">
-        <v>30</v>
-      </c>
-      <c r="J45" s="8">
-        <v>17000</v>
-      </c>
-      <c r="K45" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L45" s="8">
-        <v>1</v>
-      </c>
-      <c r="M45" s="8">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>4002011</v>
-      </c>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>9999999</v>
-      </c>
-      <c r="X45">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2">
-        <v>3003004</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8">
-        <v>500</v>
-      </c>
-      <c r="I46" s="8">
-        <v>-30</v>
-      </c>
-      <c r="J46" s="8">
-        <v>17000</v>
-      </c>
-      <c r="K46" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L46" s="8">
-        <v>1</v>
-      </c>
-      <c r="M46" s="8">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>4002011</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>9999999</v>
-      </c>
-      <c r="X46">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:23">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2">
-        <v>3061101</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>1</v>
-      </c>
-      <c r="G51" s="8">
-        <v>1</v>
-      </c>
-      <c r="H51" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="K51" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L51" s="8">
-        <v>1</v>
-      </c>
-      <c r="M51" s="8">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>4002001</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:24">
-      <c r="A54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2">
-        <v>3062101</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8">
-        <v>99999999</v>
+        <v>500</v>
       </c>
       <c r="I54" s="8">
         <v>0</v>
       </c>
       <c r="J54" s="8">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="K54" s="8">
         <v>1500</v>
@@ -3089,21 +3072,226 @@
         <v>1</v>
       </c>
       <c r="M54" s="8">
-        <v>0</v>
-      </c>
-      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>4002011</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>9999999</v>
+      </c>
+      <c r="X54">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24">
+      <c r="B55" s="2">
+        <v>3003003</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8">
+        <v>500</v>
+      </c>
+      <c r="I55" s="8">
+        <v>30</v>
+      </c>
+      <c r="J55" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K55" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L55" s="8">
+        <v>1</v>
+      </c>
+      <c r="M55" s="8">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>4002011</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>9999999</v>
+      </c>
+      <c r="X55">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24">
+      <c r="B56" s="2">
+        <v>3003004</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8">
+        <v>500</v>
+      </c>
+      <c r="I56" s="8">
+        <v>-30</v>
+      </c>
+      <c r="J56" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K56" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L56" s="8">
+        <v>1</v>
+      </c>
+      <c r="M56" s="8">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>4002011</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>9999999</v>
+      </c>
+      <c r="X56">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:23">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2">
+        <v>3061101</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1</v>
+      </c>
+      <c r="G61" s="8">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K61" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L61" s="8">
+        <v>1</v>
+      </c>
+      <c r="M61" s="8">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>4002001</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:24">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2">
+        <v>3062101</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8">
+        <v>8000</v>
+      </c>
+      <c r="K64" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L64" s="8">
+        <v>1</v>
+      </c>
+      <c r="M64" s="8">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <v>4002006</v>
       </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
         <v>15008007</v>
       </c>
     </row>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="10890"/>
+    <workbookView windowWidth="30240" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -110,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -266,6 +253,9 @@
   </si>
   <si>
     <t>唐依 普通攻击投掷物</t>
+  </si>
+  <si>
+    <t>唐依 q技能穿刺</t>
   </si>
   <si>
     <t>怪物1普通攻击</t>
@@ -334,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -494,12 +484,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -992,20 +982,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1358,15 +1348,15 @@
   <sheetPr/>
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="A1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="6270" ySplit="2985" topLeftCell="N1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
@@ -1388,7 +1378,7 @@
     <col min="24" max="24" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:24">
+    <row r="1" ht="34" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1539,7 @@
       <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1613,17 +1603,17 @@
     <row r="4" customFormat="1" spans="1:13">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" customFormat="1" spans="1:24">
       <c r="A5" s="2" t="s">
@@ -1632,35 +1622,35 @@
       <c r="B5" s="2">
         <v>3003101</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8">
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
         <v>99999999</v>
       </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>15000</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>1500</v>
       </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="R5">
@@ -1679,50 +1669,89 @@
         <v>15008007</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:13">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+    <row r="6" customFormat="1" spans="1:24">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3003201</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>20000</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>4003201</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="7" customFormat="1" spans="1:13">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="1" spans="1:23">
       <c r="A9" s="2" t="s">
@@ -1731,37 +1760,37 @@
       <c r="B9" s="2">
         <v>3101101</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
         <v>99999999</v>
       </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
         <v>99999999</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>1500</v>
       </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="R9">
@@ -1780,125 +1809,125 @@
     <row r="10" customFormat="1" spans="1:13">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="1" spans="1:13">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" customFormat="1" spans="1:13">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" customFormat="1" spans="1:13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" customFormat="1" spans="1:13">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" customFormat="1" spans="1:24">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>3000101</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8">
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
         <v>99999999</v>
       </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
         <v>15000</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>1500</v>
       </c>
-      <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
         <v>0</v>
       </c>
       <c r="R16">
@@ -1918,52 +1947,52 @@
       </c>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" customFormat="1" spans="1:24">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>3100101</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8">
+      <c r="C18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
         <v>500</v>
       </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
         <v>10000</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>1500</v>
       </c>
-      <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="8">
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
         <v>1</v>
       </c>
       <c r="O18">
@@ -1993,35 +2022,35 @@
       <c r="B19" s="2">
         <v>3100102</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8">
+      <c r="C19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7">
         <v>800</v>
       </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
         <v>10000</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>1500</v>
       </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8">
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="O19">
@@ -2051,35 +2080,35 @@
       <c r="B20" s="2">
         <v>3100103</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
+      <c r="C20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
         <v>1100</v>
       </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
         <v>10000</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>1500</v>
       </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="8">
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="O20">
@@ -2109,35 +2138,35 @@
       <c r="B21" s="2">
         <v>3100104</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8">
+      <c r="C21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
         <v>1400</v>
       </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
         <v>10000</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>1500</v>
       </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="8">
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="O21">
@@ -2167,35 +2196,35 @@
       <c r="B22" s="2">
         <v>3100105</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8">
+      <c r="C22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
         <v>1700</v>
       </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
         <v>10000</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>1500</v>
       </c>
-      <c r="L22" s="8">
-        <v>1</v>
-      </c>
-      <c r="M22" s="8">
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="O22">
@@ -2221,183 +2250,183 @@
       </c>
     </row>
     <row r="23" spans="3:13">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="3:13">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="3:13">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" spans="3:13">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" spans="3:13">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="2:23">
       <c r="B34" s="2">
         <v>3001001</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8">
+      <c r="C34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7">
         <v>99999999</v>
       </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
         <v>99999999</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="7">
         <v>1500</v>
       </c>
-      <c r="L34" s="8">
-        <v>1</v>
-      </c>
-      <c r="M34" s="8">
+      <c r="L34" s="7">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7">
         <v>0</v>
       </c>
       <c r="R34">
@@ -2417,35 +2446,35 @@
       <c r="B35" s="2">
         <v>3001002</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8">
+      <c r="C35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7">
         <v>500</v>
       </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
         <v>7000</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="7">
         <v>1500</v>
       </c>
-      <c r="L35" s="8">
-        <v>1</v>
-      </c>
-      <c r="M35" s="8">
+      <c r="L35" s="7">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7">
         <v>1</v>
       </c>
       <c r="O35">
@@ -2465,75 +2494,75 @@
       </c>
     </row>
     <row r="36" spans="3:13">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" spans="3:13">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
     </row>
     <row r="38" spans="3:13">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" spans="2:24">
       <c r="B39" s="2">
         <v>3001011</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>1</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8">
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7">
         <v>99999999</v>
       </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
         <v>15000</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="7">
         <v>1500</v>
       </c>
-      <c r="L39" s="8">
-        <v>1</v>
-      </c>
-      <c r="M39" s="8">
+      <c r="L39" s="7">
+        <v>1</v>
+      </c>
+      <c r="M39" s="7">
         <v>0</v>
       </c>
       <c r="R39">
@@ -2556,35 +2585,35 @@
       <c r="B40" s="2">
         <v>3001012</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8">
+      <c r="D40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7">
         <v>2000</v>
       </c>
-      <c r="I40" s="8">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
         <v>18000</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="7">
         <v>1500</v>
       </c>
-      <c r="L40" s="8">
-        <v>1</v>
-      </c>
-      <c r="M40" s="8">
+      <c r="L40" s="7">
+        <v>1</v>
+      </c>
+      <c r="M40" s="7">
         <v>1</v>
       </c>
       <c r="O40">
@@ -2607,35 +2636,35 @@
       <c r="B41" s="2">
         <v>3001013</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>1</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8">
+      <c r="C41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7">
         <v>99999999</v>
       </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
         <v>15000</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="7">
         <v>1500</v>
       </c>
-      <c r="L41" s="8">
-        <v>1</v>
-      </c>
-      <c r="M41" s="8">
+      <c r="L41" s="7">
+        <v>1</v>
+      </c>
+      <c r="M41" s="7">
         <v>0</v>
       </c>
       <c r="O41">
@@ -2658,35 +2687,35 @@
       <c r="B42" s="2">
         <v>3001014</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8">
+      <c r="C42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7">
         <v>99999999</v>
       </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
         <v>5000</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="7">
         <v>1500</v>
       </c>
-      <c r="L42" s="8">
-        <v>1</v>
-      </c>
-      <c r="M42" s="8">
+      <c r="L42" s="7">
+        <v>1</v>
+      </c>
+      <c r="M42" s="7">
         <v>0</v>
       </c>
       <c r="R42">
@@ -2706,94 +2735,94 @@
       </c>
     </row>
     <row r="43" spans="3:13">
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
     </row>
     <row r="44" spans="3:13">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:13">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="3:13">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" spans="2:23">
       <c r="B47" s="2">
         <v>3002001</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>1</v>
-      </c>
-      <c r="G47" s="8">
-        <v>1</v>
-      </c>
-      <c r="H47" s="8">
+      <c r="C47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7">
         <v>99999999</v>
       </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
         <v>99999999</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="7">
         <v>1500</v>
       </c>
-      <c r="L47" s="8">
-        <v>1</v>
-      </c>
-      <c r="M47" s="8">
+      <c r="L47" s="7">
+        <v>1</v>
+      </c>
+      <c r="M47" s="7">
         <v>0</v>
       </c>
       <c r="R47">
@@ -2813,35 +2842,35 @@
       <c r="B48" s="2">
         <v>3002002</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8">
+      <c r="C48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7">
         <v>500</v>
       </c>
-      <c r="I48" s="8">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
         <v>7000</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="7">
         <v>1500</v>
       </c>
-      <c r="L48" s="8">
-        <v>0</v>
-      </c>
-      <c r="M48" s="8">
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
         <v>0</v>
       </c>
       <c r="O48">
@@ -2861,52 +2890,52 @@
       </c>
     </row>
     <row r="49" spans="3:13">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
     </row>
     <row r="50" customFormat="1" spans="1:24">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>3002011</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>1</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8">
+      <c r="C50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7">
         <v>99999999</v>
       </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
         <v>8000</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="7">
         <v>1500</v>
       </c>
-      <c r="L50" s="8">
-        <v>1</v>
-      </c>
-      <c r="M50" s="8">
+      <c r="L50" s="7">
+        <v>1</v>
+      </c>
+      <c r="M50" s="7">
         <v>0</v>
       </c>
       <c r="R50">
@@ -2929,35 +2958,35 @@
       <c r="B51" s="2">
         <v>3002012</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8">
+      <c r="C51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7">
         <v>1000</v>
       </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
         <v>12000</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="7">
         <v>1000</v>
       </c>
-      <c r="L51" s="8">
-        <v>1</v>
-      </c>
-      <c r="M51" s="8">
+      <c r="L51" s="7">
+        <v>1</v>
+      </c>
+      <c r="M51" s="7">
         <v>1</v>
       </c>
       <c r="O51">
@@ -2977,53 +3006,53 @@
       </c>
     </row>
     <row r="52" spans="3:13">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
     </row>
     <row r="53" spans="2:23">
       <c r="B53" s="2">
         <v>3003001</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>1</v>
-      </c>
-      <c r="G53" s="8">
-        <v>1</v>
-      </c>
-      <c r="H53" s="8">
+      <c r="C53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7">
         <v>99999999</v>
       </c>
-      <c r="I53" s="8">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
         <v>99999999</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="7">
         <v>1500</v>
       </c>
-      <c r="L53" s="8">
-        <v>1</v>
-      </c>
-      <c r="M53" s="8">
+      <c r="L53" s="7">
+        <v>1</v>
+      </c>
+      <c r="M53" s="7">
         <v>0</v>
       </c>
       <c r="R53">
@@ -3043,35 +3072,35 @@
       <c r="B54" s="2">
         <v>3003002</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8">
+      <c r="C54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7">
         <v>500</v>
       </c>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
         <v>17000</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="7">
         <v>1500</v>
       </c>
-      <c r="L54" s="8">
-        <v>1</v>
-      </c>
-      <c r="M54" s="8">
+      <c r="L54" s="7">
+        <v>1</v>
+      </c>
+      <c r="M54" s="7">
         <v>1</v>
       </c>
       <c r="O54">
@@ -3094,35 +3123,35 @@
       <c r="B55" s="2">
         <v>3003003</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8">
+      <c r="C55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7">
         <v>500</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <v>30</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="7">
         <v>17000</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="7">
         <v>1500</v>
       </c>
-      <c r="L55" s="8">
-        <v>1</v>
-      </c>
-      <c r="M55" s="8">
+      <c r="L55" s="7">
+        <v>1</v>
+      </c>
+      <c r="M55" s="7">
         <v>1</v>
       </c>
       <c r="O55">
@@ -3145,35 +3174,35 @@
       <c r="B56" s="2">
         <v>3003004</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8">
+      <c r="C56" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7">
         <v>500</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <v>-30</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="7">
         <v>17000</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="7">
         <v>1500</v>
       </c>
-      <c r="L56" s="8">
-        <v>1</v>
-      </c>
-      <c r="M56" s="8">
+      <c r="L56" s="7">
+        <v>1</v>
+      </c>
+      <c r="M56" s="7">
         <v>1</v>
       </c>
       <c r="O56">
@@ -3197,37 +3226,37 @@
       <c r="B61" s="2">
         <v>3061101</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>1</v>
-      </c>
-      <c r="G61" s="8">
-        <v>1</v>
-      </c>
-      <c r="H61" s="8">
+      <c r="C61" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7">
         <v>99999999</v>
       </c>
-      <c r="I61" s="8">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
         <v>99999999</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61" s="7">
         <v>1500</v>
       </c>
-      <c r="L61" s="8">
-        <v>1</v>
-      </c>
-      <c r="M61" s="8">
+      <c r="L61" s="7">
+        <v>1</v>
+      </c>
+      <c r="M61" s="7">
         <v>0</v>
       </c>
       <c r="R61">
@@ -3248,35 +3277,35 @@
       <c r="B64" s="2">
         <v>3062101</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8">
-        <v>1</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8">
+      <c r="C64" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7">
         <v>99999999</v>
       </c>
-      <c r="I64" s="8">
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
         <v>8000</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="7">
         <v>1500</v>
       </c>
-      <c r="L64" s="8">
-        <v>1</v>
-      </c>
-      <c r="M64" s="8">
+      <c r="L64" s="7">
+        <v>1</v>
+      </c>
+      <c r="M64" s="7">
         <v>0</v>
       </c>
       <c r="R64">
@@ -3312,7 +3341,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3329,7 +3358,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14540"/>
+    <workbookView windowWidth="14505" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -256,6 +269,9 @@
   </si>
   <si>
     <t>唐依 q技能穿刺</t>
+  </si>
+  <si>
+    <t>唐依 大招群攻投掷物</t>
   </si>
   <si>
     <t>怪物1普通攻击</t>
@@ -324,7 +340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -484,12 +500,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -982,20 +998,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,15 +1364,15 @@
   <sheetPr/>
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="N1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6270" ySplit="2985" topLeftCell="R1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
@@ -1378,7 +1394,7 @@
     <col min="24" max="24" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" spans="1:24">
+    <row r="1" ht="27" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1555,7 @@
       <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1603,17 +1619,17 @@
     <row r="4" customFormat="1" spans="1:13">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" customFormat="1" spans="1:24">
       <c r="A5" s="2" t="s">
@@ -1622,35 +1638,35 @@
       <c r="B5" s="2">
         <v>3003101</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
         <v>99999999</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
         <v>15000</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>1500</v>
       </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
         <v>0</v>
       </c>
       <c r="R5">
@@ -1676,82 +1692,121 @@
       <c r="B6" s="2">
         <v>3003201</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>4003201</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:24">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3003301</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
         <v>99999999</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>20000</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K7" s="8">
         <v>1500</v>
       </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>4003201</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>4003301</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>15008007</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:13">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="1" spans="1:23">
       <c r="A9" s="2" t="s">
@@ -1760,37 +1815,37 @@
       <c r="B9" s="2">
         <v>3101101</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="C9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
         <v>99999999</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
         <v>99999999</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>1500</v>
       </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
         <v>0</v>
       </c>
       <c r="R9">
@@ -1809,125 +1864,125 @@
     <row r="10" customFormat="1" spans="1:13">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="1" spans="1:13">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" customFormat="1" spans="1:13">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="1" spans="1:13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="1" spans="1:13">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="1" spans="1:24">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>3000101</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8">
         <v>99999999</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
         <v>15000</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="8">
         <v>1500</v>
       </c>
-      <c r="L16" s="7">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7">
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
         <v>0</v>
       </c>
       <c r="R16">
@@ -1947,52 +2002,52 @@
       </c>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" customFormat="1" spans="1:24">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>3100101</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
         <v>500</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
         <v>10000</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="8">
         <v>1500</v>
       </c>
-      <c r="L18" s="7">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7">
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
         <v>1</v>
       </c>
       <c r="O18">
@@ -2022,35 +2077,35 @@
       <c r="B19" s="2">
         <v>3100102</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="C19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
         <v>800</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
         <v>10000</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="8">
         <v>1500</v>
       </c>
-      <c r="L19" s="7">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="8">
         <v>1</v>
       </c>
       <c r="O19">
@@ -2080,35 +2135,35 @@
       <c r="B20" s="2">
         <v>3100103</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="C20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
         <v>1100</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
         <v>10000</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="8">
         <v>1500</v>
       </c>
-      <c r="L20" s="7">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7">
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
         <v>1</v>
       </c>
       <c r="O20">
@@ -2138,35 +2193,35 @@
       <c r="B21" s="2">
         <v>3100104</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
         <v>1400</v>
       </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
         <v>10000</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="8">
         <v>1500</v>
       </c>
-      <c r="L21" s="7">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7">
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
         <v>1</v>
       </c>
       <c r="O21">
@@ -2196,35 +2251,35 @@
       <c r="B22" s="2">
         <v>3100105</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="C22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
         <v>1700</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
         <v>10000</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="8">
         <v>1500</v>
       </c>
-      <c r="L22" s="7">
-        <v>1</v>
-      </c>
-      <c r="M22" s="7">
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
         <v>1</v>
       </c>
       <c r="O22">
@@ -2250,183 +2305,183 @@
       </c>
     </row>
     <row r="23" spans="3:13">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="3:13">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="3:13">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="3:13">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="3:13">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:23">
       <c r="B34" s="2">
         <v>3001001</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="C34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8">
         <v>99999999</v>
       </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
         <v>99999999</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="8">
         <v>1500</v>
       </c>
-      <c r="L34" s="7">
-        <v>1</v>
-      </c>
-      <c r="M34" s="7">
+      <c r="L34" s="8">
+        <v>1</v>
+      </c>
+      <c r="M34" s="8">
         <v>0</v>
       </c>
       <c r="R34">
@@ -2446,35 +2501,35 @@
       <c r="B35" s="2">
         <v>3001002</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7">
+      <c r="C35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8">
         <v>500</v>
       </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7">
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
         <v>7000</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="8">
         <v>1500</v>
       </c>
-      <c r="L35" s="7">
-        <v>1</v>
-      </c>
-      <c r="M35" s="7">
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
         <v>1</v>
       </c>
       <c r="O35">
@@ -2494,75 +2549,75 @@
       </c>
     </row>
     <row r="36" spans="3:13">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="3:13">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="3:13">
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
     </row>
     <row r="39" spans="2:24">
       <c r="B39" s="2">
         <v>3001011</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="11">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7">
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
         <v>99999999</v>
       </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
         <v>15000</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="8">
         <v>1500</v>
       </c>
-      <c r="L39" s="7">
-        <v>1</v>
-      </c>
-      <c r="M39" s="7">
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="8">
         <v>0</v>
       </c>
       <c r="R39">
@@ -2585,35 +2640,35 @@
       <c r="B40" s="2">
         <v>3001012</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7">
+      <c r="D40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8">
         <v>2000</v>
       </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7">
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
         <v>18000</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="8">
         <v>1500</v>
       </c>
-      <c r="L40" s="7">
-        <v>1</v>
-      </c>
-      <c r="M40" s="7">
+      <c r="L40" s="8">
+        <v>1</v>
+      </c>
+      <c r="M40" s="8">
         <v>1</v>
       </c>
       <c r="O40">
@@ -2636,35 +2691,35 @@
       <c r="B41" s="2">
         <v>3001013</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7">
+      <c r="C41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8">
         <v>99999999</v>
       </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7">
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
         <v>15000</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="8">
         <v>1500</v>
       </c>
-      <c r="L41" s="7">
-        <v>1</v>
-      </c>
-      <c r="M41" s="7">
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="M41" s="8">
         <v>0</v>
       </c>
       <c r="O41">
@@ -2687,35 +2742,35 @@
       <c r="B42" s="2">
         <v>3001014</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7">
+      <c r="C42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8">
         <v>99999999</v>
       </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
         <v>5000</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="8">
         <v>1500</v>
       </c>
-      <c r="L42" s="7">
-        <v>1</v>
-      </c>
-      <c r="M42" s="7">
+      <c r="L42" s="8">
+        <v>1</v>
+      </c>
+      <c r="M42" s="8">
         <v>0</v>
       </c>
       <c r="R42">
@@ -2735,94 +2790,94 @@
       </c>
     </row>
     <row r="43" spans="3:13">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
     </row>
     <row r="44" spans="3:13">
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:13">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="3:13">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
     </row>
     <row r="47" spans="2:23">
       <c r="B47" s="2">
         <v>3002001</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>1</v>
-      </c>
-      <c r="G47" s="7">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7">
+      <c r="C47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="8">
         <v>99999999</v>
       </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7">
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
         <v>99999999</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="8">
         <v>1500</v>
       </c>
-      <c r="L47" s="7">
-        <v>1</v>
-      </c>
-      <c r="M47" s="7">
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47" s="8">
         <v>0</v>
       </c>
       <c r="R47">
@@ -2842,35 +2897,35 @@
       <c r="B48" s="2">
         <v>3002002</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7">
+      <c r="C48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8">
         <v>500</v>
       </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7">
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
         <v>7000</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="8">
         <v>1500</v>
       </c>
-      <c r="L48" s="7">
-        <v>0</v>
-      </c>
-      <c r="M48" s="7">
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8">
         <v>0</v>
       </c>
       <c r="O48">
@@ -2890,52 +2945,52 @@
       </c>
     </row>
     <row r="49" spans="3:13">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
     </row>
     <row r="50" customFormat="1" spans="1:24">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>3002011</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="11">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>1</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7">
+      <c r="C50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8">
         <v>99999999</v>
       </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
         <v>8000</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="8">
         <v>1500</v>
       </c>
-      <c r="L50" s="7">
-        <v>1</v>
-      </c>
-      <c r="M50" s="7">
+      <c r="L50" s="8">
+        <v>1</v>
+      </c>
+      <c r="M50" s="8">
         <v>0</v>
       </c>
       <c r="R50">
@@ -2958,35 +3013,35 @@
       <c r="B51" s="2">
         <v>3002012</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7">
+      <c r="C51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8">
         <v>1000</v>
       </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7">
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
         <v>12000</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="8">
         <v>1000</v>
       </c>
-      <c r="L51" s="7">
-        <v>1</v>
-      </c>
-      <c r="M51" s="7">
+      <c r="L51" s="8">
+        <v>1</v>
+      </c>
+      <c r="M51" s="8">
         <v>1</v>
       </c>
       <c r="O51">
@@ -3006,53 +3061,53 @@
       </c>
     </row>
     <row r="52" spans="3:13">
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
     </row>
     <row r="53" spans="2:23">
       <c r="B53" s="2">
         <v>3003001</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="11">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7">
+      <c r="C53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="8">
         <v>99999999</v>
       </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7">
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
         <v>99999999</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="8">
         <v>1500</v>
       </c>
-      <c r="L53" s="7">
-        <v>1</v>
-      </c>
-      <c r="M53" s="7">
+      <c r="L53" s="8">
+        <v>1</v>
+      </c>
+      <c r="M53" s="8">
         <v>0</v>
       </c>
       <c r="R53">
@@ -3072,35 +3127,35 @@
       <c r="B54" s="2">
         <v>3003002</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7">
+      <c r="C54" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8">
         <v>500</v>
       </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7">
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
         <v>17000</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="8">
         <v>1500</v>
       </c>
-      <c r="L54" s="7">
-        <v>1</v>
-      </c>
-      <c r="M54" s="7">
+      <c r="L54" s="8">
+        <v>1</v>
+      </c>
+      <c r="M54" s="8">
         <v>1</v>
       </c>
       <c r="O54">
@@ -3123,35 +3178,35 @@
       <c r="B55" s="2">
         <v>3003003</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7">
+      <c r="C55" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8">
         <v>500</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="8">
         <v>30</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="8">
         <v>17000</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="8">
         <v>1500</v>
       </c>
-      <c r="L55" s="7">
-        <v>1</v>
-      </c>
-      <c r="M55" s="7">
+      <c r="L55" s="8">
+        <v>1</v>
+      </c>
+      <c r="M55" s="8">
         <v>1</v>
       </c>
       <c r="O55">
@@ -3174,35 +3229,35 @@
       <c r="B56" s="2">
         <v>3003004</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="11">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7">
+      <c r="C56" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8">
         <v>500</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="8">
         <v>-30</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="8">
         <v>17000</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="8">
         <v>1500</v>
       </c>
-      <c r="L56" s="7">
-        <v>1</v>
-      </c>
-      <c r="M56" s="7">
+      <c r="L56" s="8">
+        <v>1</v>
+      </c>
+      <c r="M56" s="8">
         <v>1</v>
       </c>
       <c r="O56">
@@ -3226,37 +3281,37 @@
       <c r="B61" s="2">
         <v>3061101</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="11">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7">
+      <c r="C61" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1</v>
+      </c>
+      <c r="G61" s="8">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8">
         <v>99999999</v>
       </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7">
+      <c r="I61" s="8">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8">
         <v>99999999</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="8">
         <v>1500</v>
       </c>
-      <c r="L61" s="7">
-        <v>1</v>
-      </c>
-      <c r="M61" s="7">
+      <c r="L61" s="8">
+        <v>1</v>
+      </c>
+      <c r="M61" s="8">
         <v>0</v>
       </c>
       <c r="R61">
@@ -3277,35 +3332,35 @@
       <c r="B64" s="2">
         <v>3062101</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" s="11">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
-        <v>1</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7">
+      <c r="C64" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8">
         <v>99999999</v>
       </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7">
+      <c r="I64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8">
         <v>8000</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="8">
         <v>1500</v>
       </c>
-      <c r="L64" s="7">
-        <v>1</v>
-      </c>
-      <c r="M64" s="7">
+      <c r="L64" s="8">
+        <v>1</v>
+      </c>
+      <c r="M64" s="8">
         <v>0</v>
       </c>
       <c r="R64">
@@ -3341,7 +3396,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3358,7 +3413,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14505" windowHeight="10890"/>
+    <workbookView windowWidth="18855" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>唐依 大招群攻投掷物</t>
+  </si>
+  <si>
+    <t>夜魂普通攻击</t>
   </si>
   <si>
     <t>怪物1普通攻击</t>
@@ -1362,13 +1365,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="R1" activePane="bottomLeft"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="O1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1808,73 +1811,73 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" customFormat="1" spans="1:23">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3101101</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    <row r="9" customFormat="1" spans="1:13">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:23">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3004101</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
         <v>99999999</v>
       </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <v>99999999</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K10" s="8">
         <v>1500</v>
       </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="R9">
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>4101101</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:13">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="1" spans="1:13">
       <c r="A11" s="2"/>
@@ -1936,7 +1939,9 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" customFormat="1" spans="1:13">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
@@ -1949,59 +1954,24 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" customFormat="1" spans="1:24">
+    <row r="16" customFormat="1" spans="1:13">
       <c r="A16" s="2"/>
-      <c r="B16" s="2">
-        <v>3000101</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>4001001</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -2014,90 +1984,51 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" customFormat="1" spans="1:24">
+    <row r="18" customFormat="1" spans="1:13">
       <c r="A18" s="2"/>
-      <c r="B18" s="2">
-        <v>3100101</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:23">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3101101</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8">
-        <v>500</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>4100101</v>
-      </c>
-      <c r="P18">
-        <v>-200</v>
-      </c>
-      <c r="Q18">
-        <v>-600</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:24">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
-        <v>3100102</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E19" s="9">
         <v>0</v>
       </c>
       <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
       <c r="H19" s="8">
-        <v>800</v>
+        <v>99999999</v>
       </c>
       <c r="I19" s="8">
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <v>10000</v>
+        <v>99999999</v>
       </c>
       <c r="K19" s="8">
         <v>1500</v>
@@ -2106,16 +2037,10 @@
         <v>1</v>
       </c>
       <c r="M19" s="8">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>4100102</v>
-      </c>
-      <c r="P19">
-        <v>-200</v>
-      </c>
-      <c r="Q19">
-        <v>-600</v>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>4101101</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2126,185 +2051,55 @@
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:24">
+    </row>
+    <row r="20" customFormat="1" spans="1:13">
       <c r="A20" s="2"/>
-      <c r="B20" s="2">
-        <v>3100103</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8">
-        <v>1100</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="8">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>4100103</v>
-      </c>
-      <c r="P20">
-        <v>-200</v>
-      </c>
-      <c r="Q20">
-        <v>-600</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>9999999</v>
-      </c>
-      <c r="X20">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:24">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:13">
       <c r="A21" s="2"/>
-      <c r="B21" s="2">
-        <v>3100104</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8">
-        <v>1400</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K21" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>4100104</v>
-      </c>
-      <c r="P21">
-        <v>-200</v>
-      </c>
-      <c r="Q21">
-        <v>-600</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>9999999</v>
-      </c>
-      <c r="X21">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:24">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:13">
       <c r="A22" s="2"/>
-      <c r="B22" s="2">
-        <v>3100105</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8">
-        <v>1700</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K22" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1</v>
-      </c>
-      <c r="M22" s="8">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>4100105</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>9999999</v>
-      </c>
-      <c r="X22">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13">
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
@@ -2317,7 +2112,9 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" customFormat="1" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
@@ -2343,18 +2140,57 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
+    <row r="26" customFormat="1" spans="1:24">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2">
+        <v>3000101</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="H26" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>4001001</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="27" spans="3:13">
       <c r="C27" s="8"/>
@@ -2369,70 +2205,295 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
+    <row r="28" customFormat="1" spans="1:24">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2">
+        <v>3100101</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
+      <c r="H28" s="8">
+        <v>500</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>4100101</v>
+      </c>
+      <c r="P28">
+        <v>-200</v>
+      </c>
+      <c r="Q28">
+        <v>-600</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:24">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2">
+        <v>3100102</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
+      <c r="H29" s="8">
+        <v>800</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>4100102</v>
+      </c>
+      <c r="P29">
+        <v>-200</v>
+      </c>
+      <c r="Q29">
+        <v>-600</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:24">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2">
+        <v>3100103</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
+      <c r="H30" s="8">
+        <v>1100</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>4100103</v>
+      </c>
+      <c r="P30">
+        <v>-200</v>
+      </c>
+      <c r="Q30">
+        <v>-600</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>9999999</v>
+      </c>
+      <c r="X30">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:24">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2">
+        <v>3100104</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
+      <c r="H31" s="8">
+        <v>1400</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>4100104</v>
+      </c>
+      <c r="P31">
+        <v>-200</v>
+      </c>
+      <c r="Q31">
+        <v>-600</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>9999999</v>
+      </c>
+      <c r="X31">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:24">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2">
+        <v>3100105</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="H32" s="8">
+        <v>1700</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="8">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>4100105</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>9999999</v>
+      </c>
+      <c r="X32">
+        <v>15008003</v>
+      </c>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="8"/>
@@ -2447,110 +2508,36 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="2:23">
-      <c r="B34" s="2">
-        <v>3001001</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="K34" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L34" s="8">
-        <v>1</v>
-      </c>
-      <c r="M34" s="8">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>4001001</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24">
-      <c r="B35" s="2">
-        <v>3001002</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
+    <row r="34" spans="3:13">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="8">
-        <v>500</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <v>7000</v>
-      </c>
-      <c r="K35" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L35" s="8">
-        <v>1</v>
-      </c>
-      <c r="M35" s="8">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>4001002</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>15008016</v>
-      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="3:13">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2563,6 +2550,7 @@
     <row r="37" spans="3:13">
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2585,209 +2573,57 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="2:24">
-      <c r="B39" s="2">
-        <v>3001011</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>1</v>
-      </c>
+    <row r="39" spans="3:13">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K39" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L39" s="8">
-        <v>1</v>
-      </c>
-      <c r="M39" s="8">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>4001001</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24">
-      <c r="B40" s="2">
-        <v>3001012</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="8">
-        <v>2000</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
-        <v>18000</v>
-      </c>
-      <c r="K40" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L40" s="8">
-        <v>1</v>
-      </c>
-      <c r="M40" s="8">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>4001006</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24">
-      <c r="B41" s="2">
-        <v>3001013</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>1</v>
-      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K41" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L41" s="8">
-        <v>1</v>
-      </c>
-      <c r="M41" s="8">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>4001007</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24">
-      <c r="B42" s="2">
-        <v>3001014</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <v>5000</v>
-      </c>
-      <c r="K42" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L42" s="8">
-        <v>1</v>
-      </c>
-      <c r="M42" s="8">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>13001012</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>15008007</v>
-      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
     </row>
     <row r="43" spans="3:13">
       <c r="C43" s="8"/>
@@ -2802,38 +2638,110 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="3:13">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:13">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+    <row r="44" spans="2:23">
+      <c r="B44" s="2">
+        <v>3001001</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L44" s="8">
+        <v>1</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>4001001</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24">
+      <c r="B45" s="2">
+        <v>3001002</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8">
+        <v>500</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>7000</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="8">
+        <v>1</v>
+      </c>
+      <c r="M45" s="8">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>4001002</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>15008016</v>
+      </c>
     </row>
     <row r="46" spans="3:13">
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2843,146 +2751,107 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="2:23">
-      <c r="B47" s="2">
-        <v>3002001</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>1</v>
-      </c>
-      <c r="G47" s="8">
-        <v>1</v>
-      </c>
-      <c r="H47" s="8">
+    <row r="47" spans="3:13">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="2:24">
+      <c r="B49" s="2">
+        <v>3001011</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8">
         <v>99999999</v>
       </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="K47" s="8">
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K49" s="8">
         <v>1500</v>
       </c>
-      <c r="L47" s="8">
-        <v>1</v>
-      </c>
-      <c r="M47" s="8">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>4002001</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24">
-      <c r="B48" s="2">
-        <v>3002002</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8">
-        <v>500</v>
-      </c>
-      <c r="I48" s="8">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
-        <v>7000</v>
-      </c>
-      <c r="K48" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L48" s="8">
-        <v>0</v>
-      </c>
-      <c r="M48" s="8">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>4002002</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" customFormat="1" spans="1:24">
-      <c r="A50" s="2"/>
+      <c r="L49" s="8">
+        <v>1</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>4001001</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24">
       <c r="B50" s="2">
-        <v>3002011</v>
+        <v>3001012</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8">
-        <v>99999999</v>
+        <v>2000</v>
       </c>
       <c r="I50" s="8">
         <v>0</v>
       </c>
       <c r="J50" s="8">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="K50" s="8">
         <v>1500</v>
@@ -2991,10 +2860,10 @@
         <v>1</v>
       </c>
       <c r="M50" s="8">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>4002006</v>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>4001006</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -3006,353 +2875,470 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>15008007</v>
+        <v>15008003</v>
       </c>
     </row>
     <row r="51" spans="2:24">
       <c r="B51" s="2">
-        <v>3002012</v>
+        <v>3001013</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
       </c>
       <c r="F51" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K51" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L51" s="8">
+        <v>1</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>4001007</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24">
+      <c r="B52" s="2">
+        <v>3001014</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K52" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L52" s="8">
+        <v>1</v>
+      </c>
+      <c r="M52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>13001012</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:13">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+    </row>
+    <row r="56" spans="3:13">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+    </row>
+    <row r="57" spans="2:23">
+      <c r="B57" s="2">
+        <v>3002001</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="8">
+        <v>1</v>
+      </c>
+      <c r="M57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>4002001</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24">
+      <c r="B58" s="2">
+        <v>3002002</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8">
+        <v>500</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8">
+        <v>7000</v>
+      </c>
+      <c r="K58" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>4002002</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+    </row>
+    <row r="60" customFormat="1" spans="1:24">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2">
+        <v>3002011</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0</v>
+      </c>
+      <c r="J60" s="8">
+        <v>8000</v>
+      </c>
+      <c r="K60" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="8">
+        <v>1</v>
+      </c>
+      <c r="M60" s="8">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>4002006</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24">
+      <c r="B61" s="2">
+        <v>3002012</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8">
         <v>1000</v>
       </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="I61" s="8">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8">
         <v>12000</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K61" s="8">
         <v>1000</v>
       </c>
-      <c r="L51" s="8">
-        <v>1</v>
-      </c>
-      <c r="M51" s="8">
-        <v>1</v>
-      </c>
-      <c r="O51">
+      <c r="L61" s="8">
+        <v>1</v>
+      </c>
+      <c r="M61" s="8">
+        <v>1</v>
+      </c>
+      <c r="O61">
         <v>4002007</v>
       </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
         <v>15008003</v>
       </c>
     </row>
-    <row r="52" spans="3:13">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="2:23">
-      <c r="B53" s="2">
+    <row r="62" spans="3:13">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="2:23">
+      <c r="B63" s="2">
         <v>3003001</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>1</v>
-      </c>
-      <c r="G53" s="8">
-        <v>1</v>
-      </c>
-      <c r="H53" s="8">
+      <c r="C63" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="9">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8">
         <v>99999999</v>
       </c>
-      <c r="I53" s="8">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
+      <c r="I63" s="8">
+        <v>0</v>
+      </c>
+      <c r="J63" s="8">
         <v>99999999</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K63" s="8">
         <v>1500</v>
       </c>
-      <c r="L53" s="8">
-        <v>1</v>
-      </c>
-      <c r="M53" s="8">
-        <v>0</v>
-      </c>
-      <c r="R53">
+      <c r="L63" s="8">
+        <v>1</v>
+      </c>
+      <c r="M63" s="8">
+        <v>0</v>
+      </c>
+      <c r="R63">
         <v>4002001</v>
       </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24">
-      <c r="B54" s="2">
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24">
+      <c r="B64" s="2">
         <v>3003002</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8">
-        <v>500</v>
-      </c>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
-        <v>17000</v>
-      </c>
-      <c r="K54" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L54" s="8">
-        <v>1</v>
-      </c>
-      <c r="M54" s="8">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>4002011</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>9999999</v>
-      </c>
-      <c r="X54">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24">
-      <c r="B55" s="2">
-        <v>3003003</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8">
-        <v>500</v>
-      </c>
-      <c r="I55" s="8">
-        <v>30</v>
-      </c>
-      <c r="J55" s="8">
-        <v>17000</v>
-      </c>
-      <c r="K55" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L55" s="8">
-        <v>1</v>
-      </c>
-      <c r="M55" s="8">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>4002011</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="W55">
-        <v>9999999</v>
-      </c>
-      <c r="X55">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24">
-      <c r="B56" s="2">
-        <v>3003004</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8">
-        <v>500</v>
-      </c>
-      <c r="I56" s="8">
-        <v>-30</v>
-      </c>
-      <c r="J56" s="8">
-        <v>17000</v>
-      </c>
-      <c r="K56" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L56" s="8">
-        <v>1</v>
-      </c>
-      <c r="M56" s="8">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>4002011</v>
-      </c>
-      <c r="T56">
-        <v>1</v>
-      </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="W56">
-        <v>9999999</v>
-      </c>
-      <c r="X56">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:23">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2">
-        <v>3061101</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>1</v>
-      </c>
-      <c r="G61" s="8">
-        <v>1</v>
-      </c>
-      <c r="H61" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I61" s="8">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="K61" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L61" s="8">
-        <v>1</v>
-      </c>
-      <c r="M61" s="8">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>4002001</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:24">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2">
-        <v>3062101</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8">
-        <v>99999999</v>
+        <v>500</v>
       </c>
       <c r="I64" s="8">
         <v>0</v>
       </c>
       <c r="J64" s="8">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="K64" s="8">
         <v>1500</v>
@@ -3361,21 +3347,226 @@
         <v>1</v>
       </c>
       <c r="M64" s="8">
-        <v>0</v>
-      </c>
-      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>4002011</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>9999999</v>
+      </c>
+      <c r="X64">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24">
+      <c r="B65" s="2">
+        <v>3003003</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8">
+        <v>500</v>
+      </c>
+      <c r="I65" s="8">
+        <v>30</v>
+      </c>
+      <c r="J65" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K65" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1</v>
+      </c>
+      <c r="M65" s="8">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>4002011</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <v>9999999</v>
+      </c>
+      <c r="X65">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24">
+      <c r="B66" s="2">
+        <v>3003004</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0</v>
+      </c>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8">
+        <v>500</v>
+      </c>
+      <c r="I66" s="8">
+        <v>-30</v>
+      </c>
+      <c r="J66" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K66" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L66" s="8">
+        <v>1</v>
+      </c>
+      <c r="M66" s="8">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>4002011</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>9999999</v>
+      </c>
+      <c r="X66">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:23">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2">
+        <v>3061101</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1</v>
+      </c>
+      <c r="G71" s="8">
+        <v>1</v>
+      </c>
+      <c r="H71" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K71" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L71" s="8">
+        <v>1</v>
+      </c>
+      <c r="M71" s="8">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>4002001</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:24">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2">
+        <v>3062101</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8">
+        <v>1</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" s="8">
+        <v>8000</v>
+      </c>
+      <c r="K74" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L74" s="8">
+        <v>1</v>
+      </c>
+      <c r="M74" s="8">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <v>4002006</v>
       </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
         <v>15008007</v>
       </c>
     </row>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="10890"/>
+    <workbookView windowWidth="24120" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>#</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>夜魂普通攻击</t>
+  </si>
+  <si>
+    <t>萧玉 普通攻击投掷物</t>
   </si>
   <si>
     <t>怪物1普通攻击</t>
@@ -1368,11 +1371,11 @@
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="O1" activePane="bottomLeft"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="O3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1894,20 +1897,59 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" customFormat="1" spans="1:13">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
+    <row r="12" customFormat="1" spans="1:24">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3005101</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="H12" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>4005101</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="13" customFormat="1" spans="1:13">
       <c r="A13" s="2"/>
@@ -2007,10 +2049,10 @@
         <v>3101101</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
@@ -2211,10 +2253,10 @@
         <v>3100101</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
@@ -2269,10 +2311,10 @@
         <v>3100102</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29" s="9">
         <v>0</v>
@@ -2327,10 +2369,10 @@
         <v>3100103</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
@@ -2385,10 +2427,10 @@
         <v>3100104</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" s="9">
         <v>0</v>
@@ -2443,10 +2485,10 @@
         <v>3100105</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
@@ -2643,10 +2685,10 @@
         <v>3001001</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
@@ -2693,10 +2735,10 @@
         <v>3001002</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
@@ -2832,10 +2874,10 @@
         <v>3001012</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
@@ -2883,10 +2925,10 @@
         <v>3001013</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
@@ -2934,10 +2976,10 @@
         <v>3001014</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
@@ -3039,10 +3081,10 @@
         <v>3002001</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
@@ -3089,10 +3131,10 @@
         <v>3002002</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
@@ -3154,10 +3196,10 @@
         <v>3002011</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
@@ -3205,10 +3247,10 @@
         <v>3002012</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E61" s="9">
         <v>0</v>
@@ -3269,10 +3311,10 @@
         <v>3003001</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E63" s="9">
         <v>0</v>
@@ -3319,10 +3361,10 @@
         <v>3003002</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
@@ -3370,10 +3412,10 @@
         <v>3003003</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E65" s="9">
         <v>0</v>
@@ -3421,10 +3463,10 @@
         <v>3003004</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
@@ -3473,10 +3515,10 @@
         <v>3061101</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E71" s="9">
         <v>0</v>
@@ -3524,10 +3566,10 @@
         <v>3062101</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -1371,11 +1371,11 @@
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="O3" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="O3" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24120" windowHeight="10890"/>
+    <workbookView windowWidth="18105" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -280,7 +280,16 @@
     <t>萧玉 普通攻击投掷物</t>
   </si>
   <si>
+    <t>承灵普通攻击</t>
+  </si>
+  <si>
+    <t>怪物1普通攻击投掷物</t>
+  </si>
+  <si>
     <t>怪物1普通攻击</t>
+  </si>
+  <si>
+    <t>承灵 q 召唤物普通攻击投掷物</t>
   </si>
   <si>
     <t>回旋镖 投掷物 lv1</t>
@@ -1371,11 +1380,11 @@
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="O3" activePane="bottomLeft"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="P6" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1981,20 +1990,58 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" customFormat="1" spans="1:13">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+    <row r="15" customFormat="1" spans="1:23">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3006101</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>4006101</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="1" spans="1:13">
       <c r="A16" s="2"/>
@@ -2049,10 +2096,10 @@
         <v>3101101</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
@@ -2109,20 +2156,58 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" customFormat="1" spans="1:13">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+    <row r="21" customFormat="1" spans="1:23">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3501101</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>4501101</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="1" spans="1:13">
       <c r="A22" s="2"/>
@@ -2253,10 +2338,10 @@
         <v>3100101</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
@@ -2311,10 +2396,10 @@
         <v>3100102</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E29" s="9">
         <v>0</v>
@@ -2369,10 +2454,10 @@
         <v>3100103</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
@@ -2427,10 +2512,10 @@
         <v>3100104</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E31" s="9">
         <v>0</v>
@@ -2485,10 +2570,10 @@
         <v>3100105</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
@@ -2685,10 +2770,10 @@
         <v>3001001</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
@@ -2735,10 +2820,10 @@
         <v>3001002</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
@@ -2874,10 +2959,10 @@
         <v>3001012</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
@@ -2925,10 +3010,10 @@
         <v>3001013</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
@@ -2976,10 +3061,10 @@
         <v>3001014</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
@@ -3081,10 +3166,10 @@
         <v>3002001</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
@@ -3131,10 +3216,10 @@
         <v>3002002</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
@@ -3196,10 +3281,10 @@
         <v>3002011</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
@@ -3247,10 +3332,10 @@
         <v>3002012</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E61" s="9">
         <v>0</v>
@@ -3311,10 +3396,10 @@
         <v>3003001</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E63" s="9">
         <v>0</v>
@@ -3361,10 +3446,10 @@
         <v>3003002</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
@@ -3412,10 +3497,10 @@
         <v>3003003</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E65" s="9">
         <v>0</v>
@@ -3463,10 +3548,10 @@
         <v>3003004</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
@@ -3515,10 +3600,10 @@
         <v>3061101</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E71" s="9">
         <v>0</v>
@@ -3566,10 +3651,10 @@
         <v>3062101</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -1380,11 +1380,11 @@
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="P6" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="P6" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>3501101</v>
+        <v>3502101</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>59</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>4501101</v>
+        <v>4502101</v>
       </c>
       <c r="T21">
         <v>0</v>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>承灵 q 召唤物普通攻击投掷物</t>
+  </si>
+  <si>
+    <t>承灵 大招 召唤物普通攻击投掷物</t>
   </si>
   <si>
     <t>回旋镖 投掷物 lv1</t>
@@ -1377,14 +1380,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="P6" activePane="bottomLeft"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="P3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2156,88 +2159,126 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" customFormat="1" spans="1:23">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" customFormat="1" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:23">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3501101</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>4501101</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:23">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
         <v>3502101</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="C23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
         <v>99999999</v>
       </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
         <v>99999999</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K23" s="8">
         <v>1500</v>
       </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="R21">
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>4502101</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:13">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:13">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="1" spans="1:13">
       <c r="A24" s="2"/>
@@ -2254,7 +2295,9 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" customFormat="1" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
@@ -2267,57 +2310,20 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" customFormat="1" spans="1:24">
+    <row r="26" customFormat="1" spans="1:13">
       <c r="A26" s="2"/>
-      <c r="B26" s="2">
-        <v>3000101</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
-      <c r="J26" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K26" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L26" s="8">
-        <v>1</v>
-      </c>
-      <c r="M26" s="8">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>4001001</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>15008007</v>
-      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="3:13">
       <c r="C27" s="8"/>
@@ -2335,29 +2341,29 @@
     <row r="28" customFormat="1" spans="1:24">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
-        <v>3100101</v>
+        <v>3000101</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="I28" s="8">
         <v>0</v>
       </c>
       <c r="J28" s="8">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K28" s="8">
         <v>1500</v>
@@ -2366,16 +2372,10 @@
         <v>1</v>
       </c>
       <c r="M28" s="8">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>4100101</v>
-      </c>
-      <c r="P28">
-        <v>-200</v>
-      </c>
-      <c r="Q28">
-        <v>-600</v>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>4001001</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2387,77 +2387,32 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:24">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2">
-        <v>3100102</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="8">
-        <v>800</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K29" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L29" s="8">
-        <v>1</v>
-      </c>
-      <c r="M29" s="8">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>4100102</v>
-      </c>
-      <c r="P29">
-        <v>-200</v>
-      </c>
-      <c r="Q29">
-        <v>-600</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>15008003</v>
-      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" customFormat="1" spans="1:24">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
-        <v>3100103</v>
+        <v>3100101</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
@@ -2467,7 +2422,7 @@
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="I30" s="8">
         <v>0</v>
@@ -2485,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>4100103</v>
+        <v>4100101</v>
       </c>
       <c r="P30">
         <v>-200</v>
@@ -2494,13 +2449,13 @@
         <v>-600</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <v>15008003</v>
@@ -2509,13 +2464,13 @@
     <row r="31" customFormat="1" spans="1:24">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
-        <v>3100104</v>
+        <v>3100102</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="9">
         <v>0</v>
@@ -2525,7 +2480,7 @@
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="I31" s="8">
         <v>0</v>
@@ -2543,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>4100104</v>
+        <v>4100102</v>
       </c>
       <c r="P31">
         <v>-200</v>
@@ -2552,13 +2507,13 @@
         <v>-600</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <v>15008003</v>
@@ -2567,13 +2522,13 @@
     <row r="32" customFormat="1" spans="1:24">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
-        <v>3100105</v>
+        <v>3100103</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
@@ -2583,7 +2538,7 @@
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="I32" s="8">
         <v>0</v>
@@ -2601,13 +2556,13 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>4100105</v>
+        <v>4100103</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2622,31 +2577,121 @@
         <v>15008003</v>
       </c>
     </row>
-    <row r="33" spans="3:13">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
+    <row r="33" customFormat="1" spans="1:24">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2">
+        <v>3100104</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="3:13">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
+      <c r="H33" s="8">
+        <v>1400</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1</v>
+      </c>
+      <c r="M33" s="8">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>4100104</v>
+      </c>
+      <c r="P33">
+        <v>-200</v>
+      </c>
+      <c r="Q33">
+        <v>-600</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>9999999</v>
+      </c>
+      <c r="X33">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:24">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2">
+        <v>3100105</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="H34" s="8">
+        <v>1700</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1</v>
+      </c>
+      <c r="M34" s="8">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>4100105</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>9999999</v>
+      </c>
+      <c r="X34">
+        <v>15008003</v>
+      </c>
     </row>
     <row r="35" spans="3:13">
       <c r="C35" s="8"/>
@@ -2765,135 +2810,136 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="2:23">
-      <c r="B44" s="2">
+    <row r="44" spans="3:13">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" s="2">
         <v>3001001</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8">
-        <v>1</v>
-      </c>
-      <c r="G44" s="8">
-        <v>1</v>
-      </c>
-      <c r="H44" s="8">
+      <c r="C46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="8">
         <v>99999999</v>
       </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8">
         <v>99999999</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K46" s="8">
         <v>1500</v>
       </c>
-      <c r="L44" s="8">
-        <v>1</v>
-      </c>
-      <c r="M44" s="8">
-        <v>0</v>
-      </c>
-      <c r="R44">
+      <c r="L46" s="8">
+        <v>1</v>
+      </c>
+      <c r="M46" s="8">
+        <v>0</v>
+      </c>
+      <c r="R46">
         <v>4001001</v>
       </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24">
-      <c r="B45" s="2">
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24">
+      <c r="B47" s="2">
         <v>3001002</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8">
+      <c r="C47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8">
         <v>500</v>
       </c>
-      <c r="I45" s="8">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
         <v>7000</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K47" s="8">
         <v>1500</v>
       </c>
-      <c r="L45" s="8">
-        <v>1</v>
-      </c>
-      <c r="M45" s="8">
-        <v>1</v>
-      </c>
-      <c r="O45">
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47" s="8">
+        <v>1</v>
+      </c>
+      <c r="O47">
         <v>4001002</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
         <v>15008016</v>
       </c>
-    </row>
-    <row r="46" spans="3:13">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="3:13">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
     </row>
     <row r="48" spans="3:13">
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2903,117 +2949,40 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="2:24">
-      <c r="B49" s="2">
-        <v>3001011</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="9">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>1</v>
-      </c>
+    <row r="49" spans="3:13">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I49" s="8">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K49" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L49" s="8">
-        <v>1</v>
-      </c>
-      <c r="M49" s="8">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>4001001</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24">
-      <c r="B50" s="2">
-        <v>3001012</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="8">
-        <v>2000</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <v>18000</v>
-      </c>
-      <c r="K50" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L50" s="8">
-        <v>1</v>
-      </c>
-      <c r="M50" s="8">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>4001006</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>15008003</v>
-      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
     </row>
     <row r="51" spans="2:24">
       <c r="B51" s="2">
-        <v>3001013</v>
+        <v>3001011</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
@@ -3040,8 +3009,8 @@
       <c r="M51" s="8">
         <v>0</v>
       </c>
-      <c r="O51">
-        <v>4001007</v>
+      <c r="R51">
+        <v>4001001</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -3058,29 +3027,29 @@
     </row>
     <row r="52" spans="2:24">
       <c r="B52" s="2">
-        <v>3001014</v>
+        <v>3001012</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8">
-        <v>99999999</v>
+        <v>2000</v>
       </c>
       <c r="I52" s="8">
         <v>0</v>
       </c>
       <c r="J52" s="8">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="K52" s="8">
         <v>1500</v>
@@ -3089,64 +3058,138 @@
         <v>1</v>
       </c>
       <c r="M52" s="8">
-        <v>0</v>
-      </c>
-      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>4001006</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24">
+      <c r="B53" s="2">
+        <v>3001013</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K53" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L53" s="8">
+        <v>1</v>
+      </c>
+      <c r="M53" s="8">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>4001007</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24">
+      <c r="B54" s="2">
+        <v>3001014</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="8">
+        <v>1</v>
+      </c>
+      <c r="M54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54">
         <v>13001012</v>
       </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
         <v>15008007</v>
       </c>
     </row>
-    <row r="53" spans="3:13">
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="3:13">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:13">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
+    <row r="55" spans="3:13">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
     </row>
     <row r="56" spans="3:13">
       <c r="C56" s="8"/>
@@ -3161,124 +3204,87 @@
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
     </row>
-    <row r="57" spans="2:23">
-      <c r="B57" s="2">
+    <row r="57" s="1" customFormat="1" spans="1:13">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+    </row>
+    <row r="58" spans="3:13">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+    </row>
+    <row r="59" spans="2:23">
+      <c r="B59" s="2">
         <v>3002001</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8">
-        <v>1</v>
-      </c>
-      <c r="G57" s="8">
-        <v>1</v>
-      </c>
-      <c r="H57" s="8">
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1</v>
+      </c>
+      <c r="G59" s="8">
+        <v>1</v>
+      </c>
+      <c r="H59" s="8">
         <v>99999999</v>
       </c>
-      <c r="I57" s="8">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8">
         <v>99999999</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K59" s="8">
         <v>1500</v>
       </c>
-      <c r="L57" s="8">
-        <v>1</v>
-      </c>
-      <c r="M57" s="8">
-        <v>0</v>
-      </c>
-      <c r="R57">
+      <c r="L59" s="8">
+        <v>1</v>
+      </c>
+      <c r="M59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59">
         <v>4002001</v>
       </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24">
-      <c r="B58" s="2">
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24">
+      <c r="B60" s="2">
         <v>3002002</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8">
-        <v>0</v>
-      </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8">
-        <v>500</v>
-      </c>
-      <c r="I58" s="8">
-        <v>0</v>
-      </c>
-      <c r="J58" s="8">
-        <v>7000</v>
-      </c>
-      <c r="K58" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L58" s="8">
-        <v>0</v>
-      </c>
-      <c r="M58" s="8">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>4002002</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13">
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-    </row>
-    <row r="60" customFormat="1" spans="1:24">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2">
-        <v>3002011</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>72</v>
@@ -3290,110 +3296,111 @@
         <v>0</v>
       </c>
       <c r="F60" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8">
-        <v>99999999</v>
+        <v>500</v>
       </c>
       <c r="I60" s="8">
         <v>0</v>
       </c>
       <c r="J60" s="8">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="K60" s="8">
         <v>1500</v>
       </c>
       <c r="L60" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" s="8">
         <v>0</v>
       </c>
-      <c r="R60">
+      <c r="O60">
+        <v>4002002</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+    </row>
+    <row r="62" customFormat="1" spans="1:24">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2">
+        <v>3002011</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="9">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>1</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8">
+        <v>8000</v>
+      </c>
+      <c r="K62" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L62" s="8">
+        <v>1</v>
+      </c>
+      <c r="M62" s="8">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>4002006</v>
       </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
         <v>15008007</v>
       </c>
     </row>
-    <row r="61" spans="2:24">
-      <c r="B61" s="2">
+    <row r="63" spans="2:24">
+      <c r="B63" s="2">
         <v>3002012</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>0</v>
-      </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I61" s="8">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
-        <v>12000</v>
-      </c>
-      <c r="K61" s="8">
-        <v>1000</v>
-      </c>
-      <c r="L61" s="8">
-        <v>1</v>
-      </c>
-      <c r="M61" s="8">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>4002007</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13">
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-    </row>
-    <row r="63" spans="2:23">
-      <c r="B63" s="2">
-        <v>3003001</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>74</v>
@@ -3405,118 +3412,83 @@
         <v>0</v>
       </c>
       <c r="F63" s="8">
-        <v>1</v>
-      </c>
-      <c r="G63" s="8">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G63" s="8"/>
       <c r="H63" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0</v>
+      </c>
+      <c r="J63" s="8">
+        <v>12000</v>
+      </c>
+      <c r="K63" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L63" s="8">
+        <v>1</v>
+      </c>
+      <c r="M63" s="8">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>4002007</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="2:23">
+      <c r="B65" s="2">
+        <v>3003001</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1</v>
+      </c>
+      <c r="H65" s="8">
         <v>99999999</v>
       </c>
-      <c r="I63" s="8">
-        <v>0</v>
-      </c>
-      <c r="J63" s="8">
+      <c r="I65" s="8">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8">
         <v>99999999</v>
-      </c>
-      <c r="K63" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L63" s="8">
-        <v>1</v>
-      </c>
-      <c r="M63" s="8">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>4002001</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24">
-      <c r="B64" s="2">
-        <v>3003002</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8">
-        <v>0</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8">
-        <v>500</v>
-      </c>
-      <c r="I64" s="8">
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
-        <v>17000</v>
-      </c>
-      <c r="K64" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L64" s="8">
-        <v>1</v>
-      </c>
-      <c r="M64" s="8">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>4002011</v>
-      </c>
-      <c r="T64">
-        <v>1</v>
-      </c>
-      <c r="U64">
-        <v>1</v>
-      </c>
-      <c r="W64">
-        <v>9999999</v>
-      </c>
-      <c r="X64">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="65" spans="2:24">
-      <c r="B65" s="2">
-        <v>3003003</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
-        <v>0</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8">
-        <v>500</v>
-      </c>
-      <c r="I65" s="8">
-        <v>30</v>
-      </c>
-      <c r="J65" s="8">
-        <v>17000</v>
       </c>
       <c r="K65" s="8">
         <v>1500</v>
@@ -3525,33 +3497,30 @@
         <v>1</v>
       </c>
       <c r="M65" s="8">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>4002011</v>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>4002001</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>9999999</v>
-      </c>
-      <c r="X65">
-        <v>15008008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:24">
       <c r="B66" s="2">
-        <v>3003004</v>
+        <v>3003002</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
@@ -3564,7 +3533,7 @@
         <v>500</v>
       </c>
       <c r="I66" s="8">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J66" s="8">
         <v>17000</v>
@@ -3594,106 +3563,208 @@
         <v>15008008</v>
       </c>
     </row>
-    <row r="71" customFormat="1" spans="1:23">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2">
+    <row r="67" spans="2:24">
+      <c r="B67" s="2">
+        <v>3003003</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8">
+        <v>500</v>
+      </c>
+      <c r="I67" s="8">
+        <v>30</v>
+      </c>
+      <c r="J67" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K67" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L67" s="8">
+        <v>1</v>
+      </c>
+      <c r="M67" s="8">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>4002011</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>9999999</v>
+      </c>
+      <c r="X67">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24">
+      <c r="B68" s="2">
+        <v>3003004</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8">
+        <v>500</v>
+      </c>
+      <c r="I68" s="8">
+        <v>-30</v>
+      </c>
+      <c r="J68" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K68" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L68" s="8">
+        <v>1</v>
+      </c>
+      <c r="M68" s="8">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>4002011</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>9999999</v>
+      </c>
+      <c r="X68">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:23">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2">
         <v>3061101</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="C73" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E71" s="9">
-        <v>0</v>
-      </c>
-      <c r="F71" s="8">
-        <v>1</v>
-      </c>
-      <c r="G71" s="8">
-        <v>1</v>
-      </c>
-      <c r="H71" s="8">
+      <c r="E73" s="9">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1</v>
+      </c>
+      <c r="G73" s="8">
+        <v>1</v>
+      </c>
+      <c r="H73" s="8">
         <v>99999999</v>
       </c>
-      <c r="I71" s="8">
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
+      <c r="I73" s="8">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8">
         <v>99999999</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K73" s="8">
         <v>1500</v>
       </c>
-      <c r="L71" s="8">
-        <v>1</v>
-      </c>
-      <c r="M71" s="8">
-        <v>0</v>
-      </c>
-      <c r="R71">
+      <c r="L73" s="8">
+        <v>1</v>
+      </c>
+      <c r="M73" s="8">
+        <v>0</v>
+      </c>
+      <c r="R73">
         <v>4002001</v>
       </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:24">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2">
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:24">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2">
         <v>3062101</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="8">
-        <v>1</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8">
+      <c r="C76" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1</v>
+      </c>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8">
         <v>99999999</v>
       </c>
-      <c r="I74" s="8">
-        <v>0</v>
-      </c>
-      <c r="J74" s="8">
+      <c r="I76" s="8">
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
         <v>8000</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K76" s="8">
         <v>1500</v>
       </c>
-      <c r="L74" s="8">
-        <v>1</v>
-      </c>
-      <c r="M74" s="8">
-        <v>0</v>
-      </c>
-      <c r="R74">
+      <c r="L76" s="8">
+        <v>1</v>
+      </c>
+      <c r="M76" s="8">
+        <v>0</v>
+      </c>
+      <c r="R76">
         <v>4002006</v>
       </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
         <v>15008007</v>
       </c>
     </row>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="10890"/>
+    <workbookView windowWidth="16245" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1383,11 +1383,11 @@
   <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="P3" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="M6" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10890"/>
+    <workbookView windowWidth="15750" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0">
+    <comment ref="T3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Zxy:</t>
+          <t>94067:</t>
         </r>
         <r>
           <rPr>
@@ -99,9 +99,35 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 跟随施法者
-2 转向点到施法者的方向,
-3 固定方向偏转</t>
+type为：
+4： x 半径（*1000）
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+type为：
+4： x,y 
+x:半径（*1000）
+y:和释放者的关系选择（参考 AreaEffect 的 关系选择项 entityRelationFilterType）
+</t>
         </r>
       </text>
     </comment>
@@ -110,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -175,12 +201,15 @@
     <t>endRedirectType</t>
   </si>
   <si>
-    <t>endRedirectParam</t>
+    <t>endRedirectIntListParam</t>
   </si>
   <si>
     <t>endRedirectLastTime</t>
   </si>
   <si>
+    <t>isEndRedirectReserveCollisionInfo</t>
+  </si>
+  <si>
     <t>effectResId</t>
   </si>
   <si>
@@ -256,12 +285,15 @@
     <t>结束时转向类型</t>
   </si>
   <si>
-    <t>结束时转向参数</t>
+    <t>结束时转向参数(intList)</t>
   </si>
   <si>
     <t>结束时转向之后持续时间</t>
   </si>
   <si>
+    <t>是否结束时转向的时候保留碰撞实体信息</t>
+  </si>
+  <si>
     <t>效果资源id</t>
   </si>
   <si>
@@ -293,6 +325,15 @@
   </si>
   <si>
     <t>承灵 大招 召唤物普通攻击投掷物</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 投掷物 lv1</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv1</t>
+  </si>
+  <si>
+    <t>10000,0</t>
   </si>
   <si>
     <t>回旋镖 投掷物 lv1</t>
@@ -1380,14 +1421,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="M6" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="6270" ySplit="2985" topLeftCell="Q9" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1408,11 +1449,11 @@
     <col min="16" max="17" width="22" customWidth="1"/>
     <col min="18" max="18" width="25" customWidth="1"/>
     <col min="19" max="19" width="28.375" customWidth="1"/>
-    <col min="20" max="23" width="19.125" customWidth="1"/>
-    <col min="24" max="24" width="12.25" customWidth="1"/>
+    <col min="20" max="24" width="19.125" customWidth="1"/>
+    <col min="25" max="25" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:24">
+    <row r="1" ht="27" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1485,153 +1526,162 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
         <v>25</v>
       </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
       <c r="X2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:24">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" t="s">
         <v>50</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:13">
@@ -1649,7 +1699,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" customFormat="1" spans="1:24">
+    <row r="5" customFormat="1" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1657,10 +1707,10 @@
         <v>3003101</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
@@ -1699,11 +1749,11 @@
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>15008007</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:24">
+    <row r="6" customFormat="1" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1711,10 +1761,10 @@
         <v>3003201</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
@@ -1753,11 +1803,11 @@
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>15008003</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:24">
+    <row r="7" customFormat="1" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1765,10 +1815,10 @@
         <v>3003301</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
@@ -1807,7 +1857,7 @@
       <c r="W7">
         <v>0</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>15008007</v>
       </c>
     </row>
@@ -1849,10 +1899,10 @@
         <v>3004101</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
@@ -1909,7 +1959,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" customFormat="1" spans="1:24">
+    <row r="12" customFormat="1" spans="1:25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1917,10 +1967,10 @@
         <v>3005101</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -1959,7 +2009,7 @@
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>15008007</v>
       </c>
     </row>
@@ -2001,10 +2051,10 @@
         <v>3006101</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E15" s="9">
         <v>0</v>
@@ -2099,10 +2149,10 @@
         <v>3101101</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
@@ -2182,10 +2232,10 @@
         <v>3501101</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
@@ -2235,10 +2285,10 @@
         <v>3502101</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" s="9">
         <v>0</v>
@@ -2325,72 +2375,84 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
+    <row r="27" customFormat="1" spans="1:25">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3801101</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:24">
+      <c r="H27" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>4801101</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27" t="s">
+        <v>65</v>
+      </c>
+      <c r="W27">
+        <v>9999999</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:13">
       <c r="A28" s="2"/>
-      <c r="B28" s="2">
-        <v>3000101</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K28" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L28" s="8">
-        <v>1</v>
-      </c>
-      <c r="M28" s="8">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>4001001</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
@@ -2403,90 +2465,45 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" customFormat="1" spans="1:24">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2">
-        <v>3100101</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
+    <row r="30" spans="3:13">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8">
-        <v>500</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K30" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L30" s="8">
-        <v>1</v>
-      </c>
-      <c r="M30" s="8">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>4100101</v>
-      </c>
-      <c r="P30">
-        <v>-200</v>
-      </c>
-      <c r="Q30">
-        <v>-600</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:24">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:25">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
-        <v>3100102</v>
+        <v>3000101</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E31" s="9">
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8">
-        <v>800</v>
+        <v>99999999</v>
       </c>
       <c r="I31" s="8">
         <v>0</v>
       </c>
       <c r="J31" s="8">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K31" s="8">
         <v>1500</v>
@@ -2495,16 +2512,10 @@
         <v>1</v>
       </c>
       <c r="M31" s="8">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>4100102</v>
-      </c>
-      <c r="P31">
-        <v>-200</v>
-      </c>
-      <c r="Q31">
-        <v>-600</v>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>4001001</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2515,78 +2526,33 @@
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:24">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2">
-        <v>3100103</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
+      <c r="Y31">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8">
-        <v>1100</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K32" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L32" s="8">
-        <v>1</v>
-      </c>
-      <c r="M32" s="8">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>4100103</v>
-      </c>
-      <c r="P32">
-        <v>-200</v>
-      </c>
-      <c r="Q32">
-        <v>-600</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>9999999</v>
-      </c>
-      <c r="X32">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:24">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:25">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
-        <v>3100104</v>
+        <v>3100101</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E33" s="9">
         <v>0</v>
@@ -2596,7 +2562,7 @@
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="I33" s="8">
         <v>0</v>
@@ -2614,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>4100104</v>
+        <v>4100101</v>
       </c>
       <c r="P33">
         <v>-200</v>
@@ -2623,28 +2589,28 @@
         <v>-600</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>9999999</v>
-      </c>
-      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
         <v>15008003</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:24">
+    <row r="34" customFormat="1" spans="1:25">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
-        <v>3100105</v>
+        <v>3100102</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
@@ -2654,7 +2620,7 @@
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="I34" s="8">
         <v>0</v>
@@ -2672,65 +2638,200 @@
         <v>1</v>
       </c>
       <c r="O34">
+        <v>4100102</v>
+      </c>
+      <c r="P34">
+        <v>-200</v>
+      </c>
+      <c r="Q34">
+        <v>-600</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2">
+        <v>3100103</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8">
+        <v>1100</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>4100103</v>
+      </c>
+      <c r="P35">
+        <v>-200</v>
+      </c>
+      <c r="Q35">
+        <v>-600</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>9999999</v>
+      </c>
+      <c r="Y35">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2">
+        <v>3100104</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8">
+        <v>1400</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1</v>
+      </c>
+      <c r="M36" s="8">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>4100104</v>
+      </c>
+      <c r="P36">
+        <v>-200</v>
+      </c>
+      <c r="Q36">
+        <v>-600</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>9999999</v>
+      </c>
+      <c r="Y36">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2">
+        <v>3100105</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8">
+        <v>1700</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L37" s="8">
+        <v>1</v>
+      </c>
+      <c r="M37" s="8">
+        <v>1</v>
+      </c>
+      <c r="O37">
         <v>4100105</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="W34">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="W37">
         <v>9999999</v>
       </c>
-      <c r="X34">
+      <c r="Y37">
         <v>15008003</v>
       </c>
-    </row>
-    <row r="35" spans="3:13">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="3:13">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="3:13">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="3:13">
       <c r="C38" s="8"/>
@@ -2836,110 +2937,36 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="2:23">
-      <c r="B46" s="2">
-        <v>3001001</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="8">
-        <v>1</v>
-      </c>
-      <c r="G46" s="8">
-        <v>1</v>
-      </c>
-      <c r="H46" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I46" s="8">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="K46" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L46" s="8">
-        <v>1</v>
-      </c>
-      <c r="M46" s="8">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>4001001</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24">
-      <c r="B47" s="2">
-        <v>3001002</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>0</v>
-      </c>
+    <row r="46" spans="3:13">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="8">
-        <v>500</v>
-      </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
-        <v>7000</v>
-      </c>
-      <c r="K47" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L47" s="8">
-        <v>1</v>
-      </c>
-      <c r="M47" s="8">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>4001002</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>15008016</v>
-      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
     </row>
     <row r="48" spans="3:13">
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2949,193 +2976,153 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="3:13">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="3:13">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="8"/>
+    <row r="49" spans="2:23">
+      <c r="B49" s="2">
+        <v>3001001</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K49" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L49" s="8">
+        <v>1</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>4001001</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25">
+      <c r="B50" s="2">
+        <v>3001002</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
       <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="2:24">
-      <c r="B51" s="2">
+      <c r="H50" s="8">
+        <v>500</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>7000</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L50" s="8">
+        <v>1</v>
+      </c>
+      <c r="M50" s="8">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>4001002</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>15008016</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="2:25">
+      <c r="B54" s="2">
         <v>3001011</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>1</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K51" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L51" s="8">
-        <v>1</v>
-      </c>
-      <c r="M51" s="8">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>4001001</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24">
-      <c r="B52" s="2">
-        <v>3001012</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8">
-        <v>0</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8">
-        <v>2000</v>
-      </c>
-      <c r="I52" s="8">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
-        <v>18000</v>
-      </c>
-      <c r="K52" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L52" s="8">
-        <v>1</v>
-      </c>
-      <c r="M52" s="8">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>4001006</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24">
-      <c r="B53" s="2">
-        <v>3001013</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>1</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I53" s="8">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K53" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L53" s="8">
-        <v>1</v>
-      </c>
-      <c r="M53" s="8">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>4001007</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24">
-      <c r="B54" s="2">
-        <v>3001014</v>
-      </c>
       <c r="C54" s="8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
@@ -3151,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="8">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="K54" s="8">
         <v>1500</v>
@@ -3163,61 +3150,173 @@
         <v>0</v>
       </c>
       <c r="R54">
+        <v>4001001</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25">
+      <c r="B55" s="2">
+        <v>3001012</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>18000</v>
+      </c>
+      <c r="K55" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L55" s="8">
+        <v>1</v>
+      </c>
+      <c r="M55" s="8">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>4001006</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25">
+      <c r="B56" s="2">
+        <v>3001013</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>1</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K56" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L56" s="8">
+        <v>1</v>
+      </c>
+      <c r="M56" s="8">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>4001007</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25">
+      <c r="B57" s="2">
+        <v>3001014</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="8">
+        <v>1</v>
+      </c>
+      <c r="M57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <v>13001012</v>
       </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
         <v>15008007</v>
       </c>
-    </row>
-    <row r="55" spans="3:13">
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-    </row>
-    <row r="56" spans="3:13">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:13">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
     </row>
     <row r="58" spans="3:13">
       <c r="C58" s="8"/>
@@ -3232,106 +3331,33 @@
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="2:23">
-      <c r="B59" s="2">
-        <v>3002001</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>1</v>
-      </c>
-      <c r="G59" s="8">
-        <v>1</v>
-      </c>
-      <c r="H59" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I59" s="8">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="K59" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L59" s="8">
-        <v>1</v>
-      </c>
-      <c r="M59" s="8">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>4002001</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24">
-      <c r="B60" s="2">
-        <v>3002002</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8">
-        <v>0</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8">
-        <v>500</v>
-      </c>
-      <c r="I60" s="8">
-        <v>0</v>
-      </c>
-      <c r="J60" s="8">
-        <v>7000</v>
-      </c>
-      <c r="K60" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L60" s="8">
-        <v>0</v>
-      </c>
-      <c r="M60" s="8">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>4002002</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>15008003</v>
-      </c>
+    <row r="59" spans="3:13">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:13">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
     </row>
     <row r="61" spans="3:13">
       <c r="C61" s="8"/>
@@ -3346,16 +3372,15 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" customFormat="1" spans="1:24">
-      <c r="A62" s="2"/>
+    <row r="62" spans="2:23">
       <c r="B62" s="2">
-        <v>3002011</v>
+        <v>3002001</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
@@ -3363,7 +3388,9 @@
       <c r="F62" s="8">
         <v>1</v>
       </c>
-      <c r="G62" s="8"/>
+      <c r="G62" s="8">
+        <v>1</v>
+      </c>
       <c r="H62" s="8">
         <v>99999999</v>
       </c>
@@ -3371,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="8">
-        <v>8000</v>
+        <v>99999999</v>
       </c>
       <c r="K62" s="8">
         <v>1500</v>
@@ -3383,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>4002006</v>
+        <v>4002001</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -3394,19 +3421,16 @@
       <c r="W62">
         <v>0</v>
       </c>
-      <c r="X62">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24">
+    </row>
+    <row r="63" spans="2:25">
       <c r="B63" s="2">
-        <v>3002012</v>
+        <v>3002002</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E63" s="9">
         <v>0</v>
@@ -3416,25 +3440,25 @@
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I63" s="8">
         <v>0</v>
       </c>
       <c r="J63" s="8">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="K63" s="8">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L63" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>4002007</v>
+        <v>4002002</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -3445,7 +3469,7 @@
       <c r="W63">
         <v>0</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>15008003</v>
       </c>
     </row>
@@ -3462,15 +3486,16 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="2:23">
+    <row r="65" customFormat="1" spans="1:25">
+      <c r="A65" s="2"/>
       <c r="B65" s="2">
-        <v>3003001</v>
+        <v>3002011</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E65" s="9">
         <v>0</v>
@@ -3478,9 +3503,7 @@
       <c r="F65" s="8">
         <v>1</v>
       </c>
-      <c r="G65" s="8">
-        <v>1</v>
-      </c>
+      <c r="G65" s="8"/>
       <c r="H65" s="8">
         <v>99999999</v>
       </c>
@@ -3488,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="8">
-        <v>99999999</v>
+        <v>8000</v>
       </c>
       <c r="K65" s="8">
         <v>1500</v>
@@ -3500,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <v>4002001</v>
+        <v>4002006</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -3511,16 +3534,19 @@
       <c r="W65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24">
+      <c r="Y65">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25">
       <c r="B66" s="2">
-        <v>3003002</v>
+        <v>3002012</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
@@ -3530,16 +3556,16 @@
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I66" s="8">
         <v>0</v>
       </c>
       <c r="J66" s="8">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="K66" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L66" s="8">
         <v>1</v>
@@ -3548,97 +3574,61 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <v>4002011</v>
+        <v>4002007</v>
       </c>
       <c r="T66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>9999999</v>
-      </c>
-      <c r="X66">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24">
-      <c r="B67" s="2">
-        <v>3003003</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="8">
-        <v>500</v>
-      </c>
-      <c r="I67" s="8">
-        <v>30</v>
-      </c>
-      <c r="J67" s="8">
-        <v>17000</v>
-      </c>
-      <c r="K67" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L67" s="8">
-        <v>1</v>
-      </c>
-      <c r="M67" s="8">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>4002011</v>
-      </c>
-      <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="U67">
-        <v>1</v>
-      </c>
-      <c r="W67">
-        <v>9999999</v>
-      </c>
-      <c r="X67">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24">
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="2:23">
       <c r="B68" s="2">
-        <v>3003004</v>
+        <v>3003001</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="8">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G68" s="8">
+        <v>1</v>
+      </c>
       <c r="H68" s="8">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="I68" s="8">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J68" s="8">
-        <v>17000</v>
+        <v>99999999</v>
       </c>
       <c r="K68" s="8">
         <v>1500</v>
@@ -3647,85 +3637,184 @@
         <v>1</v>
       </c>
       <c r="M68" s="8">
-        <v>1</v>
-      </c>
-      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>4002001</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25">
+      <c r="B69" s="2">
+        <v>3003002</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8">
+        <v>500</v>
+      </c>
+      <c r="I69" s="8">
+        <v>0</v>
+      </c>
+      <c r="J69" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K69" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L69" s="8">
+        <v>1</v>
+      </c>
+      <c r="M69" s="8">
+        <v>1</v>
+      </c>
+      <c r="O69">
         <v>4002011</v>
       </c>
-      <c r="T68">
-        <v>1</v>
-      </c>
-      <c r="U68">
-        <v>1</v>
-      </c>
-      <c r="W68">
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="W69">
         <v>9999999</v>
       </c>
-      <c r="X68">
+      <c r="Y69">
         <v>15008008</v>
       </c>
     </row>
-    <row r="73" customFormat="1" spans="1:23">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2">
-        <v>3061101</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="9">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
-        <v>1</v>
-      </c>
-      <c r="G73" s="8">
-        <v>1</v>
-      </c>
-      <c r="H73" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I73" s="8">
-        <v>0</v>
-      </c>
-      <c r="J73" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="K73" s="8">
+    <row r="70" spans="2:25">
+      <c r="B70" s="2">
+        <v>3003003</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8">
+        <v>500</v>
+      </c>
+      <c r="I70" s="8">
+        <v>30</v>
+      </c>
+      <c r="J70" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K70" s="8">
         <v>1500</v>
       </c>
-      <c r="L73" s="8">
-        <v>1</v>
-      </c>
-      <c r="M73" s="8">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>4002001</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:24">
+      <c r="L70" s="8">
+        <v>1</v>
+      </c>
+      <c r="M70" s="8">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>4002011</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>9999999</v>
+      </c>
+      <c r="Y70">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25">
+      <c r="B71" s="2">
+        <v>3003004</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8">
+        <v>500</v>
+      </c>
+      <c r="I71" s="8">
+        <v>-30</v>
+      </c>
+      <c r="J71" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K71" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L71" s="8">
+        <v>1</v>
+      </c>
+      <c r="M71" s="8">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>4002011</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>9999999</v>
+      </c>
+      <c r="Y71">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:23">
       <c r="A76" s="2"/>
       <c r="B76" s="2">
-        <v>3062101</v>
+        <v>3061101</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
@@ -3733,7 +3822,9 @@
       <c r="F76" s="8">
         <v>1</v>
       </c>
-      <c r="G76" s="8"/>
+      <c r="G76" s="8">
+        <v>1</v>
+      </c>
       <c r="H76" s="8">
         <v>99999999</v>
       </c>
@@ -3741,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="8">
-        <v>8000</v>
+        <v>99999999</v>
       </c>
       <c r="K76" s="8">
         <v>1500</v>
@@ -3753,18 +3844,67 @@
         <v>0</v>
       </c>
       <c r="R76">
+        <v>4002001</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2">
+        <v>3062101</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="9">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I79" s="8">
+        <v>0</v>
+      </c>
+      <c r="J79" s="8">
+        <v>8000</v>
+      </c>
+      <c r="K79" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L79" s="8">
+        <v>1</v>
+      </c>
+      <c r="M79" s="8">
+        <v>0</v>
+      </c>
+      <c r="R79">
         <v>4002006</v>
       </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
         <v>15008007</v>
       </c>
     </row>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="10890"/>
+    <workbookView windowWidth="14940" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
   <si>
     <t>#</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>10000,0</t>
+  </si>
+  <si>
+    <t>道具技能 被攻击时候反射攻击球</t>
   </si>
   <si>
     <t>回旋镖 投掷物 lv1</t>
@@ -1421,14 +1424,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="Q9" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="Q21" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2465,7 +2468,9 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" customFormat="1" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
@@ -2478,271 +2483,144 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" customFormat="1" spans="1:25">
+    <row r="31" customFormat="1" spans="1:13">
       <c r="A31" s="2"/>
-      <c r="B31" s="2">
-        <v>3000101</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:25">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3820101</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8">
         <v>99999999</v>
       </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K31" s="8">
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K32" s="8">
         <v>1500</v>
       </c>
-      <c r="L31" s="8">
-        <v>1</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>4001001</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:25">
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>4820101</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:13">
       <c r="A33" s="2"/>
-      <c r="B33" s="2">
-        <v>3100101</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="8">
-        <v>500</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K33" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L33" s="8">
-        <v>1</v>
-      </c>
-      <c r="M33" s="8">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>4100101</v>
-      </c>
-      <c r="P33">
-        <v>-200</v>
-      </c>
-      <c r="Q33">
-        <v>-600</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:25">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:13">
       <c r="A34" s="2"/>
-      <c r="B34" s="2">
-        <v>3100102</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="8">
-        <v>800</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K34" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L34" s="8">
-        <v>1</v>
-      </c>
-      <c r="M34" s="8">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>4100102</v>
-      </c>
-      <c r="P34">
-        <v>-200</v>
-      </c>
-      <c r="Q34">
-        <v>-600</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2">
-        <v>3100103</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="8">
-        <v>1100</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K35" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L35" s="8">
-        <v>1</v>
-      </c>
-      <c r="M35" s="8">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>4100103</v>
-      </c>
-      <c r="P35">
-        <v>-200</v>
-      </c>
-      <c r="Q35">
-        <v>-600</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>9999999</v>
-      </c>
-      <c r="Y35">
-        <v>15008003</v>
-      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" customFormat="1" spans="1:25">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
-        <v>3100104</v>
+        <v>3000101</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8">
-        <v>1400</v>
+        <v>99999999</v>
       </c>
       <c r="I36" s="8">
         <v>0</v>
       </c>
       <c r="J36" s="8">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K36" s="8">
         <v>1500</v>
@@ -2751,152 +2629,326 @@
         <v>1</v>
       </c>
       <c r="M36" s="8">
-        <v>1</v>
-      </c>
-      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>4001001</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2">
+        <v>3100101</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
+        <v>500</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+      <c r="M38" s="8">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>4100101</v>
+      </c>
+      <c r="P38">
+        <v>-200</v>
+      </c>
+      <c r="Q38">
+        <v>-600</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2">
+        <v>3100102</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
+        <v>800</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="8">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>4100102</v>
+      </c>
+      <c r="P39">
+        <v>-200</v>
+      </c>
+      <c r="Q39">
+        <v>-600</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2">
+        <v>3100103</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8">
+        <v>1100</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L40" s="8">
+        <v>1</v>
+      </c>
+      <c r="M40" s="8">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>4100103</v>
+      </c>
+      <c r="P40">
+        <v>-200</v>
+      </c>
+      <c r="Q40">
+        <v>-600</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>9999999</v>
+      </c>
+      <c r="Y40">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2">
+        <v>3100104</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8">
+        <v>1400</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="M41" s="8">
+        <v>1</v>
+      </c>
+      <c r="O41">
         <v>4100104</v>
       </c>
-      <c r="P36">
+      <c r="P41">
         <v>-200</v>
       </c>
-      <c r="Q36">
+      <c r="Q41">
         <v>-600</v>
       </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="W36">
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="W41">
         <v>9999999</v>
       </c>
-      <c r="Y36">
+      <c r="Y41">
         <v>15008003</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2">
+    <row r="42" customFormat="1" spans="1:25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2">
         <v>3100105</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8">
+      <c r="C42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8">
         <v>1700</v>
       </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
         <v>10000</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K42" s="8">
         <v>1500</v>
       </c>
-      <c r="L37" s="8">
-        <v>1</v>
-      </c>
-      <c r="M37" s="8">
-        <v>1</v>
-      </c>
-      <c r="O37">
+      <c r="L42" s="8">
+        <v>1</v>
+      </c>
+      <c r="M42" s="8">
+        <v>1</v>
+      </c>
+      <c r="O42">
         <v>4100105</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="W37">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="W42">
         <v>9999999</v>
       </c>
-      <c r="Y37">
+      <c r="Y42">
         <v>15008003</v>
       </c>
-    </row>
-    <row r="38" spans="3:13">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="3:13">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="3:13">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="3:13">
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="3:13">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
     </row>
     <row r="43" spans="3:13">
       <c r="C43" s="8"/>
@@ -2976,110 +3028,36 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="2:23">
-      <c r="B49" s="2">
-        <v>3001001</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="9">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>1</v>
-      </c>
-      <c r="G49" s="8">
-        <v>1</v>
-      </c>
-      <c r="H49" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I49" s="8">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="K49" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L49" s="8">
-        <v>1</v>
-      </c>
-      <c r="M49" s="8">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>4001001</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:25">
-      <c r="B50" s="2">
-        <v>3001002</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
+    <row r="49" spans="3:13">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="8">
-        <v>500</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <v>7000</v>
-      </c>
-      <c r="K50" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L50" s="8">
-        <v>1</v>
-      </c>
-      <c r="M50" s="8">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>4001002</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>15008016</v>
-      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -3092,6 +3070,7 @@
     <row r="52" spans="3:13">
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -3114,15 +3093,15 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="2:25">
+    <row r="54" spans="2:23">
       <c r="B54" s="2">
-        <v>3001011</v>
+        <v>3001001</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
@@ -3130,7 +3109,9 @@
       <c r="F54" s="8">
         <v>1</v>
       </c>
-      <c r="G54" s="8"/>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
       <c r="H54" s="8">
         <v>99999999</v>
       </c>
@@ -3138,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="8">
-        <v>15000</v>
+        <v>99999999</v>
       </c>
       <c r="K54" s="8">
         <v>1500</v>
@@ -3161,19 +3142,16 @@
       <c r="W54">
         <v>0</v>
       </c>
-      <c r="Y54">
-        <v>15008007</v>
-      </c>
     </row>
     <row r="55" spans="2:25">
       <c r="B55" s="2">
-        <v>3001012</v>
+        <v>3001002</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
@@ -3183,13 +3161,13 @@
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I55" s="8">
         <v>0</v>
       </c>
       <c r="J55" s="8">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="K55" s="8">
         <v>1500</v>
@@ -3201,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="O55">
-        <v>4001006</v>
+        <v>4001002</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -3213,110 +3191,32 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="56" spans="2:25">
-      <c r="B56" s="2">
-        <v>3001013</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>1</v>
-      </c>
+        <v>15008016</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0</v>
-      </c>
-      <c r="J56" s="8">
-        <v>15000</v>
-      </c>
-      <c r="K56" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L56" s="8">
-        <v>1</v>
-      </c>
-      <c r="M56" s="8">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>4001007</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="57" spans="2:25">
-      <c r="B57" s="2">
-        <v>3001014</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8">
-        <v>1</v>
-      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
-        <v>5000</v>
-      </c>
-      <c r="K57" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L57" s="8">
-        <v>1</v>
-      </c>
-      <c r="M57" s="8">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>13001012</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>15008007</v>
-      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
     </row>
     <row r="58" spans="3:13">
       <c r="C58" s="8"/>
@@ -3331,56 +3231,168 @@
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="3:13">
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="8"/>
+    <row r="59" spans="2:25">
+      <c r="B59" s="2">
+        <v>3001011</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1</v>
+      </c>
       <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:13">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-    </row>
-    <row r="61" spans="3:13">
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="8"/>
+      <c r="H59" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K59" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L59" s="8">
+        <v>1</v>
+      </c>
+      <c r="M59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>4001001</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25">
+      <c r="B60" s="2">
+        <v>3001012</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0</v>
+      </c>
+      <c r="J60" s="8">
+        <v>18000</v>
+      </c>
+      <c r="K60" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="8">
+        <v>1</v>
+      </c>
+      <c r="M60" s="8">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>4001006</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25">
+      <c r="B61" s="2">
+        <v>3001013</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1</v>
+      </c>
       <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-    </row>
-    <row r="62" spans="2:23">
+      <c r="H61" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K61" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L61" s="8">
+        <v>1</v>
+      </c>
+      <c r="M61" s="8">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>4001007</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25">
       <c r="B62" s="2">
-        <v>3002001</v>
+        <v>3001014</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
@@ -3388,9 +3400,7 @@
       <c r="F62" s="8">
         <v>1</v>
       </c>
-      <c r="G62" s="8">
-        <v>1</v>
-      </c>
+      <c r="G62" s="8"/>
       <c r="H62" s="8">
         <v>99999999</v>
       </c>
@@ -3398,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="8">
-        <v>99999999</v>
+        <v>5000</v>
       </c>
       <c r="K62" s="8">
         <v>1500</v>
@@ -3410,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>4002001</v>
+        <v>13001012</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -3421,57 +3431,22 @@
       <c r="W62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:25">
-      <c r="B63" s="2">
-        <v>3002002</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="8">
-        <v>0</v>
-      </c>
+      <c r="Y62">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="8">
-        <v>500</v>
-      </c>
-      <c r="I63" s="8">
-        <v>0</v>
-      </c>
-      <c r="J63" s="8">
-        <v>7000</v>
-      </c>
-      <c r="K63" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L63" s="8">
-        <v>0</v>
-      </c>
-      <c r="M63" s="8">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>4002002</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>15008003</v>
-      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
     </row>
     <row r="64" spans="3:13">
       <c r="C64" s="8"/>
@@ -3486,161 +3461,121 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" customFormat="1" spans="1:25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2">
-        <v>3002011</v>
-      </c>
-      <c r="C65" s="8" t="s">
+    <row r="65" s="1" customFormat="1" spans="1:13">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="2:23">
+      <c r="B67" s="2">
+        <v>3002001</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1</v>
+      </c>
+      <c r="G67" s="8">
+        <v>1</v>
+      </c>
+      <c r="H67" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0</v>
+      </c>
+      <c r="J67" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K67" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L67" s="8">
+        <v>1</v>
+      </c>
+      <c r="M67" s="8">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>4002001</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25">
+      <c r="B68" s="2">
+        <v>3002002</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D68" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
-        <v>1</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="I65" s="8">
-        <v>0</v>
-      </c>
-      <c r="J65" s="8">
-        <v>8000</v>
-      </c>
-      <c r="K65" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L65" s="8">
-        <v>1</v>
-      </c>
-      <c r="M65" s="8">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>4002006</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="66" spans="2:25">
-      <c r="B66" s="2">
-        <v>3002012</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="8">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I66" s="8">
-        <v>0</v>
-      </c>
-      <c r="J66" s="8">
-        <v>12000</v>
-      </c>
-      <c r="K66" s="8">
-        <v>1000</v>
-      </c>
-      <c r="L66" s="8">
-        <v>1</v>
-      </c>
-      <c r="M66" s="8">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>4002007</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="67" spans="3:13">
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-    </row>
-    <row r="68" spans="2:23">
-      <c r="B68" s="2">
-        <v>3003001</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="8">
-        <v>1</v>
-      </c>
-      <c r="G68" s="8">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G68" s="8"/>
       <c r="H68" s="8">
-        <v>99999999</v>
+        <v>500</v>
       </c>
       <c r="I68" s="8">
         <v>0</v>
       </c>
       <c r="J68" s="8">
-        <v>99999999</v>
+        <v>7000</v>
       </c>
       <c r="K68" s="8">
         <v>1500</v>
       </c>
       <c r="L68" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="8">
         <v>0</v>
       </c>
-      <c r="R68">
-        <v>4002001</v>
+      <c r="O68">
+        <v>4002002</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -3651,83 +3586,49 @@
       <c r="W68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25">
-      <c r="B69" s="2">
-        <v>3003002</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" s="9">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8">
-        <v>0</v>
-      </c>
+      <c r="Y68">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="8">
-        <v>500</v>
-      </c>
-      <c r="I69" s="8">
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
-        <v>17000</v>
-      </c>
-      <c r="K69" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L69" s="8">
-        <v>1</v>
-      </c>
-      <c r="M69" s="8">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>4002011</v>
-      </c>
-      <c r="T69">
-        <v>1</v>
-      </c>
-      <c r="U69">
-        <v>1</v>
-      </c>
-      <c r="W69">
-        <v>9999999</v>
-      </c>
-      <c r="Y69">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="70" spans="2:25">
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+    </row>
+    <row r="70" customFormat="1" spans="1:25">
+      <c r="A70" s="2"/>
       <c r="B70" s="2">
-        <v>3003003</v>
+        <v>3002011</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="I70" s="8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J70" s="8">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="K70" s="8">
         <v>1500</v>
@@ -3736,33 +3637,33 @@
         <v>1</v>
       </c>
       <c r="M70" s="8">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>4002011</v>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>4002006</v>
       </c>
       <c r="T70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>15008008</v>
+        <v>15008007</v>
       </c>
     </row>
     <row r="71" spans="2:25">
       <c r="B71" s="2">
-        <v>3003004</v>
+        <v>3002012</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E71" s="9">
         <v>0</v>
@@ -3772,67 +3673,229 @@
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
+        <v>12000</v>
+      </c>
+      <c r="K71" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L71" s="8">
+        <v>1</v>
+      </c>
+      <c r="M71" s="8">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>4002007</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+    </row>
+    <row r="73" spans="2:23">
+      <c r="B73" s="2">
+        <v>3003001</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1</v>
+      </c>
+      <c r="G73" s="8">
+        <v>1</v>
+      </c>
+      <c r="H73" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I73" s="8">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K73" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L73" s="8">
+        <v>1</v>
+      </c>
+      <c r="M73" s="8">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>4002001</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25">
+      <c r="B74" s="2">
+        <v>3003002</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8">
         <v>500</v>
       </c>
-      <c r="I71" s="8">
-        <v>-30</v>
-      </c>
-      <c r="J71" s="8">
+      <c r="I74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" s="8">
         <v>17000</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K74" s="8">
         <v>1500</v>
       </c>
-      <c r="L71" s="8">
-        <v>1</v>
-      </c>
-      <c r="M71" s="8">
-        <v>1</v>
-      </c>
-      <c r="O71">
+      <c r="L74" s="8">
+        <v>1</v>
+      </c>
+      <c r="M74" s="8">
+        <v>1</v>
+      </c>
+      <c r="O74">
         <v>4002011</v>
       </c>
-      <c r="T71">
-        <v>1</v>
-      </c>
-      <c r="U71">
-        <v>1</v>
-      </c>
-      <c r="W71">
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="W74">
         <v>9999999</v>
       </c>
-      <c r="Y71">
+      <c r="Y74">
         <v>15008008</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="1:23">
-      <c r="A76" s="2"/>
+    <row r="75" spans="2:25">
+      <c r="B75" s="2">
+        <v>3003003</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8">
+        <v>500</v>
+      </c>
+      <c r="I75" s="8">
+        <v>30</v>
+      </c>
+      <c r="J75" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K75" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L75" s="8">
+        <v>1</v>
+      </c>
+      <c r="M75" s="8">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>4002011</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>9999999</v>
+      </c>
+      <c r="Y75">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25">
       <c r="B76" s="2">
-        <v>3061101</v>
+        <v>3003004</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="8">
-        <v>1</v>
-      </c>
-      <c r="G76" s="8">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G76" s="8"/>
       <c r="H76" s="8">
-        <v>99999999</v>
+        <v>500</v>
       </c>
       <c r="I76" s="8">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="J76" s="8">
-        <v>99999999</v>
+        <v>17000</v>
       </c>
       <c r="K76" s="8">
         <v>1500</v>
@@ -3841,70 +3904,124 @@
         <v>1</v>
       </c>
       <c r="M76" s="8">
-        <v>0</v>
-      </c>
-      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>4002011</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>9999999</v>
+      </c>
+      <c r="Y76">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:23">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2">
+        <v>3061101</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="9">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1</v>
+      </c>
+      <c r="G81" s="8">
+        <v>1</v>
+      </c>
+      <c r="H81" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="I81" s="8">
+        <v>0</v>
+      </c>
+      <c r="J81" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="K81" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L81" s="8">
+        <v>1</v>
+      </c>
+      <c r="M81" s="8">
+        <v>0</v>
+      </c>
+      <c r="R81">
         <v>4002001</v>
       </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2">
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2">
         <v>3062101</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" s="9">
-        <v>0</v>
-      </c>
-      <c r="F79" s="8">
-        <v>1</v>
-      </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8">
+      <c r="C84" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" s="9">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>1</v>
+      </c>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8">
         <v>99999999</v>
       </c>
-      <c r="I79" s="8">
-        <v>0</v>
-      </c>
-      <c r="J79" s="8">
+      <c r="I84" s="8">
+        <v>0</v>
+      </c>
+      <c r="J84" s="8">
         <v>8000</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K84" s="8">
         <v>1500</v>
       </c>
-      <c r="L79" s="8">
-        <v>1</v>
-      </c>
-      <c r="M79" s="8">
-        <v>0</v>
-      </c>
-      <c r="R79">
+      <c r="L84" s="8">
+        <v>1</v>
+      </c>
+      <c r="M84" s="8">
+        <v>0</v>
+      </c>
+      <c r="R84">
         <v>4002006</v>
       </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
         <v>15008007</v>
       </c>
     </row>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="10890"/>
+    <workbookView windowWidth="17280" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1427,11 +1427,11 @@
   <dimension ref="A1:Y84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="Q21" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="L3" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19305" windowHeight="11430"/>
+    <workbookView windowWidth="28800" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -149,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -308,6 +295,12 @@
   </si>
   <si>
     <t>效果资源id</t>
+  </si>
+  <si>
+    <t>隐墨普通攻击投掷物</t>
+  </si>
+  <si>
+    <t>隐墨技能1投掷物</t>
   </si>
   <si>
     <t>唐依 普通攻击投掷物</t>
@@ -421,7 +414,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1428,17 +1421,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="F3" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="N1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20:J22"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
@@ -1459,7 +1452,7 @@
     <col min="25" max="25" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:25">
+    <row r="1" ht="34" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1706,12 +1699,12 @@
       <c r="M4" s="6"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" customFormat="1" spans="1:25">
+    <row r="5" customFormat="1" spans="1:23">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>3003101</v>
+        <v>3001101</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>53</v>
@@ -1722,7 +1715,9 @@
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6">
         <v>99999999</v>
@@ -1731,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>15000</v>
+        <v>99999999</v>
       </c>
       <c r="K5" s="6">
         <v>1500</v>
@@ -1743,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>4003101</v>
+        <v>4001101</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5">
@@ -1755,16 +1750,13 @@
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="Y5">
-        <v>15008007</v>
-      </c>
     </row>
     <row r="6" customFormat="1" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>3003201</v>
+        <v>3001201</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>54</v>
@@ -1778,13 +1770,13 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
       </c>
       <c r="J6" s="6">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="K6" s="6">
         <v>1500</v>
@@ -1796,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>4003201</v>
+        <v>4001201</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6">
@@ -1809,61 +1801,24 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3003301</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
+        <v>15008016</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:19">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>15000</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>4003301</v>
-      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>15008007</v>
-      </c>
     </row>
     <row r="8" customFormat="1" spans="1:19">
       <c r="A8" s="2"/>
@@ -1897,100 +1852,101 @@
       <c r="M9" s="6"/>
       <c r="S9" s="6"/>
     </row>
-    <row r="10" customFormat="1" spans="1:23">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3004101</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
+    <row r="10" customFormat="1" spans="1:19">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>4101101</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:19">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3003101</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="H11" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>15000</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>4003101</v>
+      </c>
       <c r="S11" s="6"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="12" customFormat="1" spans="1:25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2">
-        <v>3005101</v>
+        <v>3003201</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <v>99999999</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
       </c>
       <c r="J12" s="6">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="K12" s="6">
         <v>1500</v>
@@ -1999,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>4005101</v>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>4003201</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12">
@@ -2015,24 +1971,61 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:19">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3003301</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="H13" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>15000</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>4003301</v>
+      </c>
       <c r="S13" s="6"/>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="14" customFormat="1" spans="1:19">
       <c r="A14" s="2"/>
@@ -2050,73 +2043,73 @@
       <c r="M14" s="6"/>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" customFormat="1" spans="1:23">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3006101</v>
-      </c>
-      <c r="C15" s="6" t="s">
+    <row r="15" customFormat="1" spans="1:19">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:23">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3004101</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>99999999</v>
       </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <v>99999999</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K16" s="6">
         <v>1500</v>
       </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>4006101</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:19">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>4101101</v>
+      </c>
       <c r="S16" s="6"/>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="1" spans="1:19">
       <c r="A17" s="2"/>
@@ -2134,161 +2127,119 @@
       <c r="M17" s="6"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" customFormat="1" spans="1:19">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+    <row r="18" customFormat="1" spans="1:25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3005101</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="H18" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>15000</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>4005101</v>
+      </c>
       <c r="S18" s="6"/>
-    </row>
-    <row r="19" customFormat="1" spans="1:23">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3101101</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:19">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:23">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3006101</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
+      <c r="D21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>99999999</v>
       </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>99999999</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>4101101</v>
-      </c>
-      <c r="S19" s="6"/>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:25">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3102101</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1500</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>15000</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>4103101</v>
-      </c>
-      <c r="S20" s="6"/>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:25">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3102201</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1500</v>
-      </c>
-      <c r="I21" s="6">
-        <v>-30</v>
-      </c>
-      <c r="J21" s="6">
-        <v>15000</v>
       </c>
       <c r="K21" s="6">
         <v>1500</v>
@@ -2297,10 +2248,10 @@
         <v>1</v>
       </c>
       <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>4103101</v>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>4006101</v>
       </c>
       <c r="S21" s="6"/>
       <c r="T21">
@@ -2312,66 +2263,22 @@
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="Y21">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:25">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3102301</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1500</v>
-      </c>
-      <c r="I22" s="6">
-        <v>30</v>
-      </c>
-      <c r="J22" s="6">
-        <v>15000</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>4103101</v>
-      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:19">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="23" customFormat="1" spans="1:19">
       <c r="A23" s="2"/>
@@ -2405,66 +2312,145 @@
       <c r="M24" s="6"/>
       <c r="S24" s="6"/>
     </row>
-    <row r="25" customFormat="1" spans="1:19">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+    <row r="25" customFormat="1" spans="1:23">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3101101</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="H25" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>4101101</v>
+      </c>
       <c r="S25" s="6"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:19">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:25">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3102101</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>15000</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>4103101</v>
+      </c>
       <c r="S26" s="6"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:23">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:25">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2">
-        <v>3501101</v>
+        <v>3102201</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
       <c r="H27" s="6">
-        <v>99999999</v>
+        <v>1500</v>
       </c>
       <c r="I27" s="6">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="J27" s="6">
-        <v>99999999</v>
+        <v>15000</v>
       </c>
       <c r="K27" s="6">
         <v>1500</v>
@@ -2473,10 +2459,10 @@
         <v>1</v>
       </c>
       <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>4501101</v>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>4103101</v>
       </c>
       <c r="S27" s="6"/>
       <c r="T27">
@@ -2488,35 +2474,40 @@
       <c r="W27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:23">
+      <c r="Y27">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:25">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="2">
-        <v>3502101</v>
+        <v>3102301</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
       <c r="H28" s="6">
-        <v>99999999</v>
+        <v>1500</v>
       </c>
       <c r="I28" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J28" s="6">
-        <v>99999999</v>
+        <v>15000</v>
       </c>
       <c r="K28" s="6">
         <v>1500</v>
@@ -2525,11 +2516,12 @@
         <v>1</v>
       </c>
       <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>4502101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>4103101</v>
+      </c>
+      <c r="S28" s="6"/>
       <c r="T28">
         <v>0</v>
       </c>
@@ -2538,6 +2530,9 @@
       </c>
       <c r="W28">
         <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>15008003</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:19">
@@ -2588,96 +2583,124 @@
       <c r="M31" s="6"/>
       <c r="S31" s="6"/>
     </row>
-    <row r="32" customFormat="1" spans="1:25">
-      <c r="A32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3801101</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
+    <row r="32" customFormat="1" spans="1:19">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:23">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3501101</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6">
         <v>99999999</v>
       </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K32" s="6">
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="K33" s="6">
         <v>1500</v>
       </c>
-      <c r="L32" s="6">
-        <v>1</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>4801101</v>
-      </c>
-      <c r="S32" s="6"/>
-      <c r="T32">
-        <v>5</v>
-      </c>
-      <c r="U32">
-        <v>4</v>
-      </c>
-      <c r="V32" t="s">
-        <v>67</v>
-      </c>
-      <c r="W32">
-        <v>9999999</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:19">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="L33" s="6">
+        <v>1</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>4501101</v>
+      </c>
       <c r="S33" s="6"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:19">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:23">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3502101</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="S34" s="6"/>
+      <c r="H34" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>4502101</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="1" spans="1:19">
       <c r="A35" s="2"/>
@@ -2711,74 +2734,80 @@
       <c r="M36" s="6"/>
       <c r="S36" s="6"/>
     </row>
-    <row r="37" customFormat="1" spans="1:25">
-      <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2">
-        <v>3820101</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
+    <row r="37" customFormat="1" spans="1:19">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K37" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L37" s="6">
-        <v>1</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>4820101</v>
-      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:19">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:25">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3801101</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="H38" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L38" s="6">
+        <v>1</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>4801101</v>
+      </c>
       <c r="S38" s="6"/>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="V38" t="s">
+        <v>69</v>
+      </c>
+      <c r="W38">
+        <v>9999999</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="39" customFormat="1" spans="1:19">
       <c r="A39" s="2"/>
@@ -2796,7 +2825,9 @@
       <c r="M39" s="6"/>
       <c r="S39" s="6"/>
     </row>
-    <row r="40" spans="3:19">
+    <row r="40" customFormat="1" spans="1:19">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2810,58 +2841,25 @@
       <c r="M40" s="6"/>
       <c r="S40" s="6"/>
     </row>
-    <row r="41" customFormat="1" spans="1:25">
+    <row r="41" customFormat="1" spans="1:19">
       <c r="A41" s="2"/>
-      <c r="B41" s="2">
-        <v>3000101</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>15000</v>
-      </c>
-      <c r="K41" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L41" s="6">
-        <v>1</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>4001001</v>
-      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="42" spans="3:19">
+    </row>
+    <row r="42" customFormat="1" spans="1:19">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2876,29 +2874,31 @@
       <c r="S42" s="6"/>
     </row>
     <row r="43" customFormat="1" spans="1:25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B43" s="2">
-        <v>3100101</v>
+        <v>3820101</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="I43" s="6">
         <v>0</v>
       </c>
       <c r="J43" s="6">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K43" s="6">
         <v>1500</v>
@@ -2907,16 +2907,10 @@
         <v>1</v>
       </c>
       <c r="M43" s="6">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>4100101</v>
-      </c>
-      <c r="P43">
-        <v>-200</v>
-      </c>
-      <c r="Q43">
-        <v>-600</v>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>4820101</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43">
@@ -2925,208 +2919,80 @@
       <c r="U43">
         <v>0</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
       <c r="Y43">
         <v>15008003</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="1:25">
+    <row r="44" customFormat="1" spans="1:19">
       <c r="A44" s="2"/>
-      <c r="B44" s="2">
-        <v>3100102</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="6">
-        <v>800</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K44" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L44" s="6">
-        <v>1</v>
-      </c>
-      <c r="M44" s="6">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>4100102</v>
-      </c>
-      <c r="P44">
-        <v>-200</v>
-      </c>
-      <c r="Q44">
-        <v>-600</v>
-      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:25">
+    </row>
+    <row r="45" customFormat="1" spans="1:19">
       <c r="A45" s="2"/>
-      <c r="B45" s="2">
-        <v>3100103</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="6">
-        <v>1100</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K45" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L45" s="6">
-        <v>1</v>
-      </c>
-      <c r="M45" s="6">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>4100103</v>
-      </c>
-      <c r="P45">
-        <v>-200</v>
-      </c>
-      <c r="Q45">
-        <v>-600</v>
-      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>9999999</v>
-      </c>
-      <c r="Y45">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2">
-        <v>3100104</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="46" spans="3:19">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6">
-        <v>1400</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K46" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L46" s="6">
-        <v>1</v>
-      </c>
-      <c r="M46" s="6">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>4100104</v>
-      </c>
-      <c r="P46">
-        <v>-200</v>
-      </c>
-      <c r="Q46">
-        <v>-600</v>
-      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>9999999</v>
-      </c>
-      <c r="Y46">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="47" customFormat="1" spans="1:25">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
-        <v>3100105</v>
+        <v>3000101</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E47" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6">
-        <v>1700</v>
+        <v>99999999</v>
       </c>
       <c r="I47" s="6">
         <v>0</v>
       </c>
       <c r="J47" s="6">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K47" s="6">
         <v>1500</v>
@@ -3135,29 +3001,23 @@
         <v>1</v>
       </c>
       <c r="M47" s="6">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>4100105</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>4001001</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>15008003</v>
+        <v>15008007</v>
       </c>
     </row>
     <row r="48" spans="3:19">
@@ -3174,75 +3034,290 @@
       <c r="M48" s="6"/>
       <c r="S48" s="6"/>
     </row>
-    <row r="49" spans="3:19">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+    <row r="49" customFormat="1" spans="1:25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2">
+        <v>3100101</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="H49" s="6">
+        <v>500</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1</v>
+      </c>
+      <c r="M49" s="6">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>4100101</v>
+      </c>
+      <c r="P49">
+        <v>-200</v>
+      </c>
+      <c r="Q49">
+        <v>-600</v>
+      </c>
       <c r="S49" s="6"/>
-    </row>
-    <row r="50" spans="3:19">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2">
+        <v>3100102</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
+      <c r="H50" s="6">
+        <v>800</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
+      <c r="M50" s="6">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>4100102</v>
+      </c>
+      <c r="P50">
+        <v>-200</v>
+      </c>
+      <c r="Q50">
+        <v>-600</v>
+      </c>
       <c r="S50" s="6"/>
-    </row>
-    <row r="51" spans="3:19">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2">
+        <v>3100103</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
+      <c r="H51" s="6">
+        <v>1100</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L51" s="6">
+        <v>1</v>
+      </c>
+      <c r="M51" s="6">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>4100103</v>
+      </c>
+      <c r="P51">
+        <v>-200</v>
+      </c>
+      <c r="Q51">
+        <v>-600</v>
+      </c>
       <c r="S51" s="6"/>
-    </row>
-    <row r="52" spans="3:19">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>9999999</v>
+      </c>
+      <c r="Y51">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2">
+        <v>3100104</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
+      <c r="H52" s="6">
+        <v>1400</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L52" s="6">
+        <v>1</v>
+      </c>
+      <c r="M52" s="6">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>4100104</v>
+      </c>
+      <c r="P52">
+        <v>-200</v>
+      </c>
+      <c r="Q52">
+        <v>-600</v>
+      </c>
       <c r="S52" s="6"/>
-    </row>
-    <row r="53" spans="3:19">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>9999999</v>
+      </c>
+      <c r="Y52">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2">
+        <v>3100105</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
+      <c r="H53" s="6">
+        <v>1700</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L53" s="6">
+        <v>1</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>4100105</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
       <c r="S53" s="6"/>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>9999999</v>
+      </c>
+      <c r="Y53">
+        <v>15008003</v>
+      </c>
     </row>
     <row r="54" spans="3:19">
       <c r="C54" s="6"/>
@@ -3314,104 +3389,33 @@
       <c r="M58" s="6"/>
       <c r="S58" s="6"/>
     </row>
-    <row r="59" spans="2:23">
-      <c r="B59" s="2">
-        <v>3001001</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6">
-        <v>1</v>
-      </c>
+    <row r="59" spans="3:19">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I59" s="6">
-        <v>0</v>
-      </c>
-      <c r="J59" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="K59" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L59" s="6">
-        <v>1</v>
-      </c>
-      <c r="M59" s="6">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>4001001</v>
-      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
       <c r="S59" s="6"/>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:25">
-      <c r="B60" s="2">
-        <v>3001002</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="60" spans="3:19">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6">
-        <v>500</v>
-      </c>
-      <c r="I60" s="6">
-        <v>0</v>
-      </c>
-      <c r="J60" s="6">
-        <v>7000</v>
-      </c>
-      <c r="K60" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L60" s="6">
-        <v>1</v>
-      </c>
-      <c r="M60" s="6">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>4001002</v>
-      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
       <c r="S60" s="6"/>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>15008016</v>
-      </c>
     </row>
     <row r="61" spans="3:19">
       <c r="C61" s="6"/>
@@ -3455,79 +3459,45 @@
       <c r="M63" s="6"/>
       <c r="S63" s="6"/>
     </row>
-    <row r="64" spans="2:25">
-      <c r="B64" s="2">
-        <v>3001011</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="6">
-        <v>1</v>
-      </c>
+    <row r="64" spans="3:19">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I64" s="6">
-        <v>0</v>
-      </c>
-      <c r="J64" s="6">
-        <v>15000</v>
-      </c>
-      <c r="K64" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L64" s="6">
-        <v>1</v>
-      </c>
-      <c r="M64" s="6">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>4001001</v>
-      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
       <c r="S64" s="6"/>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="65" spans="2:25">
+    </row>
+    <row r="65" spans="2:23">
       <c r="B65" s="2">
-        <v>3001012</v>
+        <v>3001001</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6">
-        <v>2000</v>
+        <v>99999999</v>
       </c>
       <c r="I65" s="6">
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>18000</v>
+        <v>99999999</v>
       </c>
       <c r="K65" s="6">
         <v>1500</v>
@@ -3536,10 +3506,10 @@
         <v>1</v>
       </c>
       <c r="M65" s="6">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>4001006</v>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>4001001</v>
       </c>
       <c r="S65" s="6"/>
       <c r="T65">
@@ -3551,33 +3521,30 @@
       <c r="W65">
         <v>0</v>
       </c>
-      <c r="Y65">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="66" spans="2:25">
       <c r="B66" s="2">
-        <v>3001013</v>
+        <v>3001002</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E66" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6">
-        <v>99999999</v>
+        <v>500</v>
       </c>
       <c r="I66" s="6">
         <v>0</v>
       </c>
       <c r="J66" s="6">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="K66" s="6">
         <v>1500</v>
@@ -3586,10 +3553,10 @@
         <v>1</v>
       </c>
       <c r="M66" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>4001007</v>
+        <v>4001002</v>
       </c>
       <c r="S66" s="6"/>
       <c r="T66">
@@ -3602,58 +3569,22 @@
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25">
-      <c r="B67" s="2">
-        <v>3001014</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="6">
-        <v>1</v>
-      </c>
+        <v>15008016</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I67" s="6">
-        <v>0</v>
-      </c>
-      <c r="J67" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K67" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L67" s="6">
-        <v>1</v>
-      </c>
-      <c r="M67" s="6">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>13001012</v>
-      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
       <c r="S67" s="6"/>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>15008007</v>
-      </c>
     </row>
     <row r="68" spans="3:19">
       <c r="C68" s="6"/>
@@ -3683,51 +3614,120 @@
       <c r="M69" s="6"/>
       <c r="S69" s="6"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="1:19">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
+    <row r="70" spans="2:25">
+      <c r="B70" s="2">
+        <v>3001011</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>15000</v>
+      </c>
+      <c r="K70" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L70" s="6">
+        <v>1</v>
+      </c>
+      <c r="M70" s="6">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>4001001</v>
+      </c>
       <c r="S70" s="6"/>
-    </row>
-    <row r="71" spans="3:13">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25">
+      <c r="B71" s="2">
+        <v>3001012</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-    </row>
-    <row r="72" spans="2:23">
+      <c r="H71" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>18000</v>
+      </c>
+      <c r="K71" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L71" s="6">
+        <v>1</v>
+      </c>
+      <c r="M71" s="6">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>4001006</v>
+      </c>
+      <c r="S71" s="6"/>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25">
       <c r="B72" s="2">
-        <v>3002001</v>
+        <v>3001013</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E72" s="6">
         <v>1</v>
       </c>
-      <c r="F72" s="6">
-        <v>1</v>
-      </c>
+      <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6">
         <v>99999999</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="6">
-        <v>99999999</v>
+        <v>15000</v>
       </c>
       <c r="K72" s="6">
         <v>1500</v>
@@ -3747,9 +3747,10 @@
       <c r="M72" s="6">
         <v>0</v>
       </c>
-      <c r="R72">
-        <v>4002001</v>
-      </c>
+      <c r="O72">
+        <v>4001007</v>
+      </c>
+      <c r="S72" s="6"/>
       <c r="T72">
         <v>0</v>
       </c>
@@ -3758,44 +3759,48 @@
       </c>
       <c r="W72">
         <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>15008007</v>
       </c>
     </row>
     <row r="73" spans="2:25">
       <c r="B73" s="2">
-        <v>3002002</v>
+        <v>3001014</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E73" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="I73" s="6">
         <v>0</v>
       </c>
       <c r="J73" s="6">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="K73" s="6">
         <v>1500</v>
       </c>
       <c r="L73" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="6">
         <v>0</v>
       </c>
-      <c r="O73">
-        <v>4002002</v>
-      </c>
+      <c r="R73">
+        <v>13001012</v>
+      </c>
+      <c r="S73" s="6"/>
       <c r="T73">
         <v>0</v>
       </c>
@@ -3806,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>15008003</v>
+        <v>15008007</v>
       </c>
     </row>
     <row r="74" spans="3:19">
@@ -3823,104 +3828,35 @@
       <c r="M74" s="6"/>
       <c r="S74" s="6"/>
     </row>
-    <row r="75" customFormat="1" spans="1:25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2">
-        <v>3002011</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="6">
-        <v>1</v>
-      </c>
+    <row r="75" spans="3:19">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I75" s="6">
-        <v>0</v>
-      </c>
-      <c r="J75" s="6">
-        <v>8000</v>
-      </c>
-      <c r="K75" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L75" s="6">
-        <v>1</v>
-      </c>
-      <c r="M75" s="6">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>4002006</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="76" spans="2:25">
-      <c r="B76" s="2">
-        <v>3002012</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E76" s="6">
-        <v>0</v>
-      </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I76" s="6">
-        <v>0</v>
-      </c>
-      <c r="J76" s="6">
-        <v>12000</v>
-      </c>
-      <c r="K76" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L76" s="6">
-        <v>1</v>
-      </c>
-      <c r="M76" s="6">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>4002007</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>15008003</v>
-      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="S75" s="6"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:19">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="S76" s="6"/>
     </row>
     <row r="77" spans="3:13">
       <c r="C77" s="6"/>
@@ -3937,13 +3873,13 @@
     </row>
     <row r="78" spans="2:23">
       <c r="B78" s="2">
-        <v>3003001</v>
+        <v>3002001</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
@@ -3985,13 +3921,13 @@
     </row>
     <row r="79" spans="2:25">
       <c r="B79" s="2">
-        <v>3003002</v>
+        <v>3002002</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
@@ -4005,105 +3941,71 @@
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="K79" s="6">
         <v>1500</v>
       </c>
       <c r="L79" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79">
-        <v>4002011</v>
+        <v>4002002</v>
       </c>
       <c r="T79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y79">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="80" spans="2:25">
-      <c r="B80" s="2">
-        <v>3003003</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E80" s="6">
-        <v>0</v>
-      </c>
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="80" spans="3:19">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6">
-        <v>500</v>
-      </c>
-      <c r="I80" s="6">
-        <v>30</v>
-      </c>
-      <c r="J80" s="6">
-        <v>17000</v>
-      </c>
-      <c r="K80" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L80" s="6">
-        <v>1</v>
-      </c>
-      <c r="M80" s="6">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>4002011</v>
-      </c>
-      <c r="T80">
-        <v>1</v>
-      </c>
-      <c r="U80">
-        <v>1</v>
-      </c>
-      <c r="W80">
-        <v>9999999</v>
-      </c>
-      <c r="Y80">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="81" spans="2:25">
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" customFormat="1" spans="1:25">
+      <c r="A81" s="2"/>
       <c r="B81" s="2">
-        <v>3003004</v>
+        <v>3002011</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E81" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="I81" s="6">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J81" s="6">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="K81" s="6">
         <v>1500</v>
@@ -4112,50 +4014,206 @@
         <v>1</v>
       </c>
       <c r="M81" s="6">
-        <v>1</v>
-      </c>
-      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>4002006</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25">
+      <c r="B82" s="2">
+        <v>3002012</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6">
+        <v>12000</v>
+      </c>
+      <c r="K82" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L82" s="6">
+        <v>1</v>
+      </c>
+      <c r="M82" s="6">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>4002007</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="2:23">
+      <c r="B84" s="2">
+        <v>3003001</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="K84" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L84" s="6">
+        <v>1</v>
+      </c>
+      <c r="M84" s="6">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>4002001</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25">
+      <c r="B85" s="2">
+        <v>3003002</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6">
+        <v>500</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>17000</v>
+      </c>
+      <c r="K85" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L85" s="6">
+        <v>1</v>
+      </c>
+      <c r="M85" s="6">
+        <v>1</v>
+      </c>
+      <c r="O85">
         <v>4002011</v>
       </c>
-      <c r="T81">
-        <v>1</v>
-      </c>
-      <c r="U81">
-        <v>1</v>
-      </c>
-      <c r="W81">
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="W85">
         <v>9999999</v>
       </c>
-      <c r="Y81">
+      <c r="Y85">
         <v>15008008</v>
       </c>
     </row>
-    <row r="86" customFormat="1" spans="1:23">
-      <c r="A86" s="2"/>
+    <row r="86" spans="2:25">
       <c r="B86" s="2">
-        <v>3061101</v>
+        <v>3003003</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E86" s="6">
-        <v>1</v>
-      </c>
-      <c r="F86" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6">
-        <v>99999999</v>
+        <v>500</v>
       </c>
       <c r="I86" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J86" s="6">
-        <v>99999999</v>
+        <v>17000</v>
       </c>
       <c r="K86" s="6">
         <v>1500</v>
@@ -4164,68 +4222,169 @@
         <v>1</v>
       </c>
       <c r="M86" s="6">
-        <v>0</v>
-      </c>
-      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>4002011</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>9999999</v>
+      </c>
+      <c r="Y86">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25">
+      <c r="B87" s="2">
+        <v>3003004</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6">
+        <v>500</v>
+      </c>
+      <c r="I87" s="6">
+        <v>-30</v>
+      </c>
+      <c r="J87" s="6">
+        <v>17000</v>
+      </c>
+      <c r="K87" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L87" s="6">
+        <v>1</v>
+      </c>
+      <c r="M87" s="6">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>4002011</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>9999999</v>
+      </c>
+      <c r="Y87">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:23">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2">
+        <v>3061101</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="K92" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L92" s="6">
+        <v>1</v>
+      </c>
+      <c r="M92" s="6">
+        <v>0</v>
+      </c>
+      <c r="R92">
         <v>4002001</v>
       </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2">
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2">
         <v>3062101</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E89" s="6">
-        <v>1</v>
-      </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6">
+      <c r="C95" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6">
         <v>99999999</v>
       </c>
-      <c r="I89" s="6">
-        <v>0</v>
-      </c>
-      <c r="J89" s="6">
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
         <v>8000</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K95" s="6">
         <v>1500</v>
       </c>
-      <c r="L89" s="6">
-        <v>1</v>
-      </c>
-      <c r="M89" s="6">
-        <v>0</v>
-      </c>
-      <c r="R89">
+      <c r="L95" s="6">
+        <v>1</v>
+      </c>
+      <c r="M95" s="6">
+        <v>0</v>
+      </c>
+      <c r="R95">
         <v>4002006</v>
       </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-      <c r="Y89">
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
         <v>15008007</v>
       </c>
     </row>
@@ -4246,7 +4405,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4263,7 +4422,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="18120"/>
+    <workbookView windowWidth="31460" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1424,11 +1424,11 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="N1" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="E1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31460" windowHeight="18120"/>
+    <workbookView windowWidth="17190" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>#</t>
   </si>
@@ -301,6 +314,9 @@
   </si>
   <si>
     <t>隐墨技能1投掷物</t>
+  </si>
+  <si>
+    <t>凤紫夕普通攻击投掷物</t>
   </si>
   <si>
     <t>唐依 普通攻击投掷物</t>
@@ -414,7 +430,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1424,14 +1440,14 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="E1" activePane="bottomLeft"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="P1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
@@ -1452,7 +1468,7 @@
     <col min="25" max="25" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" spans="1:25">
+    <row r="1" ht="27" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1820,21 +1836,57 @@
       <c r="M7" s="6"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" customFormat="1" spans="1:19">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+    <row r="8" customFormat="1" spans="1:23">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3002101</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="H8" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>4002101</v>
+      </c>
       <c r="S8" s="6"/>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="1" spans="1:19">
       <c r="A9" s="2"/>
@@ -1876,10 +1928,10 @@
         <v>3003101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -1929,10 +1981,10 @@
         <v>3003201</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -1982,10 +2034,10 @@
         <v>3003301</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -2067,10 +2119,10 @@
         <v>3004101</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -2135,10 +2187,10 @@
         <v>3005101</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -2220,10 +2272,10 @@
         <v>3006101</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -2320,10 +2372,10 @@
         <v>3101101</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -2372,10 +2424,10 @@
         <v>3102101</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -2429,10 +2481,10 @@
         <v>3102201</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
@@ -2486,10 +2538,10 @@
         <v>3102301</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -2607,10 +2659,10 @@
         <v>3501101</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
@@ -2659,10 +2711,10 @@
         <v>3502101</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -2758,10 +2810,10 @@
         <v>3801101</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -2797,7 +2849,7 @@
         <v>4</v>
       </c>
       <c r="V38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W38">
         <v>9999999</v>
@@ -2881,10 +2933,10 @@
         <v>3820101</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
@@ -2975,10 +3027,10 @@
         <v>3000101</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
@@ -3040,10 +3092,10 @@
         <v>3100101</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
@@ -3097,10 +3149,10 @@
         <v>3100102</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
@@ -3154,10 +3206,10 @@
         <v>3100103</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
@@ -3211,10 +3263,10 @@
         <v>3100104</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
@@ -3268,10 +3320,10 @@
         <v>3100105</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
@@ -3478,10 +3530,10 @@
         <v>3001001</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
@@ -3527,10 +3579,10 @@
         <v>3001002</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
@@ -3619,10 +3671,10 @@
         <v>3001011</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -3669,10 +3721,10 @@
         <v>3001012</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
@@ -3719,10 +3771,10 @@
         <v>3001013</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E72" s="6">
         <v>1</v>
@@ -3769,10 +3821,10 @@
         <v>3001014</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -3876,10 +3928,10 @@
         <v>3002001</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
@@ -3924,10 +3976,10 @@
         <v>3002002</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
@@ -3988,10 +4040,10 @@
         <v>3002011</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
@@ -4037,10 +4089,10 @@
         <v>3002012</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
@@ -4099,10 +4151,10 @@
         <v>3003001</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
@@ -4147,10 +4199,10 @@
         <v>3003002</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
@@ -4196,10 +4248,10 @@
         <v>3003003</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E86" s="6">
         <v>0</v>
@@ -4245,10 +4297,10 @@
         <v>3003004</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
@@ -4295,10 +4347,10 @@
         <v>3061101</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E92" s="6">
         <v>1</v>
@@ -4344,10 +4396,10 @@
         <v>3062101</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E95" s="6">
         <v>1</v>
@@ -4405,7 +4457,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4422,7 +4474,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="11700"/>
+    <workbookView windowWidth="15795" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>承灵普通攻击</t>
+  </si>
+  <si>
+    <t>林清远普通攻击投掷物</t>
   </si>
   <si>
     <t>怪物1普通攻击投掷物</t>
@@ -590,12 +593,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1437,14 +1440,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y95"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="P1" activePane="bottomLeft"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="P9" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2275,7 +2278,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -2348,218 +2351,134 @@
       <c r="M23" s="6"/>
       <c r="S23" s="6"/>
     </row>
-    <row r="24" customFormat="1" spans="1:19">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+    <row r="24" customFormat="1" spans="1:23">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3007101</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="H24" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>4001101</v>
+      </c>
       <c r="S24" s="6"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:23">
-      <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:19">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:19">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:19">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:23">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
         <v>3101101</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6">
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
         <v>99999999</v>
       </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
         <v>99999999</v>
-      </c>
-      <c r="K25" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>4101101</v>
-      </c>
-      <c r="S25" s="6"/>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:25">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3102101</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1500</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>15000</v>
-      </c>
-      <c r="K26" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1</v>
-      </c>
-      <c r="M26" s="6">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>4103101</v>
-      </c>
-      <c r="S26" s="6"/>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:25">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>3102201</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1500</v>
-      </c>
-      <c r="I27" s="6">
-        <v>-30</v>
-      </c>
-      <c r="J27" s="6">
-        <v>15000</v>
-      </c>
-      <c r="K27" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1</v>
-      </c>
-      <c r="M27" s="6">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>4103101</v>
-      </c>
-      <c r="S27" s="6"/>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:25">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3102301</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1500</v>
-      </c>
-      <c r="I28" s="6">
-        <v>30</v>
-      </c>
-      <c r="J28" s="6">
-        <v>15000</v>
       </c>
       <c r="K28" s="6">
         <v>1500</v>
@@ -2568,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="M28" s="6">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>4103101</v>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>4101101</v>
       </c>
       <c r="S28" s="6"/>
       <c r="T28">
@@ -2583,57 +2502,177 @@
       <c r="W28">
         <v>0</v>
       </c>
-      <c r="Y28">
+    </row>
+    <row r="29" customFormat="1" spans="1:25">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3102101</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>15000</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>4103101</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>15008003</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:19">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="S29" s="6"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:19">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+    <row r="30" customFormat="1" spans="1:25">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3102201</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I30" s="6">
+        <v>-30</v>
+      </c>
+      <c r="J30" s="6">
+        <v>15000</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>4103101</v>
+      </c>
       <c r="S30" s="6"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:19">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:25">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3102301</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I31" s="6">
+        <v>30</v>
+      </c>
+      <c r="J31" s="6">
+        <v>15000</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>4103101</v>
+      </c>
       <c r="S31" s="6"/>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>15008003</v>
+      </c>
     </row>
     <row r="32" customFormat="1" spans="1:19">
       <c r="A32" s="2"/>
@@ -2651,108 +2690,37 @@
       <c r="M32" s="6"/>
       <c r="S32" s="6"/>
     </row>
-    <row r="33" customFormat="1" spans="1:23">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2">
-        <v>3501101</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
+    <row r="33" customFormat="1" spans="1:19">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="K33" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L33" s="6">
-        <v>1</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>4501101</v>
-      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:23">
-      <c r="A34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3502101</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:19">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="K34" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L34" s="6">
-        <v>1</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>4502101</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="S34" s="6"/>
     </row>
     <row r="35" customFormat="1" spans="1:19">
       <c r="A35" s="2"/>
@@ -2770,96 +2738,124 @@
       <c r="M35" s="6"/>
       <c r="S35" s="6"/>
     </row>
-    <row r="36" customFormat="1" spans="1:19">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+    <row r="36" customFormat="1" spans="1:23">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3501101</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="H36" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>4501101</v>
+      </c>
       <c r="S36" s="6"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:19">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:23">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3502101</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="S37" s="6"/>
-    </row>
-    <row r="38" customFormat="1" spans="1:25">
-      <c r="A38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2">
-        <v>3801101</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
+      <c r="H37" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L37" s="6">
+        <v>1</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>4502101</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:19">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-      <c r="J38" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K38" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L38" s="6">
-        <v>1</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>4801101</v>
-      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38">
-        <v>5</v>
-      </c>
-      <c r="U38">
-        <v>4</v>
-      </c>
-      <c r="V38" t="s">
-        <v>70</v>
-      </c>
-      <c r="W38">
-        <v>9999999</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38">
-        <v>15008007</v>
-      </c>
     </row>
     <row r="39" customFormat="1" spans="1:19">
       <c r="A39" s="2"/>
@@ -2893,21 +2889,64 @@
       <c r="M40" s="6"/>
       <c r="S40" s="6"/>
     </row>
-    <row r="41" customFormat="1" spans="1:19">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+    <row r="41" customFormat="1" spans="1:25">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3801101</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
+      <c r="H41" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="6">
+        <v>1</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>4801101</v>
+      </c>
       <c r="S41" s="6"/>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="U41">
+        <v>4</v>
+      </c>
+      <c r="V41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W41">
+        <v>9999999</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="42" customFormat="1" spans="1:19">
       <c r="A42" s="2"/>
@@ -2925,55 +2964,21 @@
       <c r="M42" s="6"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="43" customFormat="1" spans="1:25">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2">
-        <v>3820101</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
+    <row r="43" customFormat="1" spans="1:19">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="J43" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K43" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L43" s="6">
-        <v>1</v>
-      </c>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>4820101</v>
-      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="44" customFormat="1" spans="1:19">
       <c r="A44" s="2"/>
@@ -3007,72 +3012,75 @@
       <c r="M45" s="6"/>
       <c r="S45" s="6"/>
     </row>
-    <row r="46" spans="3:19">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+    <row r="46" customFormat="1" spans="1:25">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3820101</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="H46" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="6">
+        <v>1</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>4820101</v>
+      </c>
       <c r="S46" s="6"/>
-    </row>
-    <row r="47" customFormat="1" spans="1:25">
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:19">
       <c r="A47" s="2"/>
-      <c r="B47" s="2">
-        <v>3000101</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>15000</v>
-      </c>
-      <c r="K47" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L47" s="6">
-        <v>1</v>
-      </c>
-      <c r="M47" s="6">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>4001001</v>
-      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="48" spans="3:19">
+    </row>
+    <row r="48" customFormat="1" spans="1:19">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -3086,87 +3094,44 @@
       <c r="M48" s="6"/>
       <c r="S48" s="6"/>
     </row>
-    <row r="49" customFormat="1" spans="1:25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2">
-        <v>3100101</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
+    <row r="49" spans="3:19">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="6">
-        <v>500</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K49" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L49" s="6">
-        <v>1</v>
-      </c>
-      <c r="M49" s="6">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>4100101</v>
-      </c>
-      <c r="P49">
-        <v>-200</v>
-      </c>
-      <c r="Q49">
-        <v>-600</v>
-      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="50" customFormat="1" spans="1:25">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
-        <v>3100102</v>
+        <v>3000101</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6">
-        <v>800</v>
+        <v>99999999</v>
       </c>
       <c r="I50" s="6">
         <v>0</v>
       </c>
       <c r="J50" s="6">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K50" s="6">
         <v>1500</v>
@@ -3175,16 +3140,10 @@
         <v>1</v>
       </c>
       <c r="M50" s="6">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>4100102</v>
-      </c>
-      <c r="P50">
-        <v>-200</v>
-      </c>
-      <c r="Q50">
-        <v>-600</v>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>4001001</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50">
@@ -3197,76 +3156,33 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2">
-        <v>3100103</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="6">
-        <v>1100</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K51" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L51" s="6">
-        <v>1</v>
-      </c>
-      <c r="M51" s="6">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>4100103</v>
-      </c>
-      <c r="P51">
-        <v>-200</v>
-      </c>
-      <c r="Q51">
-        <v>-600</v>
-      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51">
-        <v>1</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>9999999</v>
-      </c>
-      <c r="Y51">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="52" customFormat="1" spans="1:25">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
-        <v>3100104</v>
+        <v>3100101</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
@@ -3274,7 +3190,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="I52" s="6">
         <v>0</v>
@@ -3292,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <v>4100104</v>
+        <v>4100101</v>
       </c>
       <c r="P52">
         <v>-200</v>
@@ -3302,13 +3218,13 @@
       </c>
       <c r="S52" s="6"/>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>15008003</v>
@@ -3317,13 +3233,13 @@
     <row r="53" customFormat="1" spans="1:25">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
-        <v>3100105</v>
+        <v>3100102</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
@@ -3331,7 +3247,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="I53" s="6">
         <v>0</v>
@@ -3349,69 +3265,198 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>4100105</v>
+        <v>4100102</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="S53" s="6"/>
       <c r="T53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>15008003</v>
       </c>
     </row>
-    <row r="54" spans="3:19">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+    <row r="54" customFormat="1" spans="1:25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2">
+        <v>3100103</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
+      <c r="H54" s="6">
+        <v>1100</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="6">
+        <v>1</v>
+      </c>
+      <c r="M54" s="6">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>4100103</v>
+      </c>
+      <c r="P54">
+        <v>-200</v>
+      </c>
+      <c r="Q54">
+        <v>-600</v>
+      </c>
       <c r="S54" s="6"/>
-    </row>
-    <row r="55" spans="3:19">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>9999999</v>
+      </c>
+      <c r="Y54">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2">
+        <v>3100104</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
+      <c r="H55" s="6">
+        <v>1400</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L55" s="6">
+        <v>1</v>
+      </c>
+      <c r="M55" s="6">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>4100104</v>
+      </c>
+      <c r="P55">
+        <v>-200</v>
+      </c>
+      <c r="Q55">
+        <v>-600</v>
+      </c>
       <c r="S55" s="6"/>
-    </row>
-    <row r="56" spans="3:19">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>9999999</v>
+      </c>
+      <c r="Y55">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2">
+        <v>3100105</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
+      <c r="H56" s="6">
+        <v>1700</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L56" s="6">
+        <v>1</v>
+      </c>
+      <c r="M56" s="6">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>4100105</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
       <c r="S56" s="6"/>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>9999999</v>
+      </c>
+      <c r="Y56">
+        <v>15008003</v>
+      </c>
     </row>
     <row r="57" spans="3:19">
       <c r="C57" s="6"/>
@@ -3525,104 +3570,33 @@
       <c r="M64" s="6"/>
       <c r="S64" s="6"/>
     </row>
-    <row r="65" spans="2:23">
-      <c r="B65" s="2">
-        <v>3001001</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1</v>
-      </c>
-      <c r="F65" s="6">
-        <v>1</v>
-      </c>
+    <row r="65" spans="3:19">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I65" s="6">
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="K65" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L65" s="6">
-        <v>1</v>
-      </c>
-      <c r="M65" s="6">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>4001001</v>
-      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
       <c r="S65" s="6"/>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:25">
-      <c r="B66" s="2">
-        <v>3001002</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="66" spans="3:19">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6">
-        <v>500</v>
-      </c>
-      <c r="I66" s="6">
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
-        <v>7000</v>
-      </c>
-      <c r="K66" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L66" s="6">
-        <v>1</v>
-      </c>
-      <c r="M66" s="6">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>4001002</v>
-      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
       <c r="S66" s="6"/>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>15008016</v>
-      </c>
     </row>
     <row r="67" spans="3:19">
       <c r="C67" s="6"/>
@@ -3638,193 +3612,156 @@
       <c r="M67" s="6"/>
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="3:19">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+    <row r="68" spans="2:23">
+      <c r="B68" s="2">
+        <v>3001001</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
+      <c r="H68" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L68" s="6">
+        <v>1</v>
+      </c>
+      <c r="M68" s="6">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>4001001</v>
+      </c>
       <c r="S68" s="6"/>
-    </row>
-    <row r="69" spans="3:19">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25">
+      <c r="B69" s="2">
+        <v>3001002</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
+      <c r="H69" s="6">
+        <v>500</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>7000</v>
+      </c>
+      <c r="K69" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L69" s="6">
+        <v>1</v>
+      </c>
+      <c r="M69" s="6">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>4001002</v>
+      </c>
       <c r="S69" s="6"/>
-    </row>
-    <row r="70" spans="2:25">
-      <c r="B70" s="2">
-        <v>3001011</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" s="6">
-        <v>1</v>
-      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>15008016</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I70" s="6">
-        <v>0</v>
-      </c>
-      <c r="J70" s="6">
-        <v>15000</v>
-      </c>
-      <c r="K70" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L70" s="6">
-        <v>1</v>
-      </c>
-      <c r="M70" s="6">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>4001001</v>
-      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
       <c r="S70" s="6"/>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="71" spans="2:25">
-      <c r="B71" s="2">
-        <v>3001012</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="71" spans="3:19">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I71" s="6">
-        <v>0</v>
-      </c>
-      <c r="J71" s="6">
-        <v>18000</v>
-      </c>
-      <c r="K71" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L71" s="6">
-        <v>1</v>
-      </c>
-      <c r="M71" s="6">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>4001006</v>
-      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
       <c r="S71" s="6"/>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="72" spans="2:25">
-      <c r="B72" s="2">
-        <v>3001013</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="6">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="72" spans="3:19">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I72" s="6">
-        <v>0</v>
-      </c>
-      <c r="J72" s="6">
-        <v>15000</v>
-      </c>
-      <c r="K72" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L72" s="6">
-        <v>1</v>
-      </c>
-      <c r="M72" s="6">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>4001007</v>
-      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
       <c r="S72" s="6"/>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>15008007</v>
-      </c>
     </row>
     <row r="73" spans="2:25">
       <c r="B73" s="2">
-        <v>3001014</v>
+        <v>3001011</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -3838,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="6">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="K73" s="6">
         <v>1500</v>
@@ -3850,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>13001012</v>
+        <v>4001001</v>
       </c>
       <c r="S73" s="6"/>
       <c r="T73">
@@ -3866,51 +3803,157 @@
         <v>15008007</v>
       </c>
     </row>
-    <row r="74" spans="3:19">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+    <row r="74" spans="2:25">
+      <c r="B74" s="2">
+        <v>3001012</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
+      <c r="H74" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>18000</v>
+      </c>
+      <c r="K74" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L74" s="6">
+        <v>1</v>
+      </c>
+      <c r="M74" s="6">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>4001006</v>
+      </c>
       <c r="S74" s="6"/>
-    </row>
-    <row r="75" spans="3:19">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25">
+      <c r="B75" s="2">
+        <v>3001013</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
+      <c r="H75" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>15000</v>
+      </c>
+      <c r="K75" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L75" s="6">
+        <v>1</v>
+      </c>
+      <c r="M75" s="6">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>4001007</v>
+      </c>
       <c r="S75" s="6"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:19">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25">
+      <c r="B76" s="2">
+        <v>3001014</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K76" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L76" s="6">
+        <v>1</v>
+      </c>
+      <c r="M76" s="6">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>13001012</v>
+      </c>
       <c r="S76" s="6"/>
-    </row>
-    <row r="77" spans="3:13">
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="77" spans="3:19">
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -3922,105 +3965,39 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
-    </row>
-    <row r="78" spans="2:23">
-      <c r="B78" s="2">
-        <v>3002001</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="6">
-        <v>1</v>
-      </c>
-      <c r="F78" s="6">
-        <v>1</v>
-      </c>
+      <c r="S77" s="6"/>
+    </row>
+    <row r="78" spans="3:19">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I78" s="6">
-        <v>0</v>
-      </c>
-      <c r="J78" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="K78" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L78" s="6">
-        <v>1</v>
-      </c>
-      <c r="M78" s="6">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>4002001</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:25">
-      <c r="B79" s="2">
-        <v>3002002</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6">
-        <v>500</v>
-      </c>
-      <c r="I79" s="6">
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
-        <v>7000</v>
-      </c>
-      <c r="K79" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L79" s="6">
-        <v>0</v>
-      </c>
-      <c r="M79" s="6">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>4002002</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="80" spans="3:19">
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="S78" s="6"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:19">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="S79" s="6"/>
+    </row>
+    <row r="80" spans="3:13">
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -4032,23 +4009,23 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
-      <c r="S80" s="6"/>
-    </row>
-    <row r="81" customFormat="1" spans="1:25">
-      <c r="A81" s="2"/>
+    </row>
+    <row r="81" spans="2:23">
       <c r="B81" s="2">
-        <v>3002011</v>
+        <v>3002001</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
       </c>
-      <c r="F81" s="6"/>
+      <c r="F81" s="6">
+        <v>1</v>
+      </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6">
         <v>99999999</v>
@@ -4057,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="6">
-        <v>8000</v>
+        <v>99999999</v>
       </c>
       <c r="K81" s="6">
         <v>1500</v>
@@ -4069,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>4002006</v>
+        <v>4002001</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -4079,20 +4056,17 @@
       </c>
       <c r="W81">
         <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>15008007</v>
       </c>
     </row>
     <row r="82" spans="2:25">
       <c r="B82" s="2">
-        <v>3002012</v>
+        <v>3002002</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
@@ -4100,25 +4074,25 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I82" s="6">
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="K82" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L82" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82">
-        <v>4002007</v>
+        <v>4002002</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -4133,7 +4107,7 @@
         <v>15008003</v>
       </c>
     </row>
-    <row r="83" spans="3:13">
+    <row r="83" spans="3:19">
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -4145,23 +4119,23 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
-    </row>
-    <row r="84" spans="2:23">
+      <c r="S83" s="6"/>
+    </row>
+    <row r="84" customFormat="1" spans="1:25">
+      <c r="A84" s="2"/>
       <c r="B84" s="2">
-        <v>3003001</v>
+        <v>3002011</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
       </c>
-      <c r="F84" s="6">
-        <v>1</v>
-      </c>
+      <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6">
         <v>99999999</v>
@@ -4170,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="6">
-        <v>99999999</v>
+        <v>8000</v>
       </c>
       <c r="K84" s="6">
         <v>1500</v>
@@ -4182,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>4002001</v>
+        <v>4002006</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -4192,17 +4166,20 @@
       </c>
       <c r="W84">
         <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>15008007</v>
       </c>
     </row>
     <row r="85" spans="2:25">
       <c r="B85" s="2">
-        <v>3003002</v>
+        <v>3002012</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
@@ -4210,16 +4187,16 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I85" s="6">
         <v>0</v>
       </c>
       <c r="J85" s="6">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="K85" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L85" s="6">
         <v>1</v>
@@ -4228,93 +4205,59 @@
         <v>1</v>
       </c>
       <c r="O85">
-        <v>4002011</v>
+        <v>4002007</v>
       </c>
       <c r="T85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W85">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y85">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="86" spans="2:25">
-      <c r="B86" s="2">
-        <v>3003003</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E86" s="6">
-        <v>0</v>
-      </c>
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6">
-        <v>500</v>
-      </c>
-      <c r="I86" s="6">
-        <v>30</v>
-      </c>
-      <c r="J86" s="6">
-        <v>17000</v>
-      </c>
-      <c r="K86" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L86" s="6">
-        <v>1</v>
-      </c>
-      <c r="M86" s="6">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>4002011</v>
-      </c>
-      <c r="T86">
-        <v>1</v>
-      </c>
-      <c r="U86">
-        <v>1</v>
-      </c>
-      <c r="W86">
-        <v>9999999</v>
-      </c>
-      <c r="Y86">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="87" spans="2:25">
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="2:23">
       <c r="B87" s="2">
-        <v>3003004</v>
+        <v>3003001</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E87" s="6">
-        <v>0</v>
-      </c>
-      <c r="F87" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1</v>
+      </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="I87" s="6">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J87" s="6">
-        <v>17000</v>
+        <v>99999999</v>
       </c>
       <c r="K87" s="6">
         <v>1500</v>
@@ -4323,88 +4266,185 @@
         <v>1</v>
       </c>
       <c r="M87" s="6">
-        <v>1</v>
-      </c>
-      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>4002001</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25">
+      <c r="B88" s="2">
+        <v>3003002</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6">
+        <v>500</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>17000</v>
+      </c>
+      <c r="K88" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L88" s="6">
+        <v>1</v>
+      </c>
+      <c r="M88" s="6">
+        <v>1</v>
+      </c>
+      <c r="O88">
         <v>4002011</v>
       </c>
-      <c r="T87">
-        <v>1</v>
-      </c>
-      <c r="U87">
-        <v>1</v>
-      </c>
-      <c r="W87">
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="W88">
         <v>9999999</v>
       </c>
-      <c r="Y87">
+      <c r="Y88">
         <v>15008008</v>
       </c>
     </row>
-    <row r="92" customFormat="1" spans="1:23">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2">
-        <v>3061101</v>
-      </c>
-      <c r="C92" s="6" t="s">
+    <row r="89" spans="2:25">
+      <c r="B89" s="2">
+        <v>3003003</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6">
+        <v>500</v>
+      </c>
+      <c r="I89" s="6">
+        <v>30</v>
+      </c>
+      <c r="J89" s="6">
+        <v>17000</v>
+      </c>
+      <c r="K89" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L89" s="6">
+        <v>1</v>
+      </c>
+      <c r="M89" s="6">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>4002011</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>9999999</v>
+      </c>
+      <c r="Y89">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25">
+      <c r="B90" s="2">
+        <v>3003004</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="6">
-        <v>1</v>
-      </c>
-      <c r="F92" s="6">
-        <v>1</v>
-      </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="I92" s="6">
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="K92" s="6">
+      <c r="D90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6">
+        <v>500</v>
+      </c>
+      <c r="I90" s="6">
+        <v>-30</v>
+      </c>
+      <c r="J90" s="6">
+        <v>17000</v>
+      </c>
+      <c r="K90" s="6">
         <v>1500</v>
       </c>
-      <c r="L92" s="6">
-        <v>1</v>
-      </c>
-      <c r="M92" s="6">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>4002001</v>
-      </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:25">
+      <c r="L90" s="6">
+        <v>1</v>
+      </c>
+      <c r="M90" s="6">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>4002011</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <v>9999999</v>
+      </c>
+      <c r="Y90">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:23">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
-        <v>3062101</v>
+        <v>3061101</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E95" s="6">
         <v>1</v>
       </c>
-      <c r="F95" s="6"/>
+      <c r="F95" s="6">
+        <v>1</v>
+      </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6">
         <v>99999999</v>
@@ -4413,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="6">
-        <v>8000</v>
+        <v>99999999</v>
       </c>
       <c r="K95" s="6">
         <v>1500</v>
@@ -4425,18 +4465,65 @@
         <v>0</v>
       </c>
       <c r="R95">
+        <v>4002001</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2">
+        <v>3062101</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6">
+        <v>8000</v>
+      </c>
+      <c r="K98" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L98" s="6">
+        <v>1</v>
+      </c>
+      <c r="M98" s="6">
+        <v>0</v>
+      </c>
+      <c r="R98">
         <v>4002006</v>
       </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-      <c r="Y95">
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
         <v>15008007</v>
       </c>
     </row>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15795" windowHeight="11700"/>
+    <workbookView windowWidth="17280" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1443,11 +1443,11 @@
   <dimension ref="A1:Y98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="P9" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="A1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="11700"/>
+    <workbookView windowWidth="15870" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,8 +113,7 @@
           </rPr>
           <t xml:space="preserve">
 type为：
-4： x 半径（*1000）
-</t>
+4： x 半径（*1000）</t>
         </r>
       </text>
     </comment>
@@ -149,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="101">
   <si>
     <t>#</t>
   </si>
@@ -365,6 +364,30 @@
   </si>
   <si>
     <t>10000,0</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 投掷物 lv2</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv2</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 投掷物 lv3</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv3</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 投掷物 lv4</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv4</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 投掷物 lv5</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv5</t>
   </si>
   <si>
     <t>道具技能 被攻击时候反射攻击球</t>
@@ -1449,14 +1472,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y114"/>
+  <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="N7" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="A33" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3363,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K50" s="7">
         <v>1500</v>
@@ -3379,7 +3402,7 @@
       </c>
       <c r="S50" s="7"/>
       <c r="T50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U50">
         <v>4</v>
@@ -3397,119 +3420,257 @@
         <v>15008007</v>
       </c>
     </row>
-    <row r="51" customFormat="1" spans="1:19">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+    <row r="51" customFormat="1" spans="1:25">
+      <c r="A51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3801102</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
+      <c r="H51" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>13000</v>
+      </c>
+      <c r="K51" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L51" s="7">
+        <v>1</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>4801102</v>
+      </c>
       <c r="S51" s="7"/>
-    </row>
-    <row r="52" customFormat="1" spans="1:19">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="U51">
+        <v>4</v>
+      </c>
+      <c r="V51" t="s">
+        <v>71</v>
+      </c>
+      <c r="W51">
+        <v>9999999</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:25">
+      <c r="A52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3801103</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
+      <c r="H52" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>13000</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L52" s="7">
+        <v>1</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>4801103</v>
+      </c>
       <c r="S52" s="7"/>
-    </row>
-    <row r="53" customFormat="1" spans="1:19">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="T52">
+        <v>5</v>
+      </c>
+      <c r="U52">
+        <v>4</v>
+      </c>
+      <c r="V52" t="s">
+        <v>71</v>
+      </c>
+      <c r="W52">
+        <v>9999999</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:25">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3801104</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
+      <c r="H53" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>13000</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L53" s="7">
+        <v>1</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>4801104</v>
+      </c>
       <c r="S53" s="7"/>
-    </row>
-    <row r="54" customFormat="1" spans="1:19">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="T53">
+        <v>6</v>
+      </c>
+      <c r="U53">
+        <v>4</v>
+      </c>
+      <c r="V53" t="s">
+        <v>71</v>
+      </c>
+      <c r="W53">
+        <v>9999999</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:25">
+      <c r="A54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="3">
+        <v>3801105</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
+      <c r="H54" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>13000</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="7">
+        <v>1</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>4801105</v>
+      </c>
       <c r="S54" s="7"/>
-    </row>
-    <row r="55" customFormat="1" spans="1:25">
-      <c r="A55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="3">
-        <v>3820101</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="7">
-        <v>1</v>
-      </c>
+      <c r="T54">
+        <v>7</v>
+      </c>
+      <c r="U54">
+        <v>4</v>
+      </c>
+      <c r="V54" t="s">
+        <v>71</v>
+      </c>
+      <c r="W54">
+        <v>9999999</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:19">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7">
-        <v>5000</v>
-      </c>
-      <c r="K55" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L55" s="7">
-        <v>1</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>4820101</v>
-      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="56" customFormat="1" spans="1:19">
       <c r="A56" s="3"/>
@@ -3543,7 +3704,9 @@
       <c r="M57" s="7"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="3:19">
+    <row r="58" customFormat="1" spans="1:19">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -3558,15 +3721,17 @@
       <c r="S58" s="7"/>
     </row>
     <row r="59" customFormat="1" spans="1:25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B59" s="3">
-        <v>3000101</v>
+        <v>3820101</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E59" s="7">
         <v>1</v>
@@ -3580,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="7">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="K59" s="7">
         <v>1500</v>
@@ -3592,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>4001001</v>
+        <v>4820101</v>
       </c>
       <c r="S59" s="7"/>
       <c r="T59">
@@ -3601,14 +3766,13 @@
       <c r="U59">
         <v>0</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
       <c r="Y59">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:19">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -3622,144 +3786,60 @@
       <c r="M60" s="7"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" customFormat="1" spans="1:25">
+    <row r="61" customFormat="1" spans="1:19">
       <c r="A61" s="3"/>
-      <c r="B61" s="3">
-        <v>3100101</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="7">
-        <v>0</v>
-      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="7">
-        <v>500</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7">
-        <v>10000</v>
-      </c>
-      <c r="K61" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L61" s="7">
-        <v>1</v>
-      </c>
-      <c r="M61" s="7">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>4100101</v>
-      </c>
-      <c r="P61">
-        <v>-200</v>
-      </c>
-      <c r="Q61">
-        <v>-600</v>
-      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
       <c r="S61" s="7"/>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3">
-        <v>3100102</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="7">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="62" spans="3:19">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="7">
-        <v>800</v>
-      </c>
-      <c r="I62" s="7">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7">
-        <v>10000</v>
-      </c>
-      <c r="K62" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L62" s="7">
-        <v>1</v>
-      </c>
-      <c r="M62" s="7">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>4100102</v>
-      </c>
-      <c r="P62">
-        <v>-200</v>
-      </c>
-      <c r="Q62">
-        <v>-600</v>
-      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
       <c r="S62" s="7"/>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="63" customFormat="1" spans="1:25">
       <c r="A63" s="3"/>
       <c r="B63" s="3">
-        <v>3100103</v>
+        <v>3000101</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7">
-        <v>1100</v>
+        <v>99999999</v>
       </c>
       <c r="I63" s="7">
         <v>0</v>
       </c>
       <c r="J63" s="7">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K63" s="7">
         <v>1500</v>
@@ -3768,98 +3848,49 @@
         <v>1</v>
       </c>
       <c r="M63" s="7">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>4100103</v>
-      </c>
-      <c r="P63">
-        <v>-200</v>
-      </c>
-      <c r="Q63">
-        <v>-600</v>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>4001001</v>
       </c>
       <c r="S63" s="7"/>
       <c r="T63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3">
-        <v>3100104</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="7">
-        <v>0</v>
-      </c>
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="7">
-        <v>1400</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7">
-        <v>10000</v>
-      </c>
-      <c r="K64" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L64" s="7">
-        <v>1</v>
-      </c>
-      <c r="M64" s="7">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>4100104</v>
-      </c>
-      <c r="P64">
-        <v>-200</v>
-      </c>
-      <c r="Q64">
-        <v>-600</v>
-      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
       <c r="S64" s="7"/>
-      <c r="T64">
-        <v>1</v>
-      </c>
-      <c r="U64">
-        <v>1</v>
-      </c>
-      <c r="W64">
-        <v>9999999</v>
-      </c>
-      <c r="Y64">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="65" customFormat="1" spans="1:25">
       <c r="A65" s="3"/>
       <c r="B65" s="3">
-        <v>3100105</v>
+        <v>3100101</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E65" s="7">
         <v>0</v>
@@ -3867,7 +3898,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="I65" s="7">
         <v>0</v>
@@ -3885,83 +3916,255 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>4100105</v>
+        <v>4100101</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="S65" s="7"/>
       <c r="T65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>15008003</v>
       </c>
     </row>
-    <row r="66" spans="3:19">
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+    <row r="66" customFormat="1" spans="1:25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3">
+        <v>3100102</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
+      <c r="H66" s="7">
+        <v>800</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L66" s="7">
+        <v>1</v>
+      </c>
+      <c r="M66" s="7">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>4100102</v>
+      </c>
+      <c r="P66">
+        <v>-200</v>
+      </c>
+      <c r="Q66">
+        <v>-600</v>
+      </c>
       <c r="S66" s="7"/>
-    </row>
-    <row r="67" spans="3:19">
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3">
+        <v>3100103</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
+      <c r="H67" s="7">
+        <v>1100</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K67" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L67" s="7">
+        <v>1</v>
+      </c>
+      <c r="M67" s="7">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>4100103</v>
+      </c>
+      <c r="P67">
+        <v>-200</v>
+      </c>
+      <c r="Q67">
+        <v>-600</v>
+      </c>
       <c r="S67" s="7"/>
-    </row>
-    <row r="68" spans="3:19">
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>9999999</v>
+      </c>
+      <c r="Y67">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3">
+        <v>3100104</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
+      <c r="H68" s="7">
+        <v>1400</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K68" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L68" s="7">
+        <v>1</v>
+      </c>
+      <c r="M68" s="7">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>4100104</v>
+      </c>
+      <c r="P68">
+        <v>-200</v>
+      </c>
+      <c r="Q68">
+        <v>-600</v>
+      </c>
       <c r="S68" s="7"/>
-    </row>
-    <row r="69" spans="3:19">
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>9999999</v>
+      </c>
+      <c r="Y68">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3">
+        <v>3100105</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
+      <c r="H69" s="7">
+        <v>1700</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K69" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L69" s="7">
+        <v>1</v>
+      </c>
+      <c r="M69" s="7">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>4100105</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
       <c r="S69" s="7"/>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>9999999</v>
+      </c>
+      <c r="Y69">
+        <v>15008003</v>
+      </c>
     </row>
     <row r="70" spans="3:19">
       <c r="C70" s="7"/>
@@ -4061,104 +4264,33 @@
       <c r="M76" s="7"/>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="2:23">
-      <c r="B77" s="3">
-        <v>3001001</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" s="7">
-        <v>1</v>
-      </c>
-      <c r="F77" s="7">
-        <v>1</v>
-      </c>
+    <row r="77" spans="3:19">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I77" s="7">
-        <v>0</v>
-      </c>
-      <c r="J77" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="K77" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L77" s="7">
-        <v>1</v>
-      </c>
-      <c r="M77" s="7">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>4001001</v>
-      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
       <c r="S77" s="7"/>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:25">
-      <c r="B78" s="3">
-        <v>3001002</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E78" s="7">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="78" spans="3:19">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="7">
-        <v>500</v>
-      </c>
-      <c r="I78" s="7">
-        <v>0</v>
-      </c>
-      <c r="J78" s="7">
-        <v>7000</v>
-      </c>
-      <c r="K78" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L78" s="7">
-        <v>1</v>
-      </c>
-      <c r="M78" s="7">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>4001002</v>
-      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
       <c r="S78" s="7"/>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>15008016</v>
-      </c>
     </row>
     <row r="79" spans="3:19">
       <c r="C79" s="7"/>
@@ -4188,43 +4320,78 @@
       <c r="M80" s="7"/>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" spans="3:19">
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+    <row r="81" spans="2:23">
+      <c r="B81" s="3">
+        <v>3001001</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1</v>
+      </c>
       <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
+      <c r="H81" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="K81" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L81" s="7">
+        <v>1</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>4001001</v>
+      </c>
       <c r="S81" s="7"/>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="2:25">
       <c r="B82" s="3">
-        <v>3001011</v>
+        <v>3001002</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E82" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7">
-        <v>99999999</v>
+        <v>500</v>
       </c>
       <c r="I82" s="7">
         <v>0</v>
       </c>
       <c r="J82" s="7">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="K82" s="7">
         <v>1500</v>
@@ -4233,10 +4400,10 @@
         <v>1</v>
       </c>
       <c r="M82" s="7">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>4001001</v>
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>4001002</v>
       </c>
       <c r="S82" s="7"/>
       <c r="T82">
@@ -4249,412 +4416,345 @@
         <v>0</v>
       </c>
       <c r="Y82">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="83" spans="2:25">
-      <c r="B83" s="3">
-        <v>3001012</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="7">
-        <v>0</v>
-      </c>
+        <v>15008016</v>
+      </c>
+    </row>
+    <row r="83" spans="3:19">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="7">
-        <v>2000</v>
-      </c>
-      <c r="I83" s="7">
-        <v>0</v>
-      </c>
-      <c r="J83" s="7">
-        <v>18000</v>
-      </c>
-      <c r="K83" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L83" s="7">
-        <v>1</v>
-      </c>
-      <c r="M83" s="7">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>4001006</v>
-      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
       <c r="S83" s="7"/>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="84" spans="2:25">
-      <c r="B84" s="3">
-        <v>3001013</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="7">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="84" spans="3:19">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I84" s="7">
-        <v>0</v>
-      </c>
-      <c r="J84" s="7">
-        <v>15000</v>
-      </c>
-      <c r="K84" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L84" s="7">
-        <v>1</v>
-      </c>
-      <c r="M84" s="7">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>4001007</v>
-      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
       <c r="S84" s="7"/>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="85" spans="2:25">
-      <c r="B85" s="3">
-        <v>3001014</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E85" s="7">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="85" spans="3:19">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I85" s="7">
-        <v>0</v>
-      </c>
-      <c r="J85" s="7">
-        <v>5000</v>
-      </c>
-      <c r="K85" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L85" s="7">
-        <v>1</v>
-      </c>
-      <c r="M85" s="7">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>13001012</v>
-      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
       <c r="S85" s="7"/>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="Y85">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="86" spans="3:19">
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+    </row>
+    <row r="86" spans="2:25">
+      <c r="B86" s="3">
+        <v>3001011</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="7">
+        <v>1</v>
+      </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
+      <c r="H86" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>15000</v>
+      </c>
+      <c r="K86" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L86" s="7">
+        <v>1</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>4001001</v>
+      </c>
       <c r="S86" s="7"/>
-    </row>
-    <row r="87" spans="3:19">
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25">
+      <c r="B87" s="3">
+        <v>3001012</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0</v>
+      </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
+      <c r="H87" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>18000</v>
+      </c>
+      <c r="K87" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L87" s="7">
+        <v>1</v>
+      </c>
+      <c r="M87" s="7">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>4001006</v>
+      </c>
       <c r="S87" s="7"/>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:19">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25">
+      <c r="B88" s="3">
+        <v>3001013</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>15000</v>
+      </c>
+      <c r="K88" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L88" s="7">
+        <v>1</v>
+      </c>
+      <c r="M88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>4001007</v>
+      </c>
       <c r="S88" s="7"/>
-    </row>
-    <row r="89" spans="3:13">
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25">
+      <c r="B89" s="3">
+        <v>3001014</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="7">
+        <v>1</v>
+      </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-    </row>
-    <row r="90" spans="2:23">
-      <c r="B90" s="3">
-        <v>3002001</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E90" s="7">
-        <v>1</v>
-      </c>
-      <c r="F90" s="7">
-        <v>1</v>
-      </c>
+      <c r="H89" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>5000</v>
+      </c>
+      <c r="K89" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L89" s="7">
+        <v>1</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>13001012</v>
+      </c>
+      <c r="S89" s="7"/>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I90" s="7">
-        <v>0</v>
-      </c>
-      <c r="J90" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="K90" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L90" s="7">
-        <v>1</v>
-      </c>
-      <c r="M90" s="7">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>4002001</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:25">
-      <c r="B91" s="3">
-        <v>3002002</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E91" s="7">
-        <v>0</v>
-      </c>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="S90" s="7"/>
+    </row>
+    <row r="91" spans="3:19">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="7">
-        <v>500</v>
-      </c>
-      <c r="I91" s="7">
-        <v>0</v>
-      </c>
-      <c r="J91" s="7">
-        <v>7000</v>
-      </c>
-      <c r="K91" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L91" s="7">
-        <v>0</v>
-      </c>
-      <c r="M91" s="7">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>4002002</v>
-      </c>
-      <c r="T91">
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-      <c r="Y91">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19">
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="S91" s="7"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:19">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" customFormat="1" spans="1:25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3">
-        <v>3002011</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E93" s="7">
-        <v>1</v>
-      </c>
+    <row r="93" spans="3:13">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I93" s="7">
-        <v>0</v>
-      </c>
-      <c r="J93" s="7">
-        <v>8000</v>
-      </c>
-      <c r="K93" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L93" s="7">
-        <v>1</v>
-      </c>
-      <c r="M93" s="7">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>4002006</v>
-      </c>
-      <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-      <c r="Y93">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="94" spans="2:25">
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+    </row>
+    <row r="94" spans="2:23">
       <c r="B94" s="3">
-        <v>3002012</v>
+        <v>3002001</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E94" s="7">
-        <v>0</v>
-      </c>
-      <c r="F94" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
+        <v>1</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7">
-        <v>1000</v>
+        <v>99999999</v>
       </c>
       <c r="I94" s="7">
         <v>0</v>
       </c>
       <c r="J94" s="7">
-        <v>12000</v>
+        <v>99999999</v>
       </c>
       <c r="K94" s="7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L94" s="7">
         <v>1</v>
       </c>
       <c r="M94" s="7">
-        <v>1</v>
-      </c>
-      <c r="O94">
-        <v>4002007</v>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>4002001</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -4665,94 +4765,94 @@
       <c r="W94">
         <v>0</v>
       </c>
-      <c r="Y94">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13">
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
+    </row>
+    <row r="95" spans="2:25">
+      <c r="B95" s="3">
+        <v>3002002</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0</v>
+      </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-    </row>
-    <row r="96" spans="2:23">
-      <c r="B96" s="3">
-        <v>3003001</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E96" s="7">
-        <v>1</v>
-      </c>
-      <c r="F96" s="7">
-        <v>1</v>
-      </c>
+      <c r="H95" s="7">
+        <v>500</v>
+      </c>
+      <c r="I95" s="7">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>7000</v>
+      </c>
+      <c r="K95" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0</v>
+      </c>
+      <c r="M95" s="7">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>4002002</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="96" spans="3:19">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I96" s="7">
-        <v>0</v>
-      </c>
-      <c r="J96" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="K96" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L96" s="7">
-        <v>1</v>
-      </c>
-      <c r="M96" s="7">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>4002001</v>
-      </c>
-      <c r="T96">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:25">
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="S96" s="7"/>
+    </row>
+    <row r="97" customFormat="1" spans="1:25">
+      <c r="A97" s="3"/>
       <c r="B97" s="3">
-        <v>3003002</v>
+        <v>3002011</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E97" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="I97" s="7">
         <v>0</v>
       </c>
       <c r="J97" s="7">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="K97" s="7">
         <v>1500</v>
@@ -4761,33 +4861,33 @@
         <v>1</v>
       </c>
       <c r="M97" s="7">
-        <v>1</v>
-      </c>
-      <c r="O97">
-        <v>4002011</v>
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>4002006</v>
       </c>
       <c r="T97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y97">
-        <v>15008008</v>
+        <v>15008007</v>
       </c>
     </row>
     <row r="98" spans="2:25">
       <c r="B98" s="3">
-        <v>3003003</v>
+        <v>3002012</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E98" s="7">
         <v>0</v>
@@ -4795,16 +4895,16 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I98" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J98" s="7">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="K98" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L98" s="7">
         <v>1</v>
@@ -4813,268 +4913,327 @@
         <v>1</v>
       </c>
       <c r="O98">
-        <v>4002011</v>
+        <v>4002007</v>
       </c>
       <c r="T98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y98">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="99" spans="2:25">
-      <c r="B99" s="3">
-        <v>3003004</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" s="7">
-        <v>0</v>
-      </c>
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="7">
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+    </row>
+    <row r="100" spans="2:23">
+      <c r="B100" s="3">
+        <v>3003001</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E100" s="7">
+        <v>1</v>
+      </c>
+      <c r="F100" s="7">
+        <v>1</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="K100" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L100" s="7">
+        <v>1</v>
+      </c>
+      <c r="M100" s="7">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>4002001</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:25">
+      <c r="B101" s="3">
+        <v>3003002</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E101" s="7">
+        <v>0</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7">
         <v>500</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I101" s="7">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7">
+        <v>17000</v>
+      </c>
+      <c r="K101" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L101" s="7">
+        <v>1</v>
+      </c>
+      <c r="M101" s="7">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>4002011</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>9999999</v>
+      </c>
+      <c r="Y101">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="102" spans="2:25">
+      <c r="B102" s="3">
+        <v>3003003</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7">
+        <v>500</v>
+      </c>
+      <c r="I102" s="7">
+        <v>30</v>
+      </c>
+      <c r="J102" s="7">
+        <v>17000</v>
+      </c>
+      <c r="K102" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L102" s="7">
+        <v>1</v>
+      </c>
+      <c r="M102" s="7">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>4002011</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="W102">
+        <v>9999999</v>
+      </c>
+      <c r="Y102">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="103" spans="2:25">
+      <c r="B103" s="3">
+        <v>3003004</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="7">
+        <v>0</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7">
+        <v>500</v>
+      </c>
+      <c r="I103" s="7">
         <v>-30</v>
       </c>
-      <c r="J99" s="7">
+      <c r="J103" s="7">
         <v>17000</v>
       </c>
-      <c r="K99" s="7">
+      <c r="K103" s="7">
         <v>1500</v>
       </c>
-      <c r="L99" s="7">
-        <v>1</v>
-      </c>
-      <c r="M99" s="7">
-        <v>1</v>
-      </c>
-      <c r="O99">
+      <c r="L103" s="7">
+        <v>1</v>
+      </c>
+      <c r="M103" s="7">
+        <v>1</v>
+      </c>
+      <c r="O103">
         <v>4002011</v>
       </c>
-      <c r="T99">
-        <v>1</v>
-      </c>
-      <c r="U99">
-        <v>1</v>
-      </c>
-      <c r="W99">
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="W103">
         <v>9999999</v>
       </c>
-      <c r="Y99">
+      <c r="Y103">
         <v>15008008</v>
       </c>
     </row>
-    <row r="104" customFormat="1" spans="1:23">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3">
+    <row r="108" customFormat="1" spans="1:23">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3">
         <v>3061101</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D104" s="7" t="s">
+      <c r="C108" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E104" s="7">
-        <v>1</v>
-      </c>
-      <c r="F104" s="7">
-        <v>1</v>
-      </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7">
+      <c r="E108" s="7">
+        <v>1</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7">
         <v>99999999</v>
       </c>
-      <c r="I104" s="7">
-        <v>0</v>
-      </c>
-      <c r="J104" s="7">
+      <c r="I108" s="7">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7">
         <v>99999999</v>
       </c>
-      <c r="K104" s="7">
+      <c r="K108" s="7">
         <v>1500</v>
       </c>
-      <c r="L104" s="7">
-        <v>1</v>
-      </c>
-      <c r="M104" s="7">
-        <v>0</v>
-      </c>
-      <c r="R104">
+      <c r="L108" s="7">
+        <v>1</v>
+      </c>
+      <c r="M108" s="7">
+        <v>0</v>
+      </c>
+      <c r="R108">
         <v>4002001</v>
       </c>
-      <c r="T104">
-        <v>0</v>
-      </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="1:25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3">
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="1:25">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3">
         <v>3062101</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E107" s="7">
-        <v>1</v>
-      </c>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7">
+      <c r="C111" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E111" s="7">
+        <v>1</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7">
         <v>99999999</v>
       </c>
-      <c r="I107" s="7">
-        <v>0</v>
-      </c>
-      <c r="J107" s="7">
+      <c r="I111" s="7">
+        <v>0</v>
+      </c>
+      <c r="J111" s="7">
         <v>8000</v>
       </c>
-      <c r="K107" s="7">
+      <c r="K111" s="7">
         <v>1500</v>
       </c>
-      <c r="L107" s="7">
-        <v>1</v>
-      </c>
-      <c r="M107" s="7">
-        <v>0</v>
-      </c>
-      <c r="R107">
+      <c r="L111" s="7">
+        <v>1</v>
+      </c>
+      <c r="M111" s="7">
+        <v>0</v>
+      </c>
+      <c r="R111">
         <v>4002006</v>
       </c>
-      <c r="T107">
-        <v>0</v>
-      </c>
-      <c r="U107">
-        <v>0</v>
-      </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-      <c r="Y107">
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
         <v>15008007</v>
       </c>
-    </row>
-    <row r="110" s="2" customFormat="1" spans="1:23">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="10"/>
-      <c r="S110" s="10"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="10"/>
-      <c r="V110" s="2"/>
-      <c r="W110"/>
-    </row>
-    <row r="111" s="2" customFormat="1" spans="1:23">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="10"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="10"/>
-      <c r="S111" s="10"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="10"/>
-      <c r="V111" s="2"/>
-      <c r="W111"/>
-    </row>
-    <row r="112" s="2" customFormat="1" spans="1:23">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="10"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="10"/>
-      <c r="S112" s="10"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="10"/>
-      <c r="V112" s="2"/>
-      <c r="W112"/>
-    </row>
-    <row r="113" s="2" customFormat="1" spans="1:23">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="10"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="10"/>
-      <c r="S113" s="10"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="10"/>
-      <c r="V113" s="2"/>
-      <c r="W113"/>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:23">
       <c r="A114"/>
@@ -5100,6 +5259,106 @@
       <c r="U114" s="10"/>
       <c r="V114" s="2"/>
       <c r="W114"/>
+    </row>
+    <row r="115" s="2" customFormat="1" spans="1:23">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="2"/>
+      <c r="W115"/>
+    </row>
+    <row r="116" s="2" customFormat="1" spans="1:23">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="10"/>
+      <c r="V116" s="2"/>
+      <c r="W116"/>
+    </row>
+    <row r="117" s="2" customFormat="1" spans="1:23">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="10"/>
+      <c r="V117" s="2"/>
+      <c r="W117"/>
+    </row>
+    <row r="118" s="2" customFormat="1" spans="1:23">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="10"/>
+      <c r="V118" s="2"/>
+      <c r="W118"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="11700"/>
+    <workbookView windowWidth="23460" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -148,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>#</t>
   </si>
@@ -343,6 +330,9 @@
   </si>
   <si>
     <t>怪物1普通攻击</t>
+  </si>
+  <si>
+    <t>怪物2 普通攻击投掷物</t>
   </si>
   <si>
     <t>怪物 3个投掷物（有角度） 攻击</t>
@@ -456,7 +446,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -616,12 +606,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1472,17 +1462,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y118"/>
+  <dimension ref="A1:Y121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="A33" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="6270" ySplit="2985" topLeftCell="A30" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="15.375" style="3" customWidth="1"/>
@@ -1503,7 +1493,7 @@
     <col min="25" max="25" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:25">
+    <row r="1" ht="34" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2986,19 +2976,15 @@
         <v>65</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="7">
-        <v>1500</v>
+        <v>99999999</v>
       </c>
       <c r="I38" s="7">
         <v>0</v>
@@ -3013,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="M38" s="7">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>4103101</v>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>4003101</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38">
@@ -3029,96 +3015,53 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:25">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="3">
-        <v>3102201</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1500</v>
-      </c>
-      <c r="I39" s="7">
-        <v>-30</v>
-      </c>
-      <c r="J39" s="7">
-        <v>15000</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L39" s="7">
-        <v>1</v>
-      </c>
-      <c r="M39" s="7">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>4103101</v>
-      </c>
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:19">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:25">
+    </row>
+    <row r="40" customFormat="1" spans="1:23">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="3">
-        <v>3102301</v>
+        <v>3103101</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G40" s="7"/>
       <c r="H40" s="7">
-        <v>1500</v>
+        <v>99999999</v>
       </c>
       <c r="I40" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7">
-        <v>15000</v>
+        <v>99999999</v>
       </c>
       <c r="K40" s="7">
         <v>1500</v>
@@ -3127,10 +3070,10 @@
         <v>1</v>
       </c>
       <c r="M40" s="7">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>4103101</v>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>4101101</v>
       </c>
       <c r="S40" s="7"/>
       <c r="T40">
@@ -3142,57 +3085,177 @@
       <c r="W40">
         <v>0</v>
       </c>
-      <c r="Y40">
+    </row>
+    <row r="41" customFormat="1" spans="1:25">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3103201</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>15000</v>
+      </c>
+      <c r="K41" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="7">
+        <v>1</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>4103101</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
         <v>15008003</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:19">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="S41" s="7"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:19">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+    <row r="42" customFormat="1" spans="1:25">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3103301</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I42" s="7">
+        <v>-30</v>
+      </c>
+      <c r="J42" s="7">
+        <v>15000</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L42" s="7">
+        <v>1</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>4103101</v>
+      </c>
       <c r="S42" s="7"/>
-    </row>
-    <row r="43" customFormat="1" spans="1:19">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:25">
+      <c r="A43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3103401</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I43" s="7">
+        <v>30</v>
+      </c>
+      <c r="J43" s="7">
+        <v>15000</v>
+      </c>
+      <c r="K43" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L43" s="7">
+        <v>1</v>
+      </c>
+      <c r="M43" s="7">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>4103101</v>
+      </c>
       <c r="S43" s="7"/>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>15008003</v>
+      </c>
     </row>
     <row r="44" customFormat="1" spans="1:19">
       <c r="A44" s="3"/>
@@ -3210,108 +3273,37 @@
       <c r="M44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" customFormat="1" spans="1:23">
-      <c r="A45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="3">
-        <v>3501101</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1</v>
-      </c>
-      <c r="F45" s="7">
-        <v>1</v>
-      </c>
+    <row r="45" customFormat="1" spans="1:19">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="K45" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L45" s="7">
-        <v>1</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>4501101</v>
-      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:23">
-      <c r="A46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="3">
-        <v>3502101</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:19">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="K46" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L46" s="7">
-        <v>1</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>4502101</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="S46" s="7"/>
     </row>
     <row r="47" customFormat="1" spans="1:19">
       <c r="A47" s="3"/>
@@ -3329,227 +3321,169 @@
       <c r="M47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" customFormat="1" spans="1:19">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+    <row r="48" customFormat="1" spans="1:23">
+      <c r="A48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3501101</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="H48" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L48" s="7">
+        <v>1</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>4501101</v>
+      </c>
       <c r="S48" s="7"/>
-    </row>
-    <row r="49" customFormat="1" spans="1:19">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:23">
+      <c r="A49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3502101</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="S49" s="7"/>
-    </row>
-    <row r="50" customFormat="1" spans="1:25">
-      <c r="A50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="3">
-        <v>3801101</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
+      <c r="H49" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L49" s="7">
+        <v>1</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>4502101</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:19">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
-        <v>13000</v>
-      </c>
-      <c r="K50" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L50" s="7">
-        <v>1</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>4801101</v>
-      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
       <c r="S50" s="7"/>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>4</v>
-      </c>
-      <c r="V50" t="s">
-        <v>71</v>
-      </c>
-      <c r="W50">
-        <v>9999999</v>
-      </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:25">
-      <c r="A51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="3">
-        <v>3801102</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="7">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:19">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7">
-        <v>13000</v>
-      </c>
-      <c r="K51" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L51" s="7">
-        <v>1</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>4801102</v>
-      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51">
-        <v>4</v>
-      </c>
-      <c r="U51">
-        <v>4</v>
-      </c>
-      <c r="V51" t="s">
-        <v>71</v>
-      </c>
-      <c r="W51">
-        <v>9999999</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-      <c r="Y51">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:25">
-      <c r="A52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="3">
-        <v>3801103</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="7">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:19">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7">
-        <v>13000</v>
-      </c>
-      <c r="K52" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L52" s="7">
-        <v>1</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>4801103</v>
-      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
       <c r="S52" s="7"/>
-      <c r="T52">
-        <v>5</v>
-      </c>
-      <c r="U52">
-        <v>4</v>
-      </c>
-      <c r="V52" t="s">
-        <v>71</v>
-      </c>
-      <c r="W52">
-        <v>9999999</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="Y52">
-        <v>15008007</v>
-      </c>
     </row>
     <row r="53" customFormat="1" spans="1:25">
       <c r="A53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="3">
-        <v>3801104</v>
+        <v>3801101</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E53" s="7">
         <v>1</v>
@@ -3575,17 +3509,17 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>4801104</v>
+        <v>4801101</v>
       </c>
       <c r="S53" s="7"/>
       <c r="T53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U53">
         <v>4</v>
       </c>
       <c r="V53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W53">
         <v>9999999</v>
@@ -3602,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="B54" s="3">
-        <v>3801105</v>
+        <v>3801102</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E54" s="7">
         <v>1</v>
@@ -3634,17 +3568,17 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <v>4801105</v>
+        <v>4801102</v>
       </c>
       <c r="S54" s="7"/>
       <c r="T54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U54">
         <v>4</v>
       </c>
       <c r="V54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W54">
         <v>9999999</v>
@@ -3656,53 +3590,182 @@
         <v>15008007</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="1:19">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+    <row r="55" customFormat="1" spans="1:25">
+      <c r="A55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3801103</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
+      <c r="H55" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>13000</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L55" s="7">
+        <v>1</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>4801103</v>
+      </c>
       <c r="S55" s="7"/>
-    </row>
-    <row r="56" customFormat="1" spans="1:19">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
+        <v>4</v>
+      </c>
+      <c r="V55" t="s">
+        <v>72</v>
+      </c>
+      <c r="W55">
+        <v>9999999</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:25">
+      <c r="A56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3801104</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
+      <c r="H56" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>13000</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L56" s="7">
+        <v>1</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>4801104</v>
+      </c>
       <c r="S56" s="7"/>
-    </row>
-    <row r="57" customFormat="1" spans="1:19">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="T56">
+        <v>6</v>
+      </c>
+      <c r="U56">
+        <v>4</v>
+      </c>
+      <c r="V56" t="s">
+        <v>72</v>
+      </c>
+      <c r="W56">
+        <v>9999999</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:25">
+      <c r="A57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3801105</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1</v>
+      </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
+      <c r="H57" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>13000</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="7">
+        <v>1</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>4801105</v>
+      </c>
       <c r="S57" s="7"/>
+      <c r="T57">
+        <v>7</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57" t="s">
+        <v>72</v>
+      </c>
+      <c r="W57">
+        <v>9999999</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="58" customFormat="1" spans="1:19">
       <c r="A58" s="3"/>
@@ -3720,55 +3783,21 @@
       <c r="M58" s="7"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" customFormat="1" spans="1:25">
-      <c r="A59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="3">
-        <v>3820101</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="7">
-        <v>1</v>
-      </c>
+    <row r="59" customFormat="1" spans="1:19">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7">
-        <v>5000</v>
-      </c>
-      <c r="K59" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L59" s="7">
-        <v>1</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>4820101</v>
-      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="60" customFormat="1" spans="1:19">
       <c r="A60" s="3"/>
@@ -3802,72 +3831,75 @@
       <c r="M61" s="7"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="3:19">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+    <row r="62" customFormat="1" spans="1:25">
+      <c r="A62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3">
+        <v>3820101</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
+      <c r="H62" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>5000</v>
+      </c>
+      <c r="K62" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L62" s="7">
+        <v>1</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>4820101</v>
+      </c>
       <c r="S62" s="7"/>
-    </row>
-    <row r="63" customFormat="1" spans="1:25">
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:19">
       <c r="A63" s="3"/>
-      <c r="B63" s="3">
-        <v>3000101</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="7">
-        <v>1</v>
-      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
-        <v>15000</v>
-      </c>
-      <c r="K63" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L63" s="7">
-        <v>1</v>
-      </c>
-      <c r="M63" s="7">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>4001001</v>
-      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
       <c r="S63" s="7"/>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="64" spans="3:19">
+    </row>
+    <row r="64" customFormat="1" spans="1:19">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -3881,87 +3913,44 @@
       <c r="M64" s="7"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" customFormat="1" spans="1:25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3">
-        <v>3100101</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="7">
-        <v>0</v>
-      </c>
+    <row r="65" spans="3:19">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="7">
-        <v>500</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7">
-        <v>10000</v>
-      </c>
-      <c r="K65" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L65" s="7">
-        <v>1</v>
-      </c>
-      <c r="M65" s="7">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>4100101</v>
-      </c>
-      <c r="P65">
-        <v>-200</v>
-      </c>
-      <c r="Q65">
-        <v>-600</v>
-      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
       <c r="S65" s="7"/>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="66" customFormat="1" spans="1:25">
       <c r="A66" s="3"/>
       <c r="B66" s="3">
-        <v>3100102</v>
+        <v>3000101</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E66" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7">
-        <v>800</v>
+        <v>99999999</v>
       </c>
       <c r="I66" s="7">
         <v>0</v>
       </c>
       <c r="J66" s="7">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K66" s="7">
         <v>1500</v>
@@ -3970,16 +3959,10 @@
         <v>1</v>
       </c>
       <c r="M66" s="7">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>4100102</v>
-      </c>
-      <c r="P66">
-        <v>-200</v>
-      </c>
-      <c r="Q66">
-        <v>-600</v>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>4001001</v>
       </c>
       <c r="S66" s="7"/>
       <c r="T66">
@@ -3992,76 +3975,33 @@
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3">
-        <v>3100103</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E67" s="7">
-        <v>0</v>
-      </c>
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="7">
-        <v>1100</v>
-      </c>
-      <c r="I67" s="7">
-        <v>0</v>
-      </c>
-      <c r="J67" s="7">
-        <v>10000</v>
-      </c>
-      <c r="K67" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L67" s="7">
-        <v>1</v>
-      </c>
-      <c r="M67" s="7">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>4100103</v>
-      </c>
-      <c r="P67">
-        <v>-200</v>
-      </c>
-      <c r="Q67">
-        <v>-600</v>
-      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
       <c r="S67" s="7"/>
-      <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="U67">
-        <v>1</v>
-      </c>
-      <c r="W67">
-        <v>9999999</v>
-      </c>
-      <c r="Y67">
-        <v>15008003</v>
-      </c>
     </row>
     <row r="68" customFormat="1" spans="1:25">
       <c r="A68" s="3"/>
       <c r="B68" s="3">
-        <v>3100104</v>
+        <v>3100101</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E68" s="7">
         <v>0</v>
@@ -4069,7 +4009,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="I68" s="7">
         <v>0</v>
@@ -4087,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>4100104</v>
+        <v>4100101</v>
       </c>
       <c r="P68">
         <v>-200</v>
@@ -4097,13 +4037,13 @@
       </c>
       <c r="S68" s="7"/>
       <c r="T68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>15008003</v>
@@ -4112,13 +4052,13 @@
     <row r="69" customFormat="1" spans="1:25">
       <c r="A69" s="3"/>
       <c r="B69" s="3">
-        <v>3100105</v>
+        <v>3100102</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E69" s="7">
         <v>0</v>
@@ -4126,7 +4066,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="I69" s="7">
         <v>0</v>
@@ -4144,69 +4084,198 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>4100105</v>
+        <v>4100102</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="S69" s="7"/>
       <c r="T69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>15008003</v>
       </c>
     </row>
-    <row r="70" spans="3:19">
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+    <row r="70" customFormat="1" spans="1:25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3">
+        <v>3100103</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
+      <c r="H70" s="7">
+        <v>1100</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K70" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L70" s="7">
+        <v>1</v>
+      </c>
+      <c r="M70" s="7">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>4100103</v>
+      </c>
+      <c r="P70">
+        <v>-200</v>
+      </c>
+      <c r="Q70">
+        <v>-600</v>
+      </c>
       <c r="S70" s="7"/>
-    </row>
-    <row r="71" spans="3:19">
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>9999999</v>
+      </c>
+      <c r="Y70">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3">
+        <v>3100104</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
+      <c r="H71" s="7">
+        <v>1400</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K71" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L71" s="7">
+        <v>1</v>
+      </c>
+      <c r="M71" s="7">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>4100104</v>
+      </c>
+      <c r="P71">
+        <v>-200</v>
+      </c>
+      <c r="Q71">
+        <v>-600</v>
+      </c>
       <c r="S71" s="7"/>
-    </row>
-    <row r="72" spans="3:19">
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>9999999</v>
+      </c>
+      <c r="Y71">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3">
+        <v>3100105</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
+      <c r="H72" s="7">
+        <v>1700</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K72" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L72" s="7">
+        <v>1</v>
+      </c>
+      <c r="M72" s="7">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>4100105</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
       <c r="S72" s="7"/>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>9999999</v>
+      </c>
+      <c r="Y72">
+        <v>15008003</v>
+      </c>
     </row>
     <row r="73" spans="3:19">
       <c r="C73" s="7"/>
@@ -4320,104 +4389,33 @@
       <c r="M80" s="7"/>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" spans="2:23">
-      <c r="B81" s="3">
-        <v>3001001</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E81" s="7">
-        <v>1</v>
-      </c>
-      <c r="F81" s="7">
-        <v>1</v>
-      </c>
+    <row r="81" spans="3:19">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0</v>
-      </c>
-      <c r="J81" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="K81" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L81" s="7">
-        <v>1</v>
-      </c>
-      <c r="M81" s="7">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>4001001</v>
-      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
       <c r="S81" s="7"/>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:25">
-      <c r="B82" s="3">
-        <v>3001002</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" s="7">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="82" spans="3:19">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="7">
-        <v>500</v>
-      </c>
-      <c r="I82" s="7">
-        <v>0</v>
-      </c>
-      <c r="J82" s="7">
-        <v>7000</v>
-      </c>
-      <c r="K82" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L82" s="7">
-        <v>1</v>
-      </c>
-      <c r="M82" s="7">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>4001002</v>
-      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
       <c r="S82" s="7"/>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>15008016</v>
-      </c>
     </row>
     <row r="83" spans="3:19">
       <c r="C83" s="7"/>
@@ -4433,193 +4431,156 @@
       <c r="M83" s="7"/>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="3:19">
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+    <row r="84" spans="2:23">
+      <c r="B84" s="3">
+        <v>3001001</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" s="7">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1</v>
+      </c>
       <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
+      <c r="H84" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="K84" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L84" s="7">
+        <v>1</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>4001001</v>
+      </c>
       <c r="S84" s="7"/>
-    </row>
-    <row r="85" spans="3:19">
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25">
+      <c r="B85" s="3">
+        <v>3001002</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
+      <c r="H85" s="7">
+        <v>500</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>7000</v>
+      </c>
+      <c r="K85" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L85" s="7">
+        <v>1</v>
+      </c>
+      <c r="M85" s="7">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>4001002</v>
+      </c>
       <c r="S85" s="7"/>
-    </row>
-    <row r="86" spans="2:25">
-      <c r="B86" s="3">
-        <v>3001011</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E86" s="7">
-        <v>1</v>
-      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>15008016</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I86" s="7">
-        <v>0</v>
-      </c>
-      <c r="J86" s="7">
-        <v>15000</v>
-      </c>
-      <c r="K86" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L86" s="7">
-        <v>1</v>
-      </c>
-      <c r="M86" s="7">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>4001001</v>
-      </c>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
       <c r="S86" s="7"/>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>15008007</v>
-      </c>
-    </row>
-    <row r="87" spans="2:25">
-      <c r="B87" s="3">
-        <v>3001012</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E87" s="7">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="87" spans="3:19">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="7">
-        <v>2000</v>
-      </c>
-      <c r="I87" s="7">
-        <v>0</v>
-      </c>
-      <c r="J87" s="7">
-        <v>18000</v>
-      </c>
-      <c r="K87" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L87" s="7">
-        <v>1</v>
-      </c>
-      <c r="M87" s="7">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>4001006</v>
-      </c>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
       <c r="S87" s="7"/>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="Y87">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="88" spans="2:25">
-      <c r="B88" s="3">
-        <v>3001013</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88" s="7">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="88" spans="3:19">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I88" s="7">
-        <v>0</v>
-      </c>
-      <c r="J88" s="7">
-        <v>15000</v>
-      </c>
-      <c r="K88" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L88" s="7">
-        <v>1</v>
-      </c>
-      <c r="M88" s="7">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>4001007</v>
-      </c>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
       <c r="S88" s="7"/>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-      <c r="Y88">
-        <v>15008007</v>
-      </c>
     </row>
     <row r="89" spans="2:25">
       <c r="B89" s="3">
-        <v>3001014</v>
+        <v>3001011</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E89" s="7">
         <v>1</v>
@@ -4633,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="7">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="K89" s="7">
         <v>1500</v>
@@ -4645,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="R89">
-        <v>13001012</v>
+        <v>4001001</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89">
@@ -4661,51 +4622,157 @@
         <v>15008007</v>
       </c>
     </row>
-    <row r="90" spans="3:19">
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
+    <row r="90" spans="2:25">
+      <c r="B90" s="3">
+        <v>3001012</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
+      <c r="H90" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>18000</v>
+      </c>
+      <c r="K90" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L90" s="7">
+        <v>1</v>
+      </c>
+      <c r="M90" s="7">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>4001006</v>
+      </c>
       <c r="S90" s="7"/>
-    </row>
-    <row r="91" spans="3:19">
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25">
+      <c r="B91" s="3">
+        <v>3001013</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="7">
+        <v>1</v>
+      </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
+      <c r="H91" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7">
+        <v>15000</v>
+      </c>
+      <c r="K91" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L91" s="7">
+        <v>1</v>
+      </c>
+      <c r="M91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>4001007</v>
+      </c>
       <c r="S91" s="7"/>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="1:19">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25">
+      <c r="B92" s="3">
+        <v>3001014</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="7">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>5000</v>
+      </c>
+      <c r="K92" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L92" s="7">
+        <v>1</v>
+      </c>
+      <c r="M92" s="7">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>13001012</v>
+      </c>
       <c r="S92" s="7"/>
-    </row>
-    <row r="93" spans="3:13">
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19">
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -4717,105 +4784,39 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
-    </row>
-    <row r="94" spans="2:23">
-      <c r="B94" s="3">
-        <v>3002001</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E94" s="7">
-        <v>1</v>
-      </c>
-      <c r="F94" s="7">
-        <v>1</v>
-      </c>
+      <c r="S93" s="7"/>
+    </row>
+    <row r="94" spans="3:19">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I94" s="7">
-        <v>0</v>
-      </c>
-      <c r="J94" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="K94" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L94" s="7">
-        <v>1</v>
-      </c>
-      <c r="M94" s="7">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>4002001</v>
-      </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:25">
-      <c r="B95" s="3">
-        <v>3002002</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E95" s="7">
-        <v>0</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7">
-        <v>500</v>
-      </c>
-      <c r="I95" s="7">
-        <v>0</v>
-      </c>
-      <c r="J95" s="7">
-        <v>7000</v>
-      </c>
-      <c r="K95" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L95" s="7">
-        <v>0</v>
-      </c>
-      <c r="M95" s="7">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>4002002</v>
-      </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-      <c r="Y95">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="96" spans="3:19">
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="S94" s="7"/>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:19">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="S95" s="7"/>
+    </row>
+    <row r="96" spans="3:13">
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -4827,23 +4828,23 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
-      <c r="S96" s="7"/>
-    </row>
-    <row r="97" customFormat="1" spans="1:25">
-      <c r="A97" s="3"/>
+    </row>
+    <row r="97" spans="2:23">
       <c r="B97" s="3">
-        <v>3002011</v>
+        <v>3002001</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
       </c>
-      <c r="F97" s="7"/>
+      <c r="F97" s="7">
+        <v>1</v>
+      </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7">
         <v>99999999</v>
@@ -4852,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="7">
-        <v>8000</v>
+        <v>99999999</v>
       </c>
       <c r="K97" s="7">
         <v>1500</v>
@@ -4864,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>4002006</v>
+        <v>4002001</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -4874,20 +4875,17 @@
       </c>
       <c r="W97">
         <v>0</v>
-      </c>
-      <c r="Y97">
-        <v>15008007</v>
       </c>
     </row>
     <row r="98" spans="2:25">
       <c r="B98" s="3">
-        <v>3002012</v>
+        <v>3002002</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E98" s="7">
         <v>0</v>
@@ -4895,25 +4893,25 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I98" s="7">
         <v>0</v>
       </c>
       <c r="J98" s="7">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="K98" s="7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L98" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98">
-        <v>4002007</v>
+        <v>4002002</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -4928,7 +4926,7 @@
         <v>15008003</v>
       </c>
     </row>
-    <row r="99" spans="3:13">
+    <row r="99" spans="3:19">
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -4940,23 +4938,23 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
-    </row>
-    <row r="100" spans="2:23">
+      <c r="S99" s="7"/>
+    </row>
+    <row r="100" customFormat="1" spans="1:25">
+      <c r="A100" s="3"/>
       <c r="B100" s="3">
-        <v>3003001</v>
+        <v>3002011</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
       </c>
-      <c r="F100" s="7">
-        <v>1</v>
-      </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7">
         <v>99999999</v>
@@ -4965,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="7">
-        <v>99999999</v>
+        <v>8000</v>
       </c>
       <c r="K100" s="7">
         <v>1500</v>
@@ -4977,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>4002001</v>
+        <v>4002006</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -4987,17 +4985,20 @@
       </c>
       <c r="W100">
         <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>15008007</v>
       </c>
     </row>
     <row r="101" spans="2:25">
       <c r="B101" s="3">
-        <v>3003002</v>
+        <v>3002012</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E101" s="7">
         <v>0</v>
@@ -5005,16 +5006,16 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I101" s="7">
         <v>0</v>
       </c>
       <c r="J101" s="7">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="K101" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L101" s="7">
         <v>1</v>
@@ -5023,93 +5024,59 @@
         <v>1</v>
       </c>
       <c r="O101">
-        <v>4002011</v>
+        <v>4002007</v>
       </c>
       <c r="T101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W101">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="Y101">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="102" spans="2:25">
-      <c r="B102" s="3">
-        <v>3003003</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E102" s="7">
-        <v>0</v>
-      </c>
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="7">
-        <v>500</v>
-      </c>
-      <c r="I102" s="7">
-        <v>30</v>
-      </c>
-      <c r="J102" s="7">
-        <v>17000</v>
-      </c>
-      <c r="K102" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L102" s="7">
-        <v>1</v>
-      </c>
-      <c r="M102" s="7">
-        <v>1</v>
-      </c>
-      <c r="O102">
-        <v>4002011</v>
-      </c>
-      <c r="T102">
-        <v>1</v>
-      </c>
-      <c r="U102">
-        <v>1</v>
-      </c>
-      <c r="W102">
-        <v>9999999</v>
-      </c>
-      <c r="Y102">
-        <v>15008008</v>
-      </c>
-    </row>
-    <row r="103" spans="2:25">
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+    </row>
+    <row r="103" spans="2:23">
       <c r="B103" s="3">
-        <v>3003004</v>
+        <v>3003001</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E103" s="7">
-        <v>0</v>
-      </c>
-      <c r="F103" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F103" s="7">
+        <v>1</v>
+      </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="I103" s="7">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J103" s="7">
-        <v>17000</v>
+        <v>99999999</v>
       </c>
       <c r="K103" s="7">
         <v>1500</v>
@@ -5118,88 +5085,185 @@
         <v>1</v>
       </c>
       <c r="M103" s="7">
-        <v>1</v>
-      </c>
-      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>4002001</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:25">
+      <c r="B104" s="3">
+        <v>3003002</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7">
+        <v>500</v>
+      </c>
+      <c r="I104" s="7">
+        <v>0</v>
+      </c>
+      <c r="J104" s="7">
+        <v>17000</v>
+      </c>
+      <c r="K104" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L104" s="7">
+        <v>1</v>
+      </c>
+      <c r="M104" s="7">
+        <v>1</v>
+      </c>
+      <c r="O104">
         <v>4002011</v>
       </c>
-      <c r="T103">
-        <v>1</v>
-      </c>
-      <c r="U103">
-        <v>1</v>
-      </c>
-      <c r="W103">
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="W104">
         <v>9999999</v>
       </c>
-      <c r="Y103">
+      <c r="Y104">
         <v>15008008</v>
       </c>
     </row>
-    <row r="108" customFormat="1" spans="1:23">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3">
-        <v>3061101</v>
-      </c>
-      <c r="C108" s="7" t="s">
+    <row r="105" spans="2:25">
+      <c r="B105" s="3">
+        <v>3003003</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="7">
+        <v>0</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7">
+        <v>500</v>
+      </c>
+      <c r="I105" s="7">
+        <v>30</v>
+      </c>
+      <c r="J105" s="7">
+        <v>17000</v>
+      </c>
+      <c r="K105" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L105" s="7">
+        <v>1</v>
+      </c>
+      <c r="M105" s="7">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>4002011</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="W105">
+        <v>9999999</v>
+      </c>
+      <c r="Y105">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="106" spans="2:25">
+      <c r="B106" s="3">
+        <v>3003004</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E108" s="7">
-        <v>1</v>
-      </c>
-      <c r="F108" s="7">
-        <v>1</v>
-      </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="I108" s="7">
-        <v>0</v>
-      </c>
-      <c r="J108" s="7">
-        <v>99999999</v>
-      </c>
-      <c r="K108" s="7">
+      <c r="D106" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7">
+        <v>500</v>
+      </c>
+      <c r="I106" s="7">
+        <v>-30</v>
+      </c>
+      <c r="J106" s="7">
+        <v>17000</v>
+      </c>
+      <c r="K106" s="7">
         <v>1500</v>
       </c>
-      <c r="L108" s="7">
-        <v>1</v>
-      </c>
-      <c r="M108" s="7">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>4002001</v>
-      </c>
-      <c r="T108">
-        <v>0</v>
-      </c>
-      <c r="U108">
-        <v>0</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" customFormat="1" spans="1:25">
+      <c r="L106" s="7">
+        <v>1</v>
+      </c>
+      <c r="M106" s="7">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>4002011</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="W106">
+        <v>9999999</v>
+      </c>
+      <c r="Y106">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="1:23">
       <c r="A111" s="3"/>
       <c r="B111" s="3">
-        <v>3062101</v>
+        <v>3061101</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E111" s="7">
         <v>1</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7">
+        <v>1</v>
+      </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7">
         <v>99999999</v>
@@ -5208,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="7">
-        <v>8000</v>
+        <v>99999999</v>
       </c>
       <c r="K111" s="7">
         <v>1500</v>
@@ -5220,95 +5284,67 @@
         <v>0</v>
       </c>
       <c r="R111">
+        <v>4002001</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" spans="1:25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3">
+        <v>3062101</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E114" s="7">
+        <v>1</v>
+      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I114" s="7">
+        <v>0</v>
+      </c>
+      <c r="J114" s="7">
+        <v>8000</v>
+      </c>
+      <c r="K114" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L114" s="7">
+        <v>1</v>
+      </c>
+      <c r="M114" s="7">
+        <v>0</v>
+      </c>
+      <c r="R114">
         <v>4002006</v>
       </c>
-      <c r="T111">
-        <v>0</v>
-      </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-      <c r="Y111">
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
         <v>15008007</v>
       </c>
-    </row>
-    <row r="114" s="2" customFormat="1" spans="1:23">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="10"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="10"/>
-      <c r="S114" s="10"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="10"/>
-      <c r="V114" s="2"/>
-      <c r="W114"/>
-    </row>
-    <row r="115" s="2" customFormat="1" spans="1:23">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="10"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="10"/>
-      <c r="S115" s="10"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="10"/>
-      <c r="V115" s="2"/>
-      <c r="W115"/>
-    </row>
-    <row r="116" s="2" customFormat="1" spans="1:23">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
-      <c r="O116" s="10"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="10"/>
-      <c r="S116" s="10"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="10"/>
-      <c r="V116" s="2"/>
-      <c r="W116"/>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:23">
       <c r="A117"/>
@@ -5332,7 +5368,6 @@
       <c r="S117" s="10"/>
       <c r="T117" s="7"/>
       <c r="U117" s="10"/>
-      <c r="V117" s="2"/>
       <c r="W117"/>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:23">
@@ -5357,8 +5392,79 @@
       <c r="S118" s="10"/>
       <c r="T118" s="7"/>
       <c r="U118" s="10"/>
-      <c r="V118" s="2"/>
       <c r="W118"/>
+    </row>
+    <row r="119" s="2" customFormat="1" spans="1:23">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="10"/>
+      <c r="W119"/>
+    </row>
+    <row r="120" s="2" customFormat="1" spans="1:23">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="10"/>
+      <c r="W120"/>
+    </row>
+    <row r="121" s="2" customFormat="1" spans="1:23">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="10"/>
+      <c r="W121"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5377,7 +5483,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5394,7 +5500,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23460" windowHeight="10880"/>
+    <workbookView windowWidth="19320" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -446,7 +459,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -606,12 +619,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1464,15 +1477,15 @@
   <sheetPr/>
   <dimension ref="A1:Y121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6270" ySplit="2985" topLeftCell="A30" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="15.375" style="3" customWidth="1"/>
@@ -1493,7 +1506,7 @@
     <col min="25" max="25" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" spans="1:25">
+    <row r="1" ht="27" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5483,7 +5496,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5500,7 +5513,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19320" windowHeight="11700"/>
+    <workbookView windowWidth="14400" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1478,11 +1478,11 @@
   <dimension ref="A1:Y121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="A30" activePane="bottomLeft"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="R30" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>4003101</v>
+        <v>4002101</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38">

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="11700"/>
+    <workbookView windowWidth="17940" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>怪物2 普通攻击投掷物</t>
+  </si>
+  <si>
+    <t>怪物boss普通攻击投掷物</t>
   </si>
   <si>
     <t>怪物 3个投掷物（有角度） 攻击</t>
@@ -619,12 +622,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1478,11 +1481,11 @@
   <dimension ref="A1:Y121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="R30" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="R27" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="$A40:$XFD40"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3055,7 +3058,7 @@
         <v>3103101</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>64</v>
@@ -3107,10 +3110,10 @@
         <v>3103201</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41" s="7">
         <v>0</v>
@@ -3164,10 +3167,10 @@
         <v>3103301</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42" s="7">
         <v>0</v>
@@ -3221,10 +3224,10 @@
         <v>3103401</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E43" s="7">
         <v>0</v>
@@ -3342,10 +3345,10 @@
         <v>3501101</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E48" s="7">
         <v>1</v>
@@ -3394,10 +3397,10 @@
         <v>3502101</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" s="7">
         <v>1</v>
@@ -3493,10 +3496,10 @@
         <v>3801101</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E53" s="7">
         <v>1</v>
@@ -3532,7 +3535,7 @@
         <v>4</v>
       </c>
       <c r="V53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W53">
         <v>9999999</v>
@@ -3552,10 +3555,10 @@
         <v>3801102</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" s="7">
         <v>1</v>
@@ -3591,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="V54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W54">
         <v>9999999</v>
@@ -3611,10 +3614,10 @@
         <v>3801103</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55" s="7">
         <v>1</v>
@@ -3650,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="V55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W55">
         <v>9999999</v>
@@ -3670,10 +3673,10 @@
         <v>3801104</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56" s="7">
         <v>1</v>
@@ -3709,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="V56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W56">
         <v>9999999</v>
@@ -3729,10 +3732,10 @@
         <v>3801105</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E57" s="7">
         <v>1</v>
@@ -3768,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="V57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W57">
         <v>9999999</v>
@@ -3852,10 +3855,10 @@
         <v>3820101</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E62" s="7">
         <v>1</v>
@@ -4011,10 +4014,10 @@
         <v>3100101</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E68" s="7">
         <v>0</v>
@@ -4068,10 +4071,10 @@
         <v>3100102</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E69" s="7">
         <v>0</v>
@@ -4125,10 +4128,10 @@
         <v>3100103</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E70" s="7">
         <v>0</v>
@@ -4182,10 +4185,10 @@
         <v>3100104</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E71" s="7">
         <v>0</v>
@@ -4239,10 +4242,10 @@
         <v>3100105</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E72" s="7">
         <v>0</v>
@@ -4449,10 +4452,10 @@
         <v>3001001</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" s="7">
         <v>1</v>
@@ -4498,10 +4501,10 @@
         <v>3001002</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" s="7">
         <v>0</v>
@@ -4640,10 +4643,10 @@
         <v>3001012</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="7">
         <v>0</v>
@@ -4690,10 +4693,10 @@
         <v>3001013</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
@@ -4740,10 +4743,10 @@
         <v>3001014</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
@@ -4895,10 +4898,10 @@
         <v>3002002</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E98" s="7">
         <v>0</v>
@@ -4959,10 +4962,10 @@
         <v>3002011</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -5008,10 +5011,10 @@
         <v>3002012</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E101" s="7">
         <v>0</v>
@@ -5070,10 +5073,10 @@
         <v>3003001</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -5118,10 +5121,10 @@
         <v>3003002</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E104" s="7">
         <v>0</v>
@@ -5167,10 +5170,10 @@
         <v>3003003</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E105" s="7">
         <v>0</v>
@@ -5216,10 +5219,10 @@
         <v>3003004</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E106" s="7">
         <v>0</v>
@@ -5266,7 +5269,7 @@
         <v>3061101</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>64</v>
@@ -5315,10 +5318,10 @@
         <v>3062101</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E114" s="7">
         <v>1</v>

--- a/data_config/ProjectileEffect.xlsx
+++ b/data_config/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17940" windowHeight="11700"/>
+    <workbookView windowWidth="16440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="104">
   <si>
     <t>#</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>随机技能 连锁球 lv5</t>
+  </si>
+  <si>
+    <t>大灰熊普通攻击投掷物</t>
   </si>
   <si>
     <t>道具技能 被攻击时候反射攻击球</t>
@@ -622,12 +625,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1481,11 +1484,11 @@
   <dimension ref="A1:Y121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6270" ySplit="2985" topLeftCell="R27" activePane="bottomLeft"/>
+      <pane xSplit="6270" ySplit="2985" topLeftCell="Q48" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="$A40:$XFD40"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3815,21 +3818,57 @@
       <c r="M59" s="7"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" customFormat="1" spans="1:19">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+    <row r="60" customFormat="1" spans="1:23">
+      <c r="A60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3880101</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
       <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
+      <c r="H60" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>99999999</v>
+      </c>
+      <c r="K60" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="7">
+        <v>1</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>4880101</v>
+      </c>
       <c r="S60" s="7"/>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="1" spans="1:19">
       <c r="A61" s="3"/>
@@ -3855,10 +3894,10 @@
         <v>3820101</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E62" s="7">
         <v>1</v>
@@ -4014,10 +4053,10 @@
         <v>3100101</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E68" s="7">
         <v>0</v>
@@ -4071,10 +4110,10 @@
         <v>3100102</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E69" s="7">
         <v>0</v>
@@ -4128,10 +4167,10 @@
         <v>3100103</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E70" s="7">
         <v>0</v>
@@ -4185,10 +4224,10 @@
         <v>3100104</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E71" s="7">
         <v>0</v>
@@ -4242,10 +4281,10 @@
         <v>3100105</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" s="7">
         <v>0</v>
@@ -4452,10 +4491,10 @@
         <v>3001001</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="7">
         <v>1</v>
@@ -4501,10 +4540,10 @@
         <v>3001002</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" s="7">
         <v>0</v>
@@ -4643,10 +4682,10 @@
         <v>3001012</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E90" s="7">
         <v>0</v>
@@ -4693,10 +4732,10 @@
         <v>3001013</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
@@ -4743,10 +4782,10 @@
         <v>3001014</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
@@ -4898,10 +4937,10 @@
         <v>3002002</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E98" s="7">
         <v>0</v>
@@ -4962,10 +5001,10 @@
         <v>3002011</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -5011,10 +5050,10 @@
         <v>3002012</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="7">
         <v>0</v>
@@ -5073,10 +5112,10 @@
         <v>3003001</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -5121,10 +5160,10 @@
         <v>3003002</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E104" s="7">
         <v>0</v>
@@ -5170,10 +5209,10 @@
         <v>3003003</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E105" s="7">
         <v>0</v>
@@ -5219,10 +5258,10 @@
         <v>3003004</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E106" s="7">
         <v>0</v>
@@ -5269,7 +5308,7 @@
         <v>3061101</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>64</v>
@@ -5318,10 +5357,10 @@
         <v>3062101</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E114" s="7">
         <v>1</v>
